--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -402,10 +402,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -587,445 +587,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1">
-        <v>8</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B12" s="1">
         <v>8.3</v>
       </c>
-      <c r="C24" s="1">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
         <v>7.3</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1">
-        <v>5</v>
-      </c>
-      <c r="D25" s="1">
-        <v>8</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="1">
-        <v>8.3</v>
-      </c>
-      <c r="C26" s="1">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B13" s="1">
         <v>8.4</v>
       </c>
-      <c r="C27" s="1">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
         <v>7.2</v>
       </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="1">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
         <v>8.1</v>
       </c>
-      <c r="C28" s="1">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
         <v>7.5</v>
       </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="1">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1">
-        <v>5</v>
-      </c>
-      <c r="D29" s="1">
-        <v>8</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
+      <c r="B15" s="1">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B16" s="1">
         <v>8.2</v>
       </c>
-      <c r="C30" s="1">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
         <v>7.4</v>
       </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1">
-        <v>8</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="1">
-        <v>8.3</v>
-      </c>
-      <c r="C32" s="1">
-        <v>5</v>
-      </c>
-      <c r="D32" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="C33" s="1">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="1">
-        <v>8</v>
-      </c>
-      <c r="C35" s="1">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1">
-        <v>8</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="1">
-        <v>8.2</v>
-      </c>
-      <c r="C36" s="1">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1">
-        <v>8</v>
-      </c>
-      <c r="C37" s="1">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1">
-        <v>8</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="1">
-        <v>8.3</v>
-      </c>
-      <c r="C38" s="1">
-        <v>5</v>
-      </c>
-      <c r="D38" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="C40" s="1">
-        <v>5</v>
-      </c>
-      <c r="D40" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="1">
-        <v>8</v>
-      </c>
-      <c r="C41" s="1">
-        <v>5</v>
-      </c>
-      <c r="D41" s="1">
-        <v>8</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="1">
-        <v>8.2</v>
-      </c>
-      <c r="C42" s="1">
-        <v>5</v>
-      </c>
-      <c r="D42" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1">
-        <v>8</v>
-      </c>
-      <c r="C43" s="1">
-        <v>5</v>
-      </c>
-      <c r="D43" s="1">
-        <v>8</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="1">
-        <v>8.3</v>
-      </c>
-      <c r="C44" s="1">
-        <v>5</v>
-      </c>
-      <c r="D44" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="C45" s="1">
-        <v>5</v>
-      </c>
-      <c r="D45" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="C46" s="1">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="1">
-        <v>8</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5</v>
-      </c>
-      <c r="D47" s="1">
-        <v>8</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="1">
-        <v>8.2</v>
-      </c>
-      <c r="C48" s="1">
-        <v>5</v>
-      </c>
-      <c r="D48" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="E16" s="1">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -402,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E15" sqref="E15"/>
@@ -686,6 +686,312 @@
         <v>7.4</v>
       </c>
       <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E34" s="1">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -402,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E15" sqref="E15"/>
@@ -992,6 +992,1536 @@
         <v>7.4</v>
       </c>
       <c r="E34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5</v>
+      </c>
+      <c r="D43" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+      <c r="D52" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5</v>
+      </c>
+      <c r="D63" s="1">
+        <v>8</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1">
+        <v>8</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1">
+        <v>8</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C66" s="1">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5</v>
+      </c>
+      <c r="D68" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="1">
+        <v>8</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1">
+        <v>8</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5</v>
+      </c>
+      <c r="D70" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="1">
+        <v>8</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C72" s="1">
+        <v>5</v>
+      </c>
+      <c r="D72" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C73" s="1">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5</v>
+      </c>
+      <c r="D74" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="1">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1">
+        <v>8</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C76" s="1">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="1">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1">
+        <v>5</v>
+      </c>
+      <c r="D77" s="1">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C78" s="1">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C79" s="1">
+        <v>5</v>
+      </c>
+      <c r="D79" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C80" s="1">
+        <v>5</v>
+      </c>
+      <c r="D80" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="1">
+        <v>8</v>
+      </c>
+      <c r="C81" s="1">
+        <v>5</v>
+      </c>
+      <c r="D81" s="1">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C82" s="1">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>8</v>
+      </c>
+      <c r="C83" s="1">
+        <v>5</v>
+      </c>
+      <c r="D83" s="1">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C84" s="1">
+        <v>5</v>
+      </c>
+      <c r="D84" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C85" s="1">
+        <v>5</v>
+      </c>
+      <c r="D85" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>5</v>
+      </c>
+      <c r="D86" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="1">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1">
+        <v>5</v>
+      </c>
+      <c r="D87" s="1">
+        <v>8</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C88" s="1">
+        <v>5</v>
+      </c>
+      <c r="D88" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>8</v>
+      </c>
+      <c r="C89" s="1">
+        <v>5</v>
+      </c>
+      <c r="D89" s="1">
+        <v>8</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C90" s="1">
+        <v>5</v>
+      </c>
+      <c r="D90" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5</v>
+      </c>
+      <c r="D91" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>5</v>
+      </c>
+      <c r="D92" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="1">
+        <v>8</v>
+      </c>
+      <c r="C93" s="1">
+        <v>5</v>
+      </c>
+      <c r="D93" s="1">
+        <v>8</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C94" s="1">
+        <v>5</v>
+      </c>
+      <c r="D94" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>8</v>
+      </c>
+      <c r="C95" s="1">
+        <v>5</v>
+      </c>
+      <c r="D95" s="1">
+        <v>8</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C96" s="1">
+        <v>5</v>
+      </c>
+      <c r="D96" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C97" s="1">
+        <v>5</v>
+      </c>
+      <c r="D97" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C98" s="1">
+        <v>5</v>
+      </c>
+      <c r="D98" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="1">
+        <v>8</v>
+      </c>
+      <c r="C99" s="1">
+        <v>5</v>
+      </c>
+      <c r="D99" s="1">
+        <v>8</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C100" s="1">
+        <v>5</v>
+      </c>
+      <c r="D100" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>8</v>
+      </c>
+      <c r="C101" s="1">
+        <v>5</v>
+      </c>
+      <c r="D101" s="1">
+        <v>8</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C102" s="1">
+        <v>5</v>
+      </c>
+      <c r="D102" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C103" s="1">
+        <v>5</v>
+      </c>
+      <c r="D103" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>5</v>
+      </c>
+      <c r="D104" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="1">
+        <v>8</v>
+      </c>
+      <c r="C105" s="1">
+        <v>5</v>
+      </c>
+      <c r="D105" s="1">
+        <v>8</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C106" s="1">
+        <v>5</v>
+      </c>
+      <c r="D106" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>8</v>
+      </c>
+      <c r="C107" s="1">
+        <v>5</v>
+      </c>
+      <c r="D107" s="1">
+        <v>8</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C108" s="1">
+        <v>5</v>
+      </c>
+      <c r="D108" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C109" s="1">
+        <v>5</v>
+      </c>
+      <c r="D109" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C110" s="1">
+        <v>5</v>
+      </c>
+      <c r="D110" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1">
+        <v>8</v>
+      </c>
+      <c r="C111" s="1">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1">
+        <v>8</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C112" s="1">
+        <v>5</v>
+      </c>
+      <c r="D112" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="1">
+        <v>8</v>
+      </c>
+      <c r="C113" s="1">
+        <v>5</v>
+      </c>
+      <c r="D113" s="1">
+        <v>8</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5</v>
+      </c>
+      <c r="D114" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C115" s="1">
+        <v>5</v>
+      </c>
+      <c r="D115" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C116" s="1">
+        <v>5</v>
+      </c>
+      <c r="D116" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="1">
+        <v>8</v>
+      </c>
+      <c r="C117" s="1">
+        <v>5</v>
+      </c>
+      <c r="D117" s="1">
+        <v>8</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C118" s="1">
+        <v>5</v>
+      </c>
+      <c r="D118" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="1">
+        <v>8</v>
+      </c>
+      <c r="C119" s="1">
+        <v>5</v>
+      </c>
+      <c r="D119" s="1">
+        <v>8</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C120" s="1">
+        <v>5</v>
+      </c>
+      <c r="D120" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C121" s="1">
+        <v>5</v>
+      </c>
+      <c r="D121" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C122" s="1">
+        <v>5</v>
+      </c>
+      <c r="D122" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="1">
+        <v>8</v>
+      </c>
+      <c r="C123" s="1">
+        <v>5</v>
+      </c>
+      <c r="D123" s="1">
+        <v>8</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C124" s="1">
+        <v>5</v>
+      </c>
+      <c r="D124" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E124" s="1">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -402,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E15" sqref="E15"/>
@@ -2522,6 +2522,1026 @@
         <v>7.4</v>
       </c>
       <c r="E124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="1">
+        <v>8</v>
+      </c>
+      <c r="C125" s="1">
+        <v>5</v>
+      </c>
+      <c r="D125" s="1">
+        <v>8</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C126" s="1">
+        <v>5</v>
+      </c>
+      <c r="D126" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C127" s="1">
+        <v>5</v>
+      </c>
+      <c r="D127" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C128" s="1">
+        <v>5</v>
+      </c>
+      <c r="D128" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="1">
+        <v>8</v>
+      </c>
+      <c r="C129" s="1">
+        <v>5</v>
+      </c>
+      <c r="D129" s="1">
+        <v>8</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C130" s="1">
+        <v>5</v>
+      </c>
+      <c r="D130" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="1">
+        <v>8</v>
+      </c>
+      <c r="C131" s="1">
+        <v>5</v>
+      </c>
+      <c r="D131" s="1">
+        <v>8</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C132" s="1">
+        <v>5</v>
+      </c>
+      <c r="D132" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C133" s="1">
+        <v>5</v>
+      </c>
+      <c r="D133" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C134" s="1">
+        <v>5</v>
+      </c>
+      <c r="D134" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="1">
+        <v>8</v>
+      </c>
+      <c r="C135" s="1">
+        <v>5</v>
+      </c>
+      <c r="D135" s="1">
+        <v>8</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C136" s="1">
+        <v>5</v>
+      </c>
+      <c r="D136" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="1">
+        <v>8</v>
+      </c>
+      <c r="C137" s="1">
+        <v>5</v>
+      </c>
+      <c r="D137" s="1">
+        <v>8</v>
+      </c>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C138" s="1">
+        <v>5</v>
+      </c>
+      <c r="D138" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C139" s="1">
+        <v>5</v>
+      </c>
+      <c r="D139" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C140" s="1">
+        <v>5</v>
+      </c>
+      <c r="D140" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="1">
+        <v>8</v>
+      </c>
+      <c r="C141" s="1">
+        <v>5</v>
+      </c>
+      <c r="D141" s="1">
+        <v>8</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C142" s="1">
+        <v>5</v>
+      </c>
+      <c r="D142" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="1">
+        <v>8</v>
+      </c>
+      <c r="C143" s="1">
+        <v>5</v>
+      </c>
+      <c r="D143" s="1">
+        <v>8</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C144" s="1">
+        <v>5</v>
+      </c>
+      <c r="D144" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C145" s="1">
+        <v>5</v>
+      </c>
+      <c r="D145" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C146" s="1">
+        <v>5</v>
+      </c>
+      <c r="D146" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" s="1">
+        <v>8</v>
+      </c>
+      <c r="C147" s="1">
+        <v>5</v>
+      </c>
+      <c r="D147" s="1">
+        <v>8</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C148" s="1">
+        <v>5</v>
+      </c>
+      <c r="D148" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="1">
+        <v>8</v>
+      </c>
+      <c r="C149" s="1">
+        <v>5</v>
+      </c>
+      <c r="D149" s="1">
+        <v>8</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C150" s="1">
+        <v>5</v>
+      </c>
+      <c r="D150" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C151" s="1">
+        <v>5</v>
+      </c>
+      <c r="D151" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C152" s="1">
+        <v>5</v>
+      </c>
+      <c r="D152" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="1">
+        <v>8</v>
+      </c>
+      <c r="C153" s="1">
+        <v>5</v>
+      </c>
+      <c r="D153" s="1">
+        <v>8</v>
+      </c>
+      <c r="E153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C154" s="1">
+        <v>5</v>
+      </c>
+      <c r="D154" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="1">
+        <v>8</v>
+      </c>
+      <c r="C155" s="1">
+        <v>5</v>
+      </c>
+      <c r="D155" s="1">
+        <v>8</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C156" s="1">
+        <v>5</v>
+      </c>
+      <c r="D156" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C157" s="1">
+        <v>5</v>
+      </c>
+      <c r="D157" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C158" s="1">
+        <v>5</v>
+      </c>
+      <c r="D158" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" s="1">
+        <v>8</v>
+      </c>
+      <c r="C159" s="1">
+        <v>5</v>
+      </c>
+      <c r="D159" s="1">
+        <v>8</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C160" s="1">
+        <v>5</v>
+      </c>
+      <c r="D160" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="1">
+        <v>8</v>
+      </c>
+      <c r="C161" s="1">
+        <v>5</v>
+      </c>
+      <c r="D161" s="1">
+        <v>8</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C162" s="1">
+        <v>5</v>
+      </c>
+      <c r="D162" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C163" s="1">
+        <v>5</v>
+      </c>
+      <c r="D163" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C164" s="1">
+        <v>5</v>
+      </c>
+      <c r="D164" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" s="1">
+        <v>8</v>
+      </c>
+      <c r="C165" s="1">
+        <v>5</v>
+      </c>
+      <c r="D165" s="1">
+        <v>8</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C166" s="1">
+        <v>5</v>
+      </c>
+      <c r="D166" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="1">
+        <v>8</v>
+      </c>
+      <c r="C167" s="1">
+        <v>5</v>
+      </c>
+      <c r="D167" s="1">
+        <v>8</v>
+      </c>
+      <c r="E167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C168" s="1">
+        <v>5</v>
+      </c>
+      <c r="D168" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C169" s="1">
+        <v>5</v>
+      </c>
+      <c r="D169" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C170" s="1">
+        <v>5</v>
+      </c>
+      <c r="D170" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" s="1">
+        <v>8</v>
+      </c>
+      <c r="C171" s="1">
+        <v>5</v>
+      </c>
+      <c r="D171" s="1">
+        <v>8</v>
+      </c>
+      <c r="E171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C172" s="1">
+        <v>5</v>
+      </c>
+      <c r="D172" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="1">
+        <v>8</v>
+      </c>
+      <c r="C173" s="1">
+        <v>5</v>
+      </c>
+      <c r="D173" s="1">
+        <v>8</v>
+      </c>
+      <c r="E173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C174" s="1">
+        <v>5</v>
+      </c>
+      <c r="D174" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C175" s="1">
+        <v>5</v>
+      </c>
+      <c r="D175" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C176" s="1">
+        <v>5</v>
+      </c>
+      <c r="D176" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" s="1">
+        <v>8</v>
+      </c>
+      <c r="C177" s="1">
+        <v>5</v>
+      </c>
+      <c r="D177" s="1">
+        <v>8</v>
+      </c>
+      <c r="E177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C178" s="1">
+        <v>5</v>
+      </c>
+      <c r="D178" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="1">
+        <v>8</v>
+      </c>
+      <c r="C179" s="1">
+        <v>5</v>
+      </c>
+      <c r="D179" s="1">
+        <v>8</v>
+      </c>
+      <c r="E179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C180" s="1">
+        <v>5</v>
+      </c>
+      <c r="D180" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C181" s="1">
+        <v>5</v>
+      </c>
+      <c r="D181" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C182" s="1">
+        <v>5</v>
+      </c>
+      <c r="D182" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183" s="1">
+        <v>8</v>
+      </c>
+      <c r="C183" s="1">
+        <v>5</v>
+      </c>
+      <c r="D183" s="1">
+        <v>8</v>
+      </c>
+      <c r="E183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C184" s="1">
+        <v>5</v>
+      </c>
+      <c r="D184" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E184" s="1">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -402,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E15" sqref="E15"/>
@@ -3542,6 +3542,312 @@
         <v>7.4</v>
       </c>
       <c r="E184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="1">
+        <v>8</v>
+      </c>
+      <c r="C185" s="1">
+        <v>5</v>
+      </c>
+      <c r="D185" s="1">
+        <v>8</v>
+      </c>
+      <c r="E185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C186" s="1">
+        <v>5</v>
+      </c>
+      <c r="D186" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C187" s="1">
+        <v>5</v>
+      </c>
+      <c r="D187" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C188" s="1">
+        <v>5</v>
+      </c>
+      <c r="D188" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" s="1">
+        <v>8</v>
+      </c>
+      <c r="C189" s="1">
+        <v>5</v>
+      </c>
+      <c r="D189" s="1">
+        <v>8</v>
+      </c>
+      <c r="E189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C190" s="1">
+        <v>5</v>
+      </c>
+      <c r="D190" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="1">
+        <v>8</v>
+      </c>
+      <c r="C191" s="1">
+        <v>5</v>
+      </c>
+      <c r="D191" s="1">
+        <v>8</v>
+      </c>
+      <c r="E191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C192" s="1">
+        <v>5</v>
+      </c>
+      <c r="D192" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C193" s="1">
+        <v>5</v>
+      </c>
+      <c r="D193" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C194" s="1">
+        <v>5</v>
+      </c>
+      <c r="D194" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" s="1">
+        <v>8</v>
+      </c>
+      <c r="C195" s="1">
+        <v>5</v>
+      </c>
+      <c r="D195" s="1">
+        <v>8</v>
+      </c>
+      <c r="E195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C196" s="1">
+        <v>5</v>
+      </c>
+      <c r="D196" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" s="1">
+        <v>8</v>
+      </c>
+      <c r="C197" s="1">
+        <v>5</v>
+      </c>
+      <c r="D197" s="1">
+        <v>8</v>
+      </c>
+      <c r="E197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C198" s="1">
+        <v>5</v>
+      </c>
+      <c r="D198" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C199" s="1">
+        <v>5</v>
+      </c>
+      <c r="D199" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C200" s="1">
+        <v>5</v>
+      </c>
+      <c r="D200" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" s="1">
+        <v>8</v>
+      </c>
+      <c r="C201" s="1">
+        <v>5</v>
+      </c>
+      <c r="D201" s="1">
+        <v>8</v>
+      </c>
+      <c r="E201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C202" s="1">
+        <v>5</v>
+      </c>
+      <c r="D202" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E202" s="1">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -402,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E15" sqref="E15"/>
@@ -3848,6 +3848,312 @@
         <v>7.4</v>
       </c>
       <c r="E202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="1">
+        <v>8</v>
+      </c>
+      <c r="C203" s="1">
+        <v>5</v>
+      </c>
+      <c r="D203" s="1">
+        <v>8</v>
+      </c>
+      <c r="E203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C204" s="1">
+        <v>5</v>
+      </c>
+      <c r="D204" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C205" s="1">
+        <v>5</v>
+      </c>
+      <c r="D205" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C206" s="1">
+        <v>5</v>
+      </c>
+      <c r="D206" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" s="1">
+        <v>8</v>
+      </c>
+      <c r="C207" s="1">
+        <v>5</v>
+      </c>
+      <c r="D207" s="1">
+        <v>8</v>
+      </c>
+      <c r="E207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C208" s="1">
+        <v>5</v>
+      </c>
+      <c r="D208" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="1">
+        <v>8</v>
+      </c>
+      <c r="C209" s="1">
+        <v>5</v>
+      </c>
+      <c r="D209" s="1">
+        <v>8</v>
+      </c>
+      <c r="E209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C210" s="1">
+        <v>5</v>
+      </c>
+      <c r="D210" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C211" s="1">
+        <v>5</v>
+      </c>
+      <c r="D211" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C212" s="1">
+        <v>5</v>
+      </c>
+      <c r="D212" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" s="1">
+        <v>8</v>
+      </c>
+      <c r="C213" s="1">
+        <v>5</v>
+      </c>
+      <c r="D213" s="1">
+        <v>8</v>
+      </c>
+      <c r="E213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C214" s="1">
+        <v>5</v>
+      </c>
+      <c r="D214" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="1">
+        <v>8</v>
+      </c>
+      <c r="C215" s="1">
+        <v>5</v>
+      </c>
+      <c r="D215" s="1">
+        <v>8</v>
+      </c>
+      <c r="E215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C216" s="1">
+        <v>5</v>
+      </c>
+      <c r="D216" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C217" s="1">
+        <v>5</v>
+      </c>
+      <c r="D217" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C218" s="1">
+        <v>5</v>
+      </c>
+      <c r="D218" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219" s="1">
+        <v>8</v>
+      </c>
+      <c r="C219" s="1">
+        <v>5</v>
+      </c>
+      <c r="D219" s="1">
+        <v>8</v>
+      </c>
+      <c r="E219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C220" s="1">
+        <v>5</v>
+      </c>
+      <c r="D220" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E220" s="1">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -402,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E220"/>
+  <dimension ref="A1:E280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E15" sqref="E15"/>
@@ -4154,6 +4154,1026 @@
         <v>7.4</v>
       </c>
       <c r="E220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="1">
+        <v>8</v>
+      </c>
+      <c r="C221" s="1">
+        <v>5</v>
+      </c>
+      <c r="D221" s="1">
+        <v>8</v>
+      </c>
+      <c r="E221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C222" s="1">
+        <v>5</v>
+      </c>
+      <c r="D222" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C223" s="1">
+        <v>5</v>
+      </c>
+      <c r="D223" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C224" s="1">
+        <v>5</v>
+      </c>
+      <c r="D224" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" s="1">
+        <v>8</v>
+      </c>
+      <c r="C225" s="1">
+        <v>5</v>
+      </c>
+      <c r="D225" s="1">
+        <v>8</v>
+      </c>
+      <c r="E225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C226" s="1">
+        <v>5</v>
+      </c>
+      <c r="D226" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="1">
+        <v>8</v>
+      </c>
+      <c r="C227" s="1">
+        <v>5</v>
+      </c>
+      <c r="D227" s="1">
+        <v>8</v>
+      </c>
+      <c r="E227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C228" s="1">
+        <v>5</v>
+      </c>
+      <c r="D228" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C229" s="1">
+        <v>5</v>
+      </c>
+      <c r="D229" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C230" s="1">
+        <v>5</v>
+      </c>
+      <c r="D230" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" s="1">
+        <v>8</v>
+      </c>
+      <c r="C231" s="1">
+        <v>5</v>
+      </c>
+      <c r="D231" s="1">
+        <v>8</v>
+      </c>
+      <c r="E231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C232" s="1">
+        <v>5</v>
+      </c>
+      <c r="D232" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" s="1">
+        <v>8</v>
+      </c>
+      <c r="C233" s="1">
+        <v>5</v>
+      </c>
+      <c r="D233" s="1">
+        <v>8</v>
+      </c>
+      <c r="E233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C234" s="1">
+        <v>5</v>
+      </c>
+      <c r="D234" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B235" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C235" s="1">
+        <v>5</v>
+      </c>
+      <c r="D235" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B236" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C236" s="1">
+        <v>5</v>
+      </c>
+      <c r="D236" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" s="1">
+        <v>8</v>
+      </c>
+      <c r="C237" s="1">
+        <v>5</v>
+      </c>
+      <c r="D237" s="1">
+        <v>8</v>
+      </c>
+      <c r="E237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C238" s="1">
+        <v>5</v>
+      </c>
+      <c r="D238" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="1">
+        <v>8</v>
+      </c>
+      <c r="C239" s="1">
+        <v>5</v>
+      </c>
+      <c r="D239" s="1">
+        <v>8</v>
+      </c>
+      <c r="E239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C240" s="1">
+        <v>5</v>
+      </c>
+      <c r="D240" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C241" s="1">
+        <v>5</v>
+      </c>
+      <c r="D241" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B242" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C242" s="1">
+        <v>5</v>
+      </c>
+      <c r="D242" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" s="1">
+        <v>8</v>
+      </c>
+      <c r="C243" s="1">
+        <v>5</v>
+      </c>
+      <c r="D243" s="1">
+        <v>8</v>
+      </c>
+      <c r="E243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C244" s="1">
+        <v>5</v>
+      </c>
+      <c r="D244" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="1">
+        <v>8</v>
+      </c>
+      <c r="C245" s="1">
+        <v>5</v>
+      </c>
+      <c r="D245" s="1">
+        <v>8</v>
+      </c>
+      <c r="E245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C246" s="1">
+        <v>5</v>
+      </c>
+      <c r="D246" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B247" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C247" s="1">
+        <v>5</v>
+      </c>
+      <c r="D247" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C248" s="1">
+        <v>5</v>
+      </c>
+      <c r="D248" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" s="1">
+        <v>8</v>
+      </c>
+      <c r="C249" s="1">
+        <v>5</v>
+      </c>
+      <c r="D249" s="1">
+        <v>8</v>
+      </c>
+      <c r="E249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C250" s="1">
+        <v>5</v>
+      </c>
+      <c r="D250" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" s="1">
+        <v>8</v>
+      </c>
+      <c r="C251" s="1">
+        <v>5</v>
+      </c>
+      <c r="D251" s="1">
+        <v>8</v>
+      </c>
+      <c r="E251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C252" s="1">
+        <v>5</v>
+      </c>
+      <c r="D252" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B253" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C253" s="1">
+        <v>5</v>
+      </c>
+      <c r="D253" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B254" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C254" s="1">
+        <v>5</v>
+      </c>
+      <c r="D254" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B255" s="1">
+        <v>8</v>
+      </c>
+      <c r="C255" s="1">
+        <v>5</v>
+      </c>
+      <c r="D255" s="1">
+        <v>8</v>
+      </c>
+      <c r="E255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B256" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C256" s="1">
+        <v>5</v>
+      </c>
+      <c r="D256" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" s="1">
+        <v>8</v>
+      </c>
+      <c r="C257" s="1">
+        <v>5</v>
+      </c>
+      <c r="D257" s="1">
+        <v>8</v>
+      </c>
+      <c r="E257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C258" s="1">
+        <v>5</v>
+      </c>
+      <c r="D258" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B259" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C259" s="1">
+        <v>5</v>
+      </c>
+      <c r="D259" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B260" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C260" s="1">
+        <v>5</v>
+      </c>
+      <c r="D260" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B261" s="1">
+        <v>8</v>
+      </c>
+      <c r="C261" s="1">
+        <v>5</v>
+      </c>
+      <c r="D261" s="1">
+        <v>8</v>
+      </c>
+      <c r="E261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B262" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C262" s="1">
+        <v>5</v>
+      </c>
+      <c r="D262" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" s="1">
+        <v>8</v>
+      </c>
+      <c r="C263" s="1">
+        <v>5</v>
+      </c>
+      <c r="D263" s="1">
+        <v>8</v>
+      </c>
+      <c r="E263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B264" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C264" s="1">
+        <v>5</v>
+      </c>
+      <c r="D264" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C265" s="1">
+        <v>5</v>
+      </c>
+      <c r="D265" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B266" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C266" s="1">
+        <v>5</v>
+      </c>
+      <c r="D266" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B267" s="1">
+        <v>8</v>
+      </c>
+      <c r="C267" s="1">
+        <v>5</v>
+      </c>
+      <c r="D267" s="1">
+        <v>8</v>
+      </c>
+      <c r="E267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B268" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C268" s="1">
+        <v>5</v>
+      </c>
+      <c r="D268" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" s="1">
+        <v>8</v>
+      </c>
+      <c r="C269" s="1">
+        <v>5</v>
+      </c>
+      <c r="D269" s="1">
+        <v>8</v>
+      </c>
+      <c r="E269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B270" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C270" s="1">
+        <v>5</v>
+      </c>
+      <c r="D270" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B271" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C271" s="1">
+        <v>5</v>
+      </c>
+      <c r="D271" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B272" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C272" s="1">
+        <v>5</v>
+      </c>
+      <c r="D272" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B273" s="1">
+        <v>8</v>
+      </c>
+      <c r="C273" s="1">
+        <v>5</v>
+      </c>
+      <c r="D273" s="1">
+        <v>8</v>
+      </c>
+      <c r="E273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B274" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C274" s="1">
+        <v>5</v>
+      </c>
+      <c r="D274" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B275" s="1">
+        <v>8</v>
+      </c>
+      <c r="C275" s="1">
+        <v>5</v>
+      </c>
+      <c r="D275" s="1">
+        <v>8</v>
+      </c>
+      <c r="E275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B276" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C276" s="1">
+        <v>5</v>
+      </c>
+      <c r="D276" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C277" s="1">
+        <v>5</v>
+      </c>
+      <c r="D277" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B278" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C278" s="1">
+        <v>5</v>
+      </c>
+      <c r="D278" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B279" s="1">
+        <v>8</v>
+      </c>
+      <c r="C279" s="1">
+        <v>5</v>
+      </c>
+      <c r="D279" s="1">
+        <v>8</v>
+      </c>
+      <c r="E279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B280" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C280" s="1">
+        <v>5</v>
+      </c>
+      <c r="D280" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E280" s="1">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -402,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E280"/>
+  <dimension ref="A1:E286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E15" sqref="E15"/>
@@ -5174,6 +5174,108 @@
         <v>7.4</v>
       </c>
       <c r="E280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B281" s="1">
+        <v>8</v>
+      </c>
+      <c r="C281" s="1">
+        <v>5</v>
+      </c>
+      <c r="D281" s="1">
+        <v>8</v>
+      </c>
+      <c r="E281" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B282" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C282" s="1">
+        <v>5</v>
+      </c>
+      <c r="D282" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E282" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B283" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C283" s="1">
+        <v>5</v>
+      </c>
+      <c r="D283" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E283" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B284" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C284" s="1">
+        <v>5</v>
+      </c>
+      <c r="D284" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B285" s="1">
+        <v>8</v>
+      </c>
+      <c r="C285" s="1">
+        <v>5</v>
+      </c>
+      <c r="D285" s="1">
+        <v>8</v>
+      </c>
+      <c r="E285" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B286" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C286" s="1">
+        <v>5</v>
+      </c>
+      <c r="D286" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E286" s="1">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -402,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E286"/>
+  <dimension ref="A1:E292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E15" sqref="E15"/>
@@ -5276,6 +5276,108 @@
         <v>7.4</v>
       </c>
       <c r="E286" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" s="1">
+        <v>8</v>
+      </c>
+      <c r="C287" s="1">
+        <v>5</v>
+      </c>
+      <c r="D287" s="1">
+        <v>8</v>
+      </c>
+      <c r="E287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B288" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C288" s="1">
+        <v>5</v>
+      </c>
+      <c r="D288" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B289" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C289" s="1">
+        <v>5</v>
+      </c>
+      <c r="D289" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E289" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B290" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C290" s="1">
+        <v>5</v>
+      </c>
+      <c r="D290" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B291" s="1">
+        <v>8</v>
+      </c>
+      <c r="C291" s="1">
+        <v>5</v>
+      </c>
+      <c r="D291" s="1">
+        <v>8</v>
+      </c>
+      <c r="E291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C292" s="1">
+        <v>5</v>
+      </c>
+      <c r="D292" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E292" s="1">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -402,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E15" sqref="E15"/>
@@ -3848,6 +3848,924 @@
         <v>7.4</v>
       </c>
       <c r="E202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="1">
+        <v>8</v>
+      </c>
+      <c r="C203" s="1">
+        <v>5</v>
+      </c>
+      <c r="D203" s="1">
+        <v>8</v>
+      </c>
+      <c r="E203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C204" s="1">
+        <v>5</v>
+      </c>
+      <c r="D204" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C205" s="1">
+        <v>5</v>
+      </c>
+      <c r="D205" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C206" s="1">
+        <v>5</v>
+      </c>
+      <c r="D206" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" s="1">
+        <v>8</v>
+      </c>
+      <c r="C207" s="1">
+        <v>5</v>
+      </c>
+      <c r="D207" s="1">
+        <v>8</v>
+      </c>
+      <c r="E207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C208" s="1">
+        <v>5</v>
+      </c>
+      <c r="D208" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="1">
+        <v>8</v>
+      </c>
+      <c r="C209" s="1">
+        <v>5</v>
+      </c>
+      <c r="D209" s="1">
+        <v>8</v>
+      </c>
+      <c r="E209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C210" s="1">
+        <v>5</v>
+      </c>
+      <c r="D210" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C211" s="1">
+        <v>5</v>
+      </c>
+      <c r="D211" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C212" s="1">
+        <v>5</v>
+      </c>
+      <c r="D212" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" s="1">
+        <v>8</v>
+      </c>
+      <c r="C213" s="1">
+        <v>5</v>
+      </c>
+      <c r="D213" s="1">
+        <v>8</v>
+      </c>
+      <c r="E213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C214" s="1">
+        <v>5</v>
+      </c>
+      <c r="D214" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="1">
+        <v>8</v>
+      </c>
+      <c r="C215" s="1">
+        <v>5</v>
+      </c>
+      <c r="D215" s="1">
+        <v>8</v>
+      </c>
+      <c r="E215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C216" s="1">
+        <v>5</v>
+      </c>
+      <c r="D216" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C217" s="1">
+        <v>5</v>
+      </c>
+      <c r="D217" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C218" s="1">
+        <v>5</v>
+      </c>
+      <c r="D218" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B219" s="1">
+        <v>8</v>
+      </c>
+      <c r="C219" s="1">
+        <v>5</v>
+      </c>
+      <c r="D219" s="1">
+        <v>8</v>
+      </c>
+      <c r="E219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C220" s="1">
+        <v>5</v>
+      </c>
+      <c r="D220" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" s="1">
+        <v>8</v>
+      </c>
+      <c r="C221" s="1">
+        <v>5</v>
+      </c>
+      <c r="D221" s="1">
+        <v>8</v>
+      </c>
+      <c r="E221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C222" s="1">
+        <v>5</v>
+      </c>
+      <c r="D222" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C223" s="1">
+        <v>5</v>
+      </c>
+      <c r="D223" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C224" s="1">
+        <v>5</v>
+      </c>
+      <c r="D224" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225" s="1">
+        <v>8</v>
+      </c>
+      <c r="C225" s="1">
+        <v>5</v>
+      </c>
+      <c r="D225" s="1">
+        <v>8</v>
+      </c>
+      <c r="E225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C226" s="1">
+        <v>5</v>
+      </c>
+      <c r="D226" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="1">
+        <v>8</v>
+      </c>
+      <c r="C227" s="1">
+        <v>5</v>
+      </c>
+      <c r="D227" s="1">
+        <v>8</v>
+      </c>
+      <c r="E227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C228" s="1">
+        <v>5</v>
+      </c>
+      <c r="D228" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C229" s="1">
+        <v>5</v>
+      </c>
+      <c r="D229" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C230" s="1">
+        <v>5</v>
+      </c>
+      <c r="D230" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" s="1">
+        <v>8</v>
+      </c>
+      <c r="C231" s="1">
+        <v>5</v>
+      </c>
+      <c r="D231" s="1">
+        <v>8</v>
+      </c>
+      <c r="E231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C232" s="1">
+        <v>5</v>
+      </c>
+      <c r="D232" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" s="1">
+        <v>8</v>
+      </c>
+      <c r="C233" s="1">
+        <v>5</v>
+      </c>
+      <c r="D233" s="1">
+        <v>8</v>
+      </c>
+      <c r="E233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C234" s="1">
+        <v>5</v>
+      </c>
+      <c r="D234" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B235" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C235" s="1">
+        <v>5</v>
+      </c>
+      <c r="D235" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B236" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C236" s="1">
+        <v>5</v>
+      </c>
+      <c r="D236" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" s="1">
+        <v>8</v>
+      </c>
+      <c r="C237" s="1">
+        <v>5</v>
+      </c>
+      <c r="D237" s="1">
+        <v>8</v>
+      </c>
+      <c r="E237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C238" s="1">
+        <v>5</v>
+      </c>
+      <c r="D238" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="1">
+        <v>8</v>
+      </c>
+      <c r="C239" s="1">
+        <v>5</v>
+      </c>
+      <c r="D239" s="1">
+        <v>8</v>
+      </c>
+      <c r="E239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C240" s="1">
+        <v>5</v>
+      </c>
+      <c r="D240" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C241" s="1">
+        <v>5</v>
+      </c>
+      <c r="D241" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B242" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C242" s="1">
+        <v>5</v>
+      </c>
+      <c r="D242" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" s="1">
+        <v>8</v>
+      </c>
+      <c r="C243" s="1">
+        <v>5</v>
+      </c>
+      <c r="D243" s="1">
+        <v>8</v>
+      </c>
+      <c r="E243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C244" s="1">
+        <v>5</v>
+      </c>
+      <c r="D244" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="1">
+        <v>8</v>
+      </c>
+      <c r="C245" s="1">
+        <v>5</v>
+      </c>
+      <c r="D245" s="1">
+        <v>8</v>
+      </c>
+      <c r="E245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C246" s="1">
+        <v>5</v>
+      </c>
+      <c r="D246" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B247" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C247" s="1">
+        <v>5</v>
+      </c>
+      <c r="D247" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C248" s="1">
+        <v>5</v>
+      </c>
+      <c r="D248" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" s="1">
+        <v>8</v>
+      </c>
+      <c r="C249" s="1">
+        <v>5</v>
+      </c>
+      <c r="D249" s="1">
+        <v>8</v>
+      </c>
+      <c r="E249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C250" s="1">
+        <v>5</v>
+      </c>
+      <c r="D250" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" s="1">
+        <v>8</v>
+      </c>
+      <c r="C251" s="1">
+        <v>5</v>
+      </c>
+      <c r="D251" s="1">
+        <v>8</v>
+      </c>
+      <c r="E251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C252" s="1">
+        <v>5</v>
+      </c>
+      <c r="D252" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B253" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C253" s="1">
+        <v>5</v>
+      </c>
+      <c r="D253" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B254" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C254" s="1">
+        <v>5</v>
+      </c>
+      <c r="D254" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B255" s="1">
+        <v>8</v>
+      </c>
+      <c r="C255" s="1">
+        <v>5</v>
+      </c>
+      <c r="D255" s="1">
+        <v>8</v>
+      </c>
+      <c r="E255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B256" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C256" s="1">
+        <v>5</v>
+      </c>
+      <c r="D256" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E256" s="1">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -402,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E256"/>
+  <dimension ref="A1:E280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E15" sqref="E15"/>
@@ -4766,6 +4766,414 @@
         <v>7.4</v>
       </c>
       <c r="E256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" s="1">
+        <v>8</v>
+      </c>
+      <c r="C257" s="1">
+        <v>5</v>
+      </c>
+      <c r="D257" s="1">
+        <v>8</v>
+      </c>
+      <c r="E257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C258" s="1">
+        <v>5</v>
+      </c>
+      <c r="D258" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B259" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C259" s="1">
+        <v>5</v>
+      </c>
+      <c r="D259" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B260" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C260" s="1">
+        <v>5</v>
+      </c>
+      <c r="D260" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B261" s="1">
+        <v>8</v>
+      </c>
+      <c r="C261" s="1">
+        <v>5</v>
+      </c>
+      <c r="D261" s="1">
+        <v>8</v>
+      </c>
+      <c r="E261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B262" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C262" s="1">
+        <v>5</v>
+      </c>
+      <c r="D262" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" s="1">
+        <v>8</v>
+      </c>
+      <c r="C263" s="1">
+        <v>5</v>
+      </c>
+      <c r="D263" s="1">
+        <v>8</v>
+      </c>
+      <c r="E263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B264" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C264" s="1">
+        <v>5</v>
+      </c>
+      <c r="D264" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C265" s="1">
+        <v>5</v>
+      </c>
+      <c r="D265" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B266" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C266" s="1">
+        <v>5</v>
+      </c>
+      <c r="D266" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B267" s="1">
+        <v>8</v>
+      </c>
+      <c r="C267" s="1">
+        <v>5</v>
+      </c>
+      <c r="D267" s="1">
+        <v>8</v>
+      </c>
+      <c r="E267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B268" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C268" s="1">
+        <v>5</v>
+      </c>
+      <c r="D268" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" s="1">
+        <v>8</v>
+      </c>
+      <c r="C269" s="1">
+        <v>5</v>
+      </c>
+      <c r="D269" s="1">
+        <v>8</v>
+      </c>
+      <c r="E269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B270" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C270" s="1">
+        <v>5</v>
+      </c>
+      <c r="D270" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B271" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C271" s="1">
+        <v>5</v>
+      </c>
+      <c r="D271" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B272" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C272" s="1">
+        <v>5</v>
+      </c>
+      <c r="D272" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B273" s="1">
+        <v>8</v>
+      </c>
+      <c r="C273" s="1">
+        <v>5</v>
+      </c>
+      <c r="D273" s="1">
+        <v>8</v>
+      </c>
+      <c r="E273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B274" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C274" s="1">
+        <v>5</v>
+      </c>
+      <c r="D274" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B275" s="1">
+        <v>8</v>
+      </c>
+      <c r="C275" s="1">
+        <v>5</v>
+      </c>
+      <c r="D275" s="1">
+        <v>8</v>
+      </c>
+      <c r="E275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B276" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C276" s="1">
+        <v>5</v>
+      </c>
+      <c r="D276" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C277" s="1">
+        <v>5</v>
+      </c>
+      <c r="D277" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B278" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C278" s="1">
+        <v>5</v>
+      </c>
+      <c r="D278" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B279" s="1">
+        <v>8</v>
+      </c>
+      <c r="C279" s="1">
+        <v>5</v>
+      </c>
+      <c r="D279" s="1">
+        <v>8</v>
+      </c>
+      <c r="E279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B280" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C280" s="1">
+        <v>5</v>
+      </c>
+      <c r="D280" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E280" s="1">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -402,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E280"/>
+  <dimension ref="A1:E292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E15" sqref="E15"/>
@@ -5174,6 +5174,210 @@
         <v>7.4</v>
       </c>
       <c r="E280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B281" s="1">
+        <v>8</v>
+      </c>
+      <c r="C281" s="1">
+        <v>5</v>
+      </c>
+      <c r="D281" s="1">
+        <v>8</v>
+      </c>
+      <c r="E281" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B282" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C282" s="1">
+        <v>5</v>
+      </c>
+      <c r="D282" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E282" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B283" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C283" s="1">
+        <v>5</v>
+      </c>
+      <c r="D283" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E283" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B284" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C284" s="1">
+        <v>5</v>
+      </c>
+      <c r="D284" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B285" s="1">
+        <v>8</v>
+      </c>
+      <c r="C285" s="1">
+        <v>5</v>
+      </c>
+      <c r="D285" s="1">
+        <v>8</v>
+      </c>
+      <c r="E285" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B286" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C286" s="1">
+        <v>5</v>
+      </c>
+      <c r="D286" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E286" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" s="1">
+        <v>8</v>
+      </c>
+      <c r="C287" s="1">
+        <v>5</v>
+      </c>
+      <c r="D287" s="1">
+        <v>8</v>
+      </c>
+      <c r="E287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B288" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="C288" s="1">
+        <v>5</v>
+      </c>
+      <c r="D288" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="E288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B289" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="C289" s="1">
+        <v>5</v>
+      </c>
+      <c r="D289" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E289" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B290" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="C290" s="1">
+        <v>5</v>
+      </c>
+      <c r="D290" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B291" s="1">
+        <v>8</v>
+      </c>
+      <c r="C291" s="1">
+        <v>5</v>
+      </c>
+      <c r="D291" s="1">
+        <v>8</v>
+      </c>
+      <c r="E291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="C292" s="1">
+        <v>5</v>
+      </c>
+      <c r="D292" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E292" s="1">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>2016-05-20</t>
+  </si>
+  <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>w3</t>
+  </si>
+  <si>
+    <t>w2</t>
   </si>
 </sst>
 </file>
@@ -402,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E292"/>
+  <dimension ref="A1:F364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E15" sqref="E15"/>
@@ -417,7 +426,7 @@
     <col min="5" max="5" width="24.21875" customWidth="true" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -434,7 +443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -451,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -468,7 +477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -485,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -502,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -519,7 +528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -536,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -553,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -570,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -587,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -604,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -621,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -638,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -655,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -672,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -689,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -706,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -723,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -740,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -757,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -774,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -791,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -808,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -825,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -842,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -859,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -876,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -893,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -910,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -927,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -944,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -961,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -978,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
@@ -995,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -1012,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
@@ -1029,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
@@ -1097,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
@@ -1114,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
@@ -1131,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -1148,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -1182,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
@@ -1199,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
@@ -1216,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
@@ -1250,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>9</v>
       </c>
@@ -1284,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
@@ -1335,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
@@ -1352,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
         <v>8</v>
       </c>
@@ -1369,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -1386,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>10</v>
       </c>
@@ -1403,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>5</v>
       </c>
@@ -1420,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
@@ -1454,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
@@ -1471,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
@@ -1488,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
@@ -1505,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
         <v>5</v>
       </c>
@@ -1522,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -1539,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
@@ -1556,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
@@ -1573,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -1590,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
@@ -1607,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
@@ -1641,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
         <v>7</v>
       </c>
@@ -1658,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
@@ -1675,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
@@ -1692,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
         <v>10</v>
       </c>
@@ -1709,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
         <v>5</v>
       </c>
@@ -1726,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
         <v>6</v>
       </c>
@@ -1743,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
         <v>7</v>
       </c>
@@ -1760,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
         <v>8</v>
       </c>
@@ -1777,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -1794,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -1811,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
         <v>5</v>
       </c>
@@ -1828,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
@@ -1845,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -1862,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -1879,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
         <v>9</v>
       </c>
@@ -1896,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
         <v>10</v>
       </c>
@@ -1913,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
         <v>5</v>
       </c>
@@ -1930,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>6</v>
       </c>
@@ -1947,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
         <v>7</v>
       </c>
@@ -1964,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
         <v>8</v>
       </c>
@@ -1981,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
@@ -1998,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
         <v>10</v>
       </c>
@@ -2015,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
         <v>5</v>
       </c>
@@ -2032,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6">
       <c r="A96" s="2" t="s">
         <v>6</v>
       </c>
@@ -2049,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
         <v>7</v>
       </c>
@@ -2066,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
         <v>8</v>
       </c>
@@ -2083,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" s="2" t="s">
         <v>9</v>
       </c>
@@ -2100,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:6">
       <c r="A100" s="2" t="s">
         <v>10</v>
       </c>
@@ -2117,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
         <v>5</v>
       </c>
@@ -2134,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
@@ -2151,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
         <v>7</v>
       </c>
@@ -2168,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
         <v>8</v>
       </c>
@@ -2185,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
         <v>9</v>
       </c>
@@ -2202,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106" s="2" t="s">
         <v>10</v>
       </c>
@@ -2219,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
         <v>6</v>
       </c>
@@ -2253,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
         <v>7</v>
       </c>
@@ -2270,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
         <v>8</v>
       </c>
@@ -2287,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
         <v>9</v>
       </c>
@@ -2304,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:6">
       <c r="A112" s="2" t="s">
         <v>10</v>
       </c>
@@ -2321,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:6">
       <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
@@ -2338,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:6">
       <c r="A114" s="2" t="s">
         <v>6</v>
       </c>
@@ -2355,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" s="2" t="s">
         <v>7</v>
       </c>
@@ -2372,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:6">
       <c r="A116" s="2" t="s">
         <v>8</v>
       </c>
@@ -2389,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:6">
       <c r="A117" s="2" t="s">
         <v>9</v>
       </c>
@@ -2406,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:6">
       <c r="A118" s="2" t="s">
         <v>10</v>
       </c>
@@ -2423,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:6">
       <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
@@ -2440,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:6">
       <c r="A120" s="2" t="s">
         <v>6</v>
       </c>
@@ -2457,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:6">
       <c r="A121" s="2" t="s">
         <v>7</v>
       </c>
@@ -2474,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
         <v>8</v>
       </c>
@@ -2491,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:6">
       <c r="A123" s="2" t="s">
         <v>9</v>
       </c>
@@ -2508,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:6">
       <c r="A124" s="2" t="s">
         <v>10</v>
       </c>
@@ -2525,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
         <v>5</v>
       </c>
@@ -2542,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
         <v>6</v>
       </c>
@@ -2559,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
         <v>7</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
         <v>8</v>
       </c>
@@ -2593,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:6">
       <c r="A129" s="2" t="s">
         <v>9</v>
       </c>
@@ -2610,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
         <v>10</v>
       </c>
@@ -2627,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
         <v>5</v>
       </c>
@@ -2644,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
         <v>6</v>
       </c>
@@ -2661,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:6">
       <c r="A133" s="2" t="s">
         <v>7</v>
       </c>
@@ -2678,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
         <v>8</v>
       </c>
@@ -2695,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:6">
       <c r="A135" s="2" t="s">
         <v>9</v>
       </c>
@@ -2712,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
         <v>10</v>
       </c>
@@ -2729,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
         <v>5</v>
       </c>
@@ -2746,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:6">
       <c r="A138" s="2" t="s">
         <v>6</v>
       </c>
@@ -2763,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:6">
       <c r="A139" s="2" t="s">
         <v>7</v>
       </c>
@@ -2780,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:6">
       <c r="A140" s="2" t="s">
         <v>8</v>
       </c>
@@ -2797,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:6">
       <c r="A141" s="2" t="s">
         <v>9</v>
       </c>
@@ -2814,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
         <v>10</v>
       </c>
@@ -2831,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
         <v>5</v>
       </c>
@@ -2848,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:6">
       <c r="A144" s="2" t="s">
         <v>6</v>
       </c>
@@ -2865,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:6">
       <c r="A145" s="2" t="s">
         <v>7</v>
       </c>
@@ -2882,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:6">
       <c r="A146" s="2" t="s">
         <v>8</v>
       </c>
@@ -2899,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:6">
       <c r="A147" s="2" t="s">
         <v>9</v>
       </c>
@@ -2916,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:6">
       <c r="A148" s="2" t="s">
         <v>10</v>
       </c>
@@ -2933,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:6">
       <c r="A149" s="2" t="s">
         <v>5</v>
       </c>
@@ -2950,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:6">
       <c r="A150" s="2" t="s">
         <v>6</v>
       </c>
@@ -2967,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:6">
       <c r="A151" s="2" t="s">
         <v>7</v>
       </c>
@@ -2984,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:6">
       <c r="A152" s="2" t="s">
         <v>8</v>
       </c>
@@ -3001,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:6">
       <c r="A153" s="2" t="s">
         <v>9</v>
       </c>
@@ -3018,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:6">
       <c r="A154" s="2" t="s">
         <v>10</v>
       </c>
@@ -3035,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:6">
       <c r="A155" s="2" t="s">
         <v>5</v>
       </c>
@@ -3052,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:6">
       <c r="A156" s="2" t="s">
         <v>6</v>
       </c>
@@ -3069,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:6">
       <c r="A157" s="2" t="s">
         <v>7</v>
       </c>
@@ -3086,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:6">
       <c r="A158" s="2" t="s">
         <v>8</v>
       </c>
@@ -3103,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:6">
       <c r="A159" s="2" t="s">
         <v>9</v>
       </c>
@@ -3120,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:6">
       <c r="A160" s="2" t="s">
         <v>10</v>
       </c>
@@ -3137,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:6">
       <c r="A161" s="2" t="s">
         <v>5</v>
       </c>
@@ -3154,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:6">
       <c r="A162" s="2" t="s">
         <v>6</v>
       </c>
@@ -3171,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:6">
       <c r="A163" s="2" t="s">
         <v>7</v>
       </c>
@@ -3188,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:6">
       <c r="A164" s="2" t="s">
         <v>8</v>
       </c>
@@ -3205,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:6">
       <c r="A165" s="2" t="s">
         <v>9</v>
       </c>
@@ -3222,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:6">
       <c r="A166" s="2" t="s">
         <v>10</v>
       </c>
@@ -3239,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:6">
       <c r="A167" s="2" t="s">
         <v>5</v>
       </c>
@@ -3256,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:6">
       <c r="A168" s="2" t="s">
         <v>6</v>
       </c>
@@ -3273,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:6">
       <c r="A169" s="2" t="s">
         <v>7</v>
       </c>
@@ -3290,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:6">
       <c r="A170" s="2" t="s">
         <v>8</v>
       </c>
@@ -3307,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:6">
       <c r="A171" s="2" t="s">
         <v>9</v>
       </c>
@@ -3324,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:6">
       <c r="A172" s="2" t="s">
         <v>10</v>
       </c>
@@ -3341,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:6">
       <c r="A173" s="2" t="s">
         <v>5</v>
       </c>
@@ -3358,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:6">
       <c r="A174" s="2" t="s">
         <v>6</v>
       </c>
@@ -3375,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:6">
       <c r="A175" s="2" t="s">
         <v>7</v>
       </c>
@@ -3392,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:6">
       <c r="A176" s="2" t="s">
         <v>8</v>
       </c>
@@ -3409,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:6">
       <c r="A177" s="2" t="s">
         <v>9</v>
       </c>
@@ -3426,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:6">
       <c r="A178" s="2" t="s">
         <v>10</v>
       </c>
@@ -3443,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:6">
       <c r="A179" s="2" t="s">
         <v>5</v>
       </c>
@@ -3460,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:6">
       <c r="A180" s="2" t="s">
         <v>6</v>
       </c>
@@ -3477,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:6">
       <c r="A181" s="2" t="s">
         <v>7</v>
       </c>
@@ -3494,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:6">
       <c r="A182" s="2" t="s">
         <v>8</v>
       </c>
@@ -3511,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:6">
       <c r="A183" s="2" t="s">
         <v>9</v>
       </c>
@@ -3528,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:6">
       <c r="A184" s="2" t="s">
         <v>10</v>
       </c>
@@ -3545,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:6">
       <c r="A185" s="2" t="s">
         <v>5</v>
       </c>
@@ -3562,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:6">
       <c r="A186" s="2" t="s">
         <v>6</v>
       </c>
@@ -3579,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:6">
       <c r="A187" s="2" t="s">
         <v>7</v>
       </c>
@@ -3596,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:6">
       <c r="A188" s="2" t="s">
         <v>8</v>
       </c>
@@ -3613,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:6">
       <c r="A189" s="2" t="s">
         <v>9</v>
       </c>
@@ -3630,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:6">
       <c r="A190" s="2" t="s">
         <v>10</v>
       </c>
@@ -3647,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:6">
       <c r="A191" s="2" t="s">
         <v>5</v>
       </c>
@@ -3664,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:6">
       <c r="A192" s="2" t="s">
         <v>6</v>
       </c>
@@ -3681,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:6">
       <c r="A193" s="2" t="s">
         <v>7</v>
       </c>
@@ -3698,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:6">
       <c r="A194" s="2" t="s">
         <v>8</v>
       </c>
@@ -3715,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:6">
       <c r="A195" s="2" t="s">
         <v>9</v>
       </c>
@@ -3732,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:6">
       <c r="A196" s="2" t="s">
         <v>10</v>
       </c>
@@ -3749,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:6">
       <c r="A197" s="2" t="s">
         <v>5</v>
       </c>
@@ -3766,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:6">
       <c r="A198" s="2" t="s">
         <v>6</v>
       </c>
@@ -3783,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:6">
       <c r="A199" s="2" t="s">
         <v>7</v>
       </c>
@@ -3800,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:6">
       <c r="A200" s="2" t="s">
         <v>8</v>
       </c>
@@ -3817,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:6">
       <c r="A201" s="2" t="s">
         <v>9</v>
       </c>
@@ -3834,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:6">
       <c r="A202" s="2" t="s">
         <v>10</v>
       </c>
@@ -3851,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:6">
       <c r="A203" s="2" t="s">
         <v>5</v>
       </c>
@@ -3868,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:6">
       <c r="A204" s="2" t="s">
         <v>6</v>
       </c>
@@ -3885,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:6">
       <c r="A205" s="2" t="s">
         <v>7</v>
       </c>
@@ -3902,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:6">
       <c r="A206" s="2" t="s">
         <v>8</v>
       </c>
@@ -3919,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:6">
       <c r="A207" s="2" t="s">
         <v>9</v>
       </c>
@@ -3936,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:6">
       <c r="A208" s="2" t="s">
         <v>10</v>
       </c>
@@ -3953,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:6">
       <c r="A209" s="2" t="s">
         <v>5</v>
       </c>
@@ -3970,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:6">
       <c r="A210" s="2" t="s">
         <v>6</v>
       </c>
@@ -3987,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:6">
       <c r="A211" s="2" t="s">
         <v>7</v>
       </c>
@@ -4004,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:6">
       <c r="A212" s="2" t="s">
         <v>8</v>
       </c>
@@ -4021,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:6">
       <c r="A213" s="2" t="s">
         <v>9</v>
       </c>
@@ -4038,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:6">
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
@@ -4055,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:6">
       <c r="A215" s="2" t="s">
         <v>5</v>
       </c>
@@ -4072,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:6">
       <c r="A216" s="2" t="s">
         <v>6</v>
       </c>
@@ -4089,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:6">
       <c r="A217" s="2" t="s">
         <v>7</v>
       </c>
@@ -4106,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:6">
       <c r="A218" s="2" t="s">
         <v>8</v>
       </c>
@@ -4123,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:6">
       <c r="A219" s="2" t="s">
         <v>9</v>
       </c>
@@ -4140,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:6">
       <c r="A220" s="2" t="s">
         <v>10</v>
       </c>
@@ -4157,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:6">
       <c r="A221" s="2" t="s">
         <v>5</v>
       </c>
@@ -4174,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:6">
       <c r="A222" s="2" t="s">
         <v>6</v>
       </c>
@@ -4191,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:6">
       <c r="A223" s="2" t="s">
         <v>7</v>
       </c>
@@ -4208,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:6">
       <c r="A224" s="2" t="s">
         <v>8</v>
       </c>
@@ -4225,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:6">
       <c r="A225" s="2" t="s">
         <v>9</v>
       </c>
@@ -4242,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:6">
       <c r="A226" s="2" t="s">
         <v>10</v>
       </c>
@@ -4259,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:6">
       <c r="A227" s="2" t="s">
         <v>5</v>
       </c>
@@ -4276,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:6">
       <c r="A228" s="2" t="s">
         <v>6</v>
       </c>
@@ -4293,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:6">
       <c r="A229" s="2" t="s">
         <v>7</v>
       </c>
@@ -4310,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:6">
       <c r="A230" s="2" t="s">
         <v>8</v>
       </c>
@@ -4327,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:6">
       <c r="A231" s="2" t="s">
         <v>9</v>
       </c>
@@ -4344,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:6">
       <c r="A232" s="2" t="s">
         <v>10</v>
       </c>
@@ -4361,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:6">
       <c r="A233" s="2" t="s">
         <v>5</v>
       </c>
@@ -4378,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:6">
       <c r="A234" s="2" t="s">
         <v>6</v>
       </c>
@@ -4395,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:6">
       <c r="A235" s="2" t="s">
         <v>7</v>
       </c>
@@ -4412,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:6">
       <c r="A236" s="2" t="s">
         <v>8</v>
       </c>
@@ -4429,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:6">
       <c r="A237" s="2" t="s">
         <v>9</v>
       </c>
@@ -4446,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:6">
       <c r="A238" s="2" t="s">
         <v>10</v>
       </c>
@@ -4463,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:6">
       <c r="A239" s="2" t="s">
         <v>5</v>
       </c>
@@ -4480,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:6">
       <c r="A240" s="2" t="s">
         <v>6</v>
       </c>
@@ -4497,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:6">
       <c r="A241" s="2" t="s">
         <v>7</v>
       </c>
@@ -4514,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:6">
       <c r="A242" s="2" t="s">
         <v>8</v>
       </c>
@@ -4531,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:6">
       <c r="A243" s="2" t="s">
         <v>9</v>
       </c>
@@ -4548,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:6">
       <c r="A244" s="2" t="s">
         <v>10</v>
       </c>
@@ -4565,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:6">
       <c r="A245" s="2" t="s">
         <v>5</v>
       </c>
@@ -4582,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:6">
       <c r="A246" s="2" t="s">
         <v>6</v>
       </c>
@@ -4599,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:6">
       <c r="A247" s="2" t="s">
         <v>7</v>
       </c>
@@ -4616,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:6">
       <c r="A248" s="2" t="s">
         <v>8</v>
       </c>
@@ -4633,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:6">
       <c r="A249" s="2" t="s">
         <v>9</v>
       </c>
@@ -4650,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:6">
       <c r="A250" s="2" t="s">
         <v>10</v>
       </c>
@@ -4667,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:6">
       <c r="A251" s="2" t="s">
         <v>5</v>
       </c>
@@ -4684,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:6">
       <c r="A252" s="2" t="s">
         <v>6</v>
       </c>
@@ -4701,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:6">
       <c r="A253" s="2" t="s">
         <v>7</v>
       </c>
@@ -4718,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:6">
       <c r="A254" s="2" t="s">
         <v>8</v>
       </c>
@@ -4735,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:6">
       <c r="A255" s="2" t="s">
         <v>9</v>
       </c>
@@ -4752,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:6">
       <c r="A256" s="2" t="s">
         <v>10</v>
       </c>
@@ -4769,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:6">
       <c r="A257" s="2" t="s">
         <v>5</v>
       </c>
@@ -4786,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:6">
       <c r="A258" s="2" t="s">
         <v>6</v>
       </c>
@@ -4803,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:6">
       <c r="A259" s="2" t="s">
         <v>7</v>
       </c>
@@ -4820,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:6">
       <c r="A260" s="2" t="s">
         <v>8</v>
       </c>
@@ -4837,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:6">
       <c r="A261" s="2" t="s">
         <v>9</v>
       </c>
@@ -4854,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:6">
       <c r="A262" s="2" t="s">
         <v>10</v>
       </c>
@@ -4871,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:6">
       <c r="A263" s="2" t="s">
         <v>5</v>
       </c>
@@ -4888,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:6">
       <c r="A264" s="2" t="s">
         <v>6</v>
       </c>
@@ -4905,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:6">
       <c r="A265" s="2" t="s">
         <v>7</v>
       </c>
@@ -4922,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:6">
       <c r="A266" s="2" t="s">
         <v>8</v>
       </c>
@@ -4939,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:6">
       <c r="A267" s="2" t="s">
         <v>9</v>
       </c>
@@ -4956,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:6">
       <c r="A268" s="2" t="s">
         <v>10</v>
       </c>
@@ -4973,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:6">
       <c r="A269" s="2" t="s">
         <v>5</v>
       </c>
@@ -4990,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:6">
       <c r="A270" s="2" t="s">
         <v>6</v>
       </c>
@@ -5007,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:6">
       <c r="A271" s="2" t="s">
         <v>7</v>
       </c>
@@ -5024,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:6">
       <c r="A272" s="2" t="s">
         <v>8</v>
       </c>
@@ -5041,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:6">
       <c r="A273" s="2" t="s">
         <v>9</v>
       </c>
@@ -5058,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:6">
       <c r="A274" s="2" t="s">
         <v>10</v>
       </c>
@@ -5075,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:6">
       <c r="A275" s="2" t="s">
         <v>5</v>
       </c>
@@ -5092,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:6">
       <c r="A276" s="2" t="s">
         <v>6</v>
       </c>
@@ -5109,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:6">
       <c r="A277" s="2" t="s">
         <v>7</v>
       </c>
@@ -5126,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:6">
       <c r="A278" s="2" t="s">
         <v>8</v>
       </c>
@@ -5143,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:6">
       <c r="A279" s="2" t="s">
         <v>9</v>
       </c>
@@ -5160,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:6">
       <c r="A280" s="2" t="s">
         <v>10</v>
       </c>
@@ -5177,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:6">
       <c r="A281" s="2" t="s">
         <v>5</v>
       </c>
@@ -5194,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:6">
       <c r="A282" s="2" t="s">
         <v>6</v>
       </c>
@@ -5211,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:6">
       <c r="A283" s="2" t="s">
         <v>7</v>
       </c>
@@ -5228,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:6">
       <c r="A284" s="2" t="s">
         <v>8</v>
       </c>
@@ -5245,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:6">
       <c r="A285" s="2" t="s">
         <v>9</v>
       </c>
@@ -5262,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:6">
       <c r="A286" s="2" t="s">
         <v>10</v>
       </c>
@@ -5279,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:6">
       <c r="A287" s="2" t="s">
         <v>5</v>
       </c>
@@ -5296,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:6">
       <c r="A288" s="2" t="s">
         <v>6</v>
       </c>
@@ -5313,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:6">
       <c r="A289" s="2" t="s">
         <v>7</v>
       </c>
@@ -5330,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:6">
       <c r="A290" s="2" t="s">
         <v>8</v>
       </c>
@@ -5347,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:6">
       <c r="A291" s="2" t="s">
         <v>9</v>
       </c>
@@ -5364,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:6">
       <c r="A292" s="2" t="s">
         <v>10</v>
       </c>
@@ -5378,6 +5387,1446 @@
         <v>7.4</v>
       </c>
       <c r="E292" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C293" s="1">
+        <v>8</v>
+      </c>
+      <c r="D293" s="1">
+        <v>5</v>
+      </c>
+      <c r="E293" s="1">
+        <v>8</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C294" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D294" s="1">
+        <v>5</v>
+      </c>
+      <c r="E294" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="2">
+        <v>3</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D295" s="1">
+        <v>5</v>
+      </c>
+      <c r="E295" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C296" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D296" s="1">
+        <v>5</v>
+      </c>
+      <c r="E296" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="2">
+        <v>4</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C297" s="1">
+        <v>8</v>
+      </c>
+      <c r="D297" s="1">
+        <v>5</v>
+      </c>
+      <c r="E297" s="1">
+        <v>8</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="2">
+        <v>5</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C298" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D298" s="1">
+        <v>5</v>
+      </c>
+      <c r="E298" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" s="1">
+        <v>8</v>
+      </c>
+      <c r="D299" s="1">
+        <v>5</v>
+      </c>
+      <c r="E299" s="1">
+        <v>8</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C300" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D300" s="1">
+        <v>5</v>
+      </c>
+      <c r="E300" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="2">
+        <v>3</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D301" s="1">
+        <v>5</v>
+      </c>
+      <c r="E301" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C302" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D302" s="1">
+        <v>5</v>
+      </c>
+      <c r="E302" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="2">
+        <v>4</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C303" s="1">
+        <v>8</v>
+      </c>
+      <c r="D303" s="1">
+        <v>5</v>
+      </c>
+      <c r="E303" s="1">
+        <v>8</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="2">
+        <v>5</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C304" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D304" s="1">
+        <v>5</v>
+      </c>
+      <c r="E304" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" s="1">
+        <v>8</v>
+      </c>
+      <c r="D305" s="1">
+        <v>5</v>
+      </c>
+      <c r="E305" s="1">
+        <v>8</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C306" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D306" s="1">
+        <v>5</v>
+      </c>
+      <c r="E306" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="2">
+        <v>3</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D307" s="1">
+        <v>5</v>
+      </c>
+      <c r="E307" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C308" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D308" s="1">
+        <v>5</v>
+      </c>
+      <c r="E308" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="2">
+        <v>4</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C309" s="1">
+        <v>8</v>
+      </c>
+      <c r="D309" s="1">
+        <v>5</v>
+      </c>
+      <c r="E309" s="1">
+        <v>8</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="2">
+        <v>5</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C310" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D310" s="1">
+        <v>5</v>
+      </c>
+      <c r="E310" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" s="1">
+        <v>8</v>
+      </c>
+      <c r="D311" s="1">
+        <v>5</v>
+      </c>
+      <c r="E311" s="1">
+        <v>8</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C312" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D312" s="1">
+        <v>5</v>
+      </c>
+      <c r="E312" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="2">
+        <v>3</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D313" s="1">
+        <v>5</v>
+      </c>
+      <c r="E313" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C314" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D314" s="1">
+        <v>5</v>
+      </c>
+      <c r="E314" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="2">
+        <v>4</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C315" s="1">
+        <v>8</v>
+      </c>
+      <c r="D315" s="1">
+        <v>5</v>
+      </c>
+      <c r="E315" s="1">
+        <v>8</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="2">
+        <v>5</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C316" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D316" s="1">
+        <v>5</v>
+      </c>
+      <c r="E316" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317" s="1">
+        <v>8</v>
+      </c>
+      <c r="D317" s="1">
+        <v>5</v>
+      </c>
+      <c r="E317" s="1">
+        <v>8</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C318" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D318" s="1">
+        <v>5</v>
+      </c>
+      <c r="E318" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="2">
+        <v>3</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D319" s="1">
+        <v>5</v>
+      </c>
+      <c r="E319" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D320" s="1">
+        <v>5</v>
+      </c>
+      <c r="E320" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="2">
+        <v>4</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C321" s="1">
+        <v>8</v>
+      </c>
+      <c r="D321" s="1">
+        <v>5</v>
+      </c>
+      <c r="E321" s="1">
+        <v>8</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="2">
+        <v>5</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C322" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D322" s="1">
+        <v>5</v>
+      </c>
+      <c r="E322" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" s="1">
+        <v>8</v>
+      </c>
+      <c r="D323" s="1">
+        <v>5</v>
+      </c>
+      <c r="E323" s="1">
+        <v>8</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C324" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D324" s="1">
+        <v>5</v>
+      </c>
+      <c r="E324" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="2">
+        <v>3</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D325" s="1">
+        <v>5</v>
+      </c>
+      <c r="E325" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C326" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D326" s="1">
+        <v>5</v>
+      </c>
+      <c r="E326" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="2">
+        <v>4</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C327" s="1">
+        <v>8</v>
+      </c>
+      <c r="D327" s="1">
+        <v>5</v>
+      </c>
+      <c r="E327" s="1">
+        <v>8</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="2">
+        <v>5</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D328" s="1">
+        <v>5</v>
+      </c>
+      <c r="E328" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" s="1">
+        <v>8</v>
+      </c>
+      <c r="D329" s="1">
+        <v>5</v>
+      </c>
+      <c r="E329" s="1">
+        <v>8</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C330" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D330" s="1">
+        <v>5</v>
+      </c>
+      <c r="E330" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="2">
+        <v>3</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C331" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D331" s="1">
+        <v>5</v>
+      </c>
+      <c r="E331" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C332" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D332" s="1">
+        <v>5</v>
+      </c>
+      <c r="E332" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="2">
+        <v>4</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C333" s="1">
+        <v>8</v>
+      </c>
+      <c r="D333" s="1">
+        <v>5</v>
+      </c>
+      <c r="E333" s="1">
+        <v>8</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="2">
+        <v>5</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C334" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D334" s="1">
+        <v>5</v>
+      </c>
+      <c r="E334" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335" s="1">
+        <v>8</v>
+      </c>
+      <c r="D335" s="1">
+        <v>5</v>
+      </c>
+      <c r="E335" s="1">
+        <v>8</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C336" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D336" s="1">
+        <v>5</v>
+      </c>
+      <c r="E336" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="2">
+        <v>3</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C337" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D337" s="1">
+        <v>5</v>
+      </c>
+      <c r="E337" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C338" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D338" s="1">
+        <v>5</v>
+      </c>
+      <c r="E338" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="2">
+        <v>4</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C339" s="1">
+        <v>8</v>
+      </c>
+      <c r="D339" s="1">
+        <v>5</v>
+      </c>
+      <c r="E339" s="1">
+        <v>8</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="2">
+        <v>5</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C340" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D340" s="1">
+        <v>5</v>
+      </c>
+      <c r="E340" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C341" s="1">
+        <v>8</v>
+      </c>
+      <c r="D341" s="1">
+        <v>5</v>
+      </c>
+      <c r="E341" s="1">
+        <v>8</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C342" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D342" s="1">
+        <v>5</v>
+      </c>
+      <c r="E342" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="2">
+        <v>3</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D343" s="1">
+        <v>5</v>
+      </c>
+      <c r="E343" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D344" s="1">
+        <v>5</v>
+      </c>
+      <c r="E344" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="2">
+        <v>4</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C345" s="1">
+        <v>8</v>
+      </c>
+      <c r="D345" s="1">
+        <v>5</v>
+      </c>
+      <c r="E345" s="1">
+        <v>8</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="2">
+        <v>5</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C346" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D346" s="1">
+        <v>5</v>
+      </c>
+      <c r="E346" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" s="1">
+        <v>8</v>
+      </c>
+      <c r="D347" s="1">
+        <v>5</v>
+      </c>
+      <c r="E347" s="1">
+        <v>8</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C348" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D348" s="1">
+        <v>5</v>
+      </c>
+      <c r="E348" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="2">
+        <v>3</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D349" s="1">
+        <v>5</v>
+      </c>
+      <c r="E349" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C350" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D350" s="1">
+        <v>5</v>
+      </c>
+      <c r="E350" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="2">
+        <v>4</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C351" s="1">
+        <v>8</v>
+      </c>
+      <c r="D351" s="1">
+        <v>5</v>
+      </c>
+      <c r="E351" s="1">
+        <v>8</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="2">
+        <v>5</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C352" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D352" s="1">
+        <v>5</v>
+      </c>
+      <c r="E352" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C353" s="1">
+        <v>8</v>
+      </c>
+      <c r="D353" s="1">
+        <v>5</v>
+      </c>
+      <c r="E353" s="1">
+        <v>8</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C354" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D354" s="1">
+        <v>5</v>
+      </c>
+      <c r="E354" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="2">
+        <v>3</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D355" s="1">
+        <v>5</v>
+      </c>
+      <c r="E355" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C356" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D356" s="1">
+        <v>5</v>
+      </c>
+      <c r="E356" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="2">
+        <v>4</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C357" s="1">
+        <v>8</v>
+      </c>
+      <c r="D357" s="1">
+        <v>5</v>
+      </c>
+      <c r="E357" s="1">
+        <v>8</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="2">
+        <v>5</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C358" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D358" s="1">
+        <v>5</v>
+      </c>
+      <c r="E358" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" s="1">
+        <v>8</v>
+      </c>
+      <c r="D359" s="1">
+        <v>5</v>
+      </c>
+      <c r="E359" s="1">
+        <v>8</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C360" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D360" s="1">
+        <v>5</v>
+      </c>
+      <c r="E360" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="2">
+        <v>3</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D361" s="1">
+        <v>5</v>
+      </c>
+      <c r="E361" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C362" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D362" s="1">
+        <v>5</v>
+      </c>
+      <c r="E362" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="2">
+        <v>4</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C363" s="1">
+        <v>8</v>
+      </c>
+      <c r="D363" s="1">
+        <v>5</v>
+      </c>
+      <c r="E363" s="1">
+        <v>8</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="2">
+        <v>5</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C364" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D364" s="1">
+        <v>5</v>
+      </c>
+      <c r="E364" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F364">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -411,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F364"/>
+  <dimension ref="A1:F388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E15" sqref="E15"/>
@@ -6827,6 +6827,486 @@
         <v>7.4</v>
       </c>
       <c r="F364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C365" s="1">
+        <v>8</v>
+      </c>
+      <c r="D365" s="1">
+        <v>5</v>
+      </c>
+      <c r="E365" s="1">
+        <v>8</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C366" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D366" s="1">
+        <v>5</v>
+      </c>
+      <c r="E366" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" s="2">
+        <v>3</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C367" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D367" s="1">
+        <v>5</v>
+      </c>
+      <c r="E367" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C368" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D368" s="1">
+        <v>5</v>
+      </c>
+      <c r="E368" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="2">
+        <v>4</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C369" s="1">
+        <v>8</v>
+      </c>
+      <c r="D369" s="1">
+        <v>5</v>
+      </c>
+      <c r="E369" s="1">
+        <v>8</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="2">
+        <v>5</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D370" s="1">
+        <v>5</v>
+      </c>
+      <c r="E370" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" s="1">
+        <v>8</v>
+      </c>
+      <c r="D371" s="1">
+        <v>5</v>
+      </c>
+      <c r="E371" s="1">
+        <v>8</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C372" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D372" s="1">
+        <v>5</v>
+      </c>
+      <c r="E372" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="2">
+        <v>3</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C373" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D373" s="1">
+        <v>5</v>
+      </c>
+      <c r="E373" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C374" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D374" s="1">
+        <v>5</v>
+      </c>
+      <c r="E374" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="2">
+        <v>4</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C375" s="1">
+        <v>8</v>
+      </c>
+      <c r="D375" s="1">
+        <v>5</v>
+      </c>
+      <c r="E375" s="1">
+        <v>8</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" s="2">
+        <v>5</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C376" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D376" s="1">
+        <v>5</v>
+      </c>
+      <c r="E376" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377" s="1">
+        <v>8</v>
+      </c>
+      <c r="D377" s="1">
+        <v>5</v>
+      </c>
+      <c r="E377" s="1">
+        <v>8</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C378" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D378" s="1">
+        <v>5</v>
+      </c>
+      <c r="E378" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="2">
+        <v>3</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C379" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D379" s="1">
+        <v>5</v>
+      </c>
+      <c r="E379" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C380" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D380" s="1">
+        <v>5</v>
+      </c>
+      <c r="E380" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="2">
+        <v>4</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C381" s="1">
+        <v>8</v>
+      </c>
+      <c r="D381" s="1">
+        <v>5</v>
+      </c>
+      <c r="E381" s="1">
+        <v>8</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="2">
+        <v>5</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C382" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D382" s="1">
+        <v>5</v>
+      </c>
+      <c r="E382" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383" s="1">
+        <v>8</v>
+      </c>
+      <c r="D383" s="1">
+        <v>5</v>
+      </c>
+      <c r="E383" s="1">
+        <v>8</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C384" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D384" s="1">
+        <v>5</v>
+      </c>
+      <c r="E384" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="2">
+        <v>3</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C385" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D385" s="1">
+        <v>5</v>
+      </c>
+      <c r="E385" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D386" s="1">
+        <v>5</v>
+      </c>
+      <c r="E386" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="2">
+        <v>4</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C387" s="1">
+        <v>8</v>
+      </c>
+      <c r="D387" s="1">
+        <v>5</v>
+      </c>
+      <c r="E387" s="1">
+        <v>8</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="2">
+        <v>5</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C388" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D388" s="1">
+        <v>5</v>
+      </c>
+      <c r="E388" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F388">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -411,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F388"/>
+  <dimension ref="A1:F460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E15" sqref="E15"/>
@@ -7307,6 +7307,1446 @@
         <v>7.4</v>
       </c>
       <c r="F388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" s="1">
+        <v>8</v>
+      </c>
+      <c r="D389" s="1">
+        <v>5</v>
+      </c>
+      <c r="E389" s="1">
+        <v>8</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C390" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D390" s="1">
+        <v>5</v>
+      </c>
+      <c r="E390" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" s="2">
+        <v>3</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C391" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D391" s="1">
+        <v>5</v>
+      </c>
+      <c r="E391" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C392" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D392" s="1">
+        <v>5</v>
+      </c>
+      <c r="E392" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" s="2">
+        <v>4</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C393" s="1">
+        <v>8</v>
+      </c>
+      <c r="D393" s="1">
+        <v>5</v>
+      </c>
+      <c r="E393" s="1">
+        <v>8</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" s="2">
+        <v>5</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C394" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D394" s="1">
+        <v>5</v>
+      </c>
+      <c r="E394" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" s="1">
+        <v>8</v>
+      </c>
+      <c r="D395" s="1">
+        <v>5</v>
+      </c>
+      <c r="E395" s="1">
+        <v>8</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C396" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D396" s="1">
+        <v>5</v>
+      </c>
+      <c r="E396" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" s="2">
+        <v>3</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C397" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D397" s="1">
+        <v>5</v>
+      </c>
+      <c r="E397" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C398" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D398" s="1">
+        <v>5</v>
+      </c>
+      <c r="E398" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" s="2">
+        <v>4</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C399" s="1">
+        <v>8</v>
+      </c>
+      <c r="D399" s="1">
+        <v>5</v>
+      </c>
+      <c r="E399" s="1">
+        <v>8</v>
+      </c>
+      <c r="F399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" s="2">
+        <v>5</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C400" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D400" s="1">
+        <v>5</v>
+      </c>
+      <c r="E400" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C401" s="1">
+        <v>8</v>
+      </c>
+      <c r="D401" s="1">
+        <v>5</v>
+      </c>
+      <c r="E401" s="1">
+        <v>8</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C402" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D402" s="1">
+        <v>5</v>
+      </c>
+      <c r="E402" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" s="2">
+        <v>3</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C403" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D403" s="1">
+        <v>5</v>
+      </c>
+      <c r="E403" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C404" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D404" s="1">
+        <v>5</v>
+      </c>
+      <c r="E404" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" s="2">
+        <v>4</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C405" s="1">
+        <v>8</v>
+      </c>
+      <c r="D405" s="1">
+        <v>5</v>
+      </c>
+      <c r="E405" s="1">
+        <v>8</v>
+      </c>
+      <c r="F405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" s="2">
+        <v>5</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C406" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D406" s="1">
+        <v>5</v>
+      </c>
+      <c r="E406" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C407" s="1">
+        <v>8</v>
+      </c>
+      <c r="D407" s="1">
+        <v>5</v>
+      </c>
+      <c r="E407" s="1">
+        <v>8</v>
+      </c>
+      <c r="F407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C408" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D408" s="1">
+        <v>5</v>
+      </c>
+      <c r="E408" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" s="2">
+        <v>3</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C409" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D409" s="1">
+        <v>5</v>
+      </c>
+      <c r="E409" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C410" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D410" s="1">
+        <v>5</v>
+      </c>
+      <c r="E410" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" s="2">
+        <v>4</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C411" s="1">
+        <v>8</v>
+      </c>
+      <c r="D411" s="1">
+        <v>5</v>
+      </c>
+      <c r="E411" s="1">
+        <v>8</v>
+      </c>
+      <c r="F411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" s="2">
+        <v>5</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C412" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D412" s="1">
+        <v>5</v>
+      </c>
+      <c r="E412" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413" s="1">
+        <v>8</v>
+      </c>
+      <c r="D413" s="1">
+        <v>5</v>
+      </c>
+      <c r="E413" s="1">
+        <v>8</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C414" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D414" s="1">
+        <v>5</v>
+      </c>
+      <c r="E414" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" s="2">
+        <v>3</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C415" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D415" s="1">
+        <v>5</v>
+      </c>
+      <c r="E415" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C416" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D416" s="1">
+        <v>5</v>
+      </c>
+      <c r="E416" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" s="2">
+        <v>4</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C417" s="1">
+        <v>8</v>
+      </c>
+      <c r="D417" s="1">
+        <v>5</v>
+      </c>
+      <c r="E417" s="1">
+        <v>8</v>
+      </c>
+      <c r="F417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" s="2">
+        <v>5</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C418" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D418" s="1">
+        <v>5</v>
+      </c>
+      <c r="E418" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C419" s="1">
+        <v>8</v>
+      </c>
+      <c r="D419" s="1">
+        <v>5</v>
+      </c>
+      <c r="E419" s="1">
+        <v>8</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C420" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D420" s="1">
+        <v>5</v>
+      </c>
+      <c r="E420" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" s="2">
+        <v>3</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C421" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D421" s="1">
+        <v>5</v>
+      </c>
+      <c r="E421" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D422" s="1">
+        <v>5</v>
+      </c>
+      <c r="E422" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" s="2">
+        <v>4</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C423" s="1">
+        <v>8</v>
+      </c>
+      <c r="D423" s="1">
+        <v>5</v>
+      </c>
+      <c r="E423" s="1">
+        <v>8</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" s="2">
+        <v>5</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C424" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D424" s="1">
+        <v>5</v>
+      </c>
+      <c r="E424" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C425" s="1">
+        <v>8</v>
+      </c>
+      <c r="D425" s="1">
+        <v>5</v>
+      </c>
+      <c r="E425" s="1">
+        <v>8</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C426" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D426" s="1">
+        <v>5</v>
+      </c>
+      <c r="E426" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" s="2">
+        <v>3</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C427" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D427" s="1">
+        <v>5</v>
+      </c>
+      <c r="E427" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C428" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D428" s="1">
+        <v>5</v>
+      </c>
+      <c r="E428" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" s="2">
+        <v>4</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C429" s="1">
+        <v>8</v>
+      </c>
+      <c r="D429" s="1">
+        <v>5</v>
+      </c>
+      <c r="E429" s="1">
+        <v>8</v>
+      </c>
+      <c r="F429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" s="2">
+        <v>5</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C430" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D430" s="1">
+        <v>5</v>
+      </c>
+      <c r="E430" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C431" s="1">
+        <v>8</v>
+      </c>
+      <c r="D431" s="1">
+        <v>5</v>
+      </c>
+      <c r="E431" s="1">
+        <v>8</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C432" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D432" s="1">
+        <v>5</v>
+      </c>
+      <c r="E432" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" s="2">
+        <v>3</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C433" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D433" s="1">
+        <v>5</v>
+      </c>
+      <c r="E433" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C434" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D434" s="1">
+        <v>5</v>
+      </c>
+      <c r="E434" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" s="2">
+        <v>4</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C435" s="1">
+        <v>8</v>
+      </c>
+      <c r="D435" s="1">
+        <v>5</v>
+      </c>
+      <c r="E435" s="1">
+        <v>8</v>
+      </c>
+      <c r="F435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" s="2">
+        <v>5</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C436" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D436" s="1">
+        <v>5</v>
+      </c>
+      <c r="E436" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C437" s="1">
+        <v>8</v>
+      </c>
+      <c r="D437" s="1">
+        <v>5</v>
+      </c>
+      <c r="E437" s="1">
+        <v>8</v>
+      </c>
+      <c r="F437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C438" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D438" s="1">
+        <v>5</v>
+      </c>
+      <c r="E438" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" s="2">
+        <v>3</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C439" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D439" s="1">
+        <v>5</v>
+      </c>
+      <c r="E439" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C440" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D440" s="1">
+        <v>5</v>
+      </c>
+      <c r="E440" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" s="2">
+        <v>4</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C441" s="1">
+        <v>8</v>
+      </c>
+      <c r="D441" s="1">
+        <v>5</v>
+      </c>
+      <c r="E441" s="1">
+        <v>8</v>
+      </c>
+      <c r="F441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" s="2">
+        <v>5</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C442" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D442" s="1">
+        <v>5</v>
+      </c>
+      <c r="E442" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C443" s="1">
+        <v>8</v>
+      </c>
+      <c r="D443" s="1">
+        <v>5</v>
+      </c>
+      <c r="E443" s="1">
+        <v>8</v>
+      </c>
+      <c r="F443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C444" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D444" s="1">
+        <v>5</v>
+      </c>
+      <c r="E444" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" s="2">
+        <v>3</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C445" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D445" s="1">
+        <v>5</v>
+      </c>
+      <c r="E445" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C446" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D446" s="1">
+        <v>5</v>
+      </c>
+      <c r="E446" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" s="2">
+        <v>4</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C447" s="1">
+        <v>8</v>
+      </c>
+      <c r="D447" s="1">
+        <v>5</v>
+      </c>
+      <c r="E447" s="1">
+        <v>8</v>
+      </c>
+      <c r="F447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" s="2">
+        <v>5</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C448" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D448" s="1">
+        <v>5</v>
+      </c>
+      <c r="E448" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C449" s="1">
+        <v>8</v>
+      </c>
+      <c r="D449" s="1">
+        <v>5</v>
+      </c>
+      <c r="E449" s="1">
+        <v>8</v>
+      </c>
+      <c r="F449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C450" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D450" s="1">
+        <v>5</v>
+      </c>
+      <c r="E450" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" s="2">
+        <v>3</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C451" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D451" s="1">
+        <v>5</v>
+      </c>
+      <c r="E451" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C452" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D452" s="1">
+        <v>5</v>
+      </c>
+      <c r="E452" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" s="2">
+        <v>4</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C453" s="1">
+        <v>8</v>
+      </c>
+      <c r="D453" s="1">
+        <v>5</v>
+      </c>
+      <c r="E453" s="1">
+        <v>8</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" s="2">
+        <v>5</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C454" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D454" s="1">
+        <v>5</v>
+      </c>
+      <c r="E454" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C455" s="1">
+        <v>8</v>
+      </c>
+      <c r="D455" s="1">
+        <v>5</v>
+      </c>
+      <c r="E455" s="1">
+        <v>8</v>
+      </c>
+      <c r="F455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C456" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D456" s="1">
+        <v>5</v>
+      </c>
+      <c r="E456" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" s="2">
+        <v>3</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C457" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D457" s="1">
+        <v>5</v>
+      </c>
+      <c r="E457" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C458" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D458" s="1">
+        <v>5</v>
+      </c>
+      <c r="E458" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" s="2">
+        <v>4</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C459" s="1">
+        <v>8</v>
+      </c>
+      <c r="D459" s="1">
+        <v>5</v>
+      </c>
+      <c r="E459" s="1">
+        <v>8</v>
+      </c>
+      <c r="F459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" s="2">
+        <v>5</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C460" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D460" s="1">
+        <v>5</v>
+      </c>
+      <c r="E460" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F460">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -411,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F460"/>
+  <dimension ref="A1:F466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E15" sqref="E15"/>
@@ -8747,6 +8747,126 @@
         <v>7.4</v>
       </c>
       <c r="F460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C461" s="1">
+        <v>8</v>
+      </c>
+      <c r="D461" s="1">
+        <v>5</v>
+      </c>
+      <c r="E461" s="1">
+        <v>8</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C462" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D462" s="1">
+        <v>5</v>
+      </c>
+      <c r="E462" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" s="2">
+        <v>3</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C463" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D463" s="1">
+        <v>5</v>
+      </c>
+      <c r="E463" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C464" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D464" s="1">
+        <v>5</v>
+      </c>
+      <c r="E464" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465" s="2">
+        <v>4</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C465" s="1">
+        <v>8</v>
+      </c>
+      <c r="D465" s="1">
+        <v>5</v>
+      </c>
+      <c r="E465" s="1">
+        <v>8</v>
+      </c>
+      <c r="F465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466" s="2">
+        <v>5</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C466" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D466" s="1">
+        <v>5</v>
+      </c>
+      <c r="E466" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F466">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -411,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F466"/>
+  <dimension ref="A1:F472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E15" sqref="E15"/>
@@ -8867,6 +8867,126 @@
         <v>7.4</v>
       </c>
       <c r="F466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C467" s="1">
+        <v>8</v>
+      </c>
+      <c r="D467" s="1">
+        <v>5</v>
+      </c>
+      <c r="E467" s="1">
+        <v>8</v>
+      </c>
+      <c r="F467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C468" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D468" s="1">
+        <v>5</v>
+      </c>
+      <c r="E468" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469" s="2">
+        <v>3</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C469" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D469" s="1">
+        <v>5</v>
+      </c>
+      <c r="E469" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C470" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D470" s="1">
+        <v>5</v>
+      </c>
+      <c r="E470" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471" s="2">
+        <v>4</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C471" s="1">
+        <v>8</v>
+      </c>
+      <c r="D471" s="1">
+        <v>5</v>
+      </c>
+      <c r="E471" s="1">
+        <v>8</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
+      <c r="A472" s="2">
+        <v>5</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C472" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D472" s="1">
+        <v>5</v>
+      </c>
+      <c r="E472" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F472">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Tr002</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Tr013</t>
+  </si>
+  <si>
+    <t>2016-05-22</t>
   </si>
 </sst>
 </file>
@@ -410,13 +413,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="20.5546875" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -895,6 +901,1246 @@
         <v>7.4</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>8.3</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>7.3</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>8.4</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>7.2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>8.1</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>7.5</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>8.2</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>7.4</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>8.3</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>7.3</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>8.4</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>7.2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>8.1</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>7.5</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>8.2</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>7.4</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>8.3</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>7.3</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>8.4</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>7.2</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>8.1</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>7.5</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>8.2</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>7.4</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>8.3</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>7.3</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>8.4</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>7.2</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>8.1</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>7.5</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>8.2</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>7.4</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>8.3</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>7.3</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>8.4</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>7.2</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>8.1</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>7.5</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>8.2</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>7.4</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>8.3</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>7.3</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>8.4</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>7.2</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>8.1</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>7.5</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>8.2</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>7.4</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>8.3</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>7.3</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>8.4</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>7.2</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>8.1</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>7.5</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>8.2</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>7.4</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>8</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>8.3</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>7.3</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>8.4</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>7.2</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>8.1</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>7.5</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>8.2</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>7.4</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>8</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>8</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>8.3</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>7.3</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>8.4</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>7.2</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>8.1</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>7.5</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>8.2</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>7.4</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>8</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>8.3</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>7.3</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>8.4</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>7.2</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>8.1</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>7.5</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>8</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>8.2</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>7.4</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>8</v>
+      </c>
+      <c r="F87">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -410,7 +410,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -895,6 +895,486 @@
         <v>7.4</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>8.3</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>7.3</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>8.4</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>7.2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>8.1</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>7.5</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>8.2</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>7.4</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>8.3</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>7.3</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>8.4</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>7.2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>8.1</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>7.5</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>8.2</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>7.4</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>8.3</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>7.3</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>8.4</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>7.2</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>8.1</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>7.5</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>8.2</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>7.4</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>8.3</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>7.3</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>8.4</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>7.2</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>8.1</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>7.5</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>8.2</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>7.4</v>
+      </c>
+      <c r="F49">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Tr002</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Tr013</t>
+  </si>
+  <si>
+    <t>2016-05-24</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1375,6 +1378,266 @@
         <v>7.4</v>
       </c>
       <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>8.3</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>7.3</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>8.4</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>7.2</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>8.1</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>7.5</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>8.2</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>7.4</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>8.3</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>7.3</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>8.4</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>7.2</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>8.1</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>7.5</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>8.2</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>7.4</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>Tr002</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>2016-05-24</t>
+  </si>
+  <si>
+    <t>Tr001</t>
+  </si>
+  <si>
+    <t>2016-11-20</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1638,6 +1644,1886 @@
         <v>8</v>
       </c>
       <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>8.3</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>7.3</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>8.4</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>7.2</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>8.1</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>7.5</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>8</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>8.2</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>7.4</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>8.3</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>7.3</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>8.4</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>7.2</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>8.1</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>7.5</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74">
+        <v>8.2</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>7.4</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>8</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>8.3</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>7.3</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>8.4</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>7.2</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>8.1</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>7.5</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>8</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>8.2</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>7.4</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>8</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>8.3</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>7.3</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>8.4</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>7.2</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>8.1</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>7.5</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>8</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87">
+        <v>8.2</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>7.4</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>8</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>8.3</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>7.3</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>8.4</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>7.2</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>8.1</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>7.5</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>8</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <v>8.2</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>7.4</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>8</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>8.3</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>7.3</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>8.4</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>7.2</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>8.1</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>7.5</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>8</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>8</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100">
+        <v>8.2</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>7.4</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>8</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>8</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>8</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>8.3</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>7.3</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>8.4</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>7.2</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>8.1</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>7.5</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>8</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>8</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107">
+        <v>8.2</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>7.4</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>8</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>8.3</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109">
+        <v>7.3</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>8.4</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>7.2</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
+        <v>8.1</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>7.5</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>8</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>8</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113">
+        <v>8.2</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>7.4</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114">
+        <v>8</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>8</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>8</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>8.3</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>7.3</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>8.4</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>7.2</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <v>8.1</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118">
+        <v>7.5</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>8</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>8</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120">
+        <v>8.2</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120">
+        <v>7.4</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121">
+        <v>8</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>8.3</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122">
+        <v>7.3</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>8.4</v>
+      </c>
+      <c r="D123">
+        <v>5</v>
+      </c>
+      <c r="E123">
+        <v>7.2</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124">
+        <v>8.1</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124">
+        <v>7.5</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125">
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125">
+        <v>8</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126">
+        <v>8.2</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126">
+        <v>7.4</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>8</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128">
+        <v>8.1</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128">
+        <v>10</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>8</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>8</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>8.3</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>7.3</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>8.4</v>
+      </c>
+      <c r="D131">
+        <v>5</v>
+      </c>
+      <c r="E131">
+        <v>7.2</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <v>8.1</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>7.5</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133">
+        <v>8</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <v>8</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134">
+        <v>8.2</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134">
+        <v>7.4</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>8</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>8.3</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>7.3</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>8.4</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+      <c r="E137">
+        <v>7.2</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>8.1</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <v>7.5</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139">
+        <v>8</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140">
+        <v>8.2</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>7.4</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141">
+        <v>8</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142">
+        <v>8.1</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>8</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+      <c r="E143">
+        <v>8</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>8.3</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+      <c r="E144">
+        <v>7.3</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>8.4</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>7.2</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146">
+        <v>8.1</v>
+      </c>
+      <c r="D146">
+        <v>5</v>
+      </c>
+      <c r="E146">
+        <v>7.5</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147">
+        <v>8</v>
+      </c>
+      <c r="D147">
+        <v>5</v>
+      </c>
+      <c r="E147">
+        <v>8</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148">
+        <v>8.2</v>
+      </c>
+      <c r="D148">
+        <v>5</v>
+      </c>
+      <c r="E148">
+        <v>7.4</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>8</v>
+      </c>
+      <c r="D149">
+        <v>5</v>
+      </c>
+      <c r="E149">
+        <v>8</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150">
+        <v>8.3</v>
+      </c>
+      <c r="D150">
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <v>7.3</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>8.4</v>
+      </c>
+      <c r="D151">
+        <v>5</v>
+      </c>
+      <c r="E151">
+        <v>7.2</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>8.1</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>7.5</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153">
+        <v>8</v>
+      </c>
+      <c r="D153">
+        <v>5</v>
+      </c>
+      <c r="E153">
+        <v>8</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154">
+        <v>8.2</v>
+      </c>
+      <c r="D154">
+        <v>5</v>
+      </c>
+      <c r="E154">
+        <v>7.4</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155">
+        <v>8</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <v>8</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" t="s">
+        <v>20</v>
+      </c>
+      <c r="C156">
+        <v>8.1</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>10</v>
+      </c>
+      <c r="F156">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -419,7 +419,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3524,6 +3524,306 @@
         <v>10</v>
       </c>
       <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>8</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157">
+        <v>8</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>8.3</v>
+      </c>
+      <c r="D158">
+        <v>5</v>
+      </c>
+      <c r="E158">
+        <v>7.3</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>8.4</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159">
+        <v>7.2</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>8.1</v>
+      </c>
+      <c r="D160">
+        <v>5</v>
+      </c>
+      <c r="E160">
+        <v>7.5</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161">
+        <v>8</v>
+      </c>
+      <c r="D161">
+        <v>5</v>
+      </c>
+      <c r="E161">
+        <v>8</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162">
+        <v>8.2</v>
+      </c>
+      <c r="D162">
+        <v>5</v>
+      </c>
+      <c r="E162">
+        <v>7.4</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>8</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+      <c r="E163">
+        <v>8</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>8.3</v>
+      </c>
+      <c r="D164">
+        <v>5</v>
+      </c>
+      <c r="E164">
+        <v>7.3</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>8.4</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165">
+        <v>7.2</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <v>8.1</v>
+      </c>
+      <c r="D166">
+        <v>5</v>
+      </c>
+      <c r="E166">
+        <v>7.5</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167">
+        <v>8</v>
+      </c>
+      <c r="D167">
+        <v>5</v>
+      </c>
+      <c r="E167">
+        <v>8</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168">
+        <v>8.2</v>
+      </c>
+      <c r="D168">
+        <v>5</v>
+      </c>
+      <c r="E168">
+        <v>7.4</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169">
+        <v>8</v>
+      </c>
+      <c r="D169">
+        <v>5</v>
+      </c>
+      <c r="E169">
+        <v>8</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170">
+        <v>8.1</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+      <c r="E170">
+        <v>10</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>2</v>
+      </c>
+      <c r="B171" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171">
+        <v>8.15</v>
+      </c>
+      <c r="D171">
+        <v>5.1</v>
+      </c>
+      <c r="E171">
+        <v>11</v>
+      </c>
+      <c r="F171">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -419,7 +419,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3824,6 +3824,306 @@
         <v>11</v>
       </c>
       <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>8</v>
+      </c>
+      <c r="D172">
+        <v>5</v>
+      </c>
+      <c r="E172">
+        <v>8</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>8.3</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+      <c r="E173">
+        <v>7.3</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174">
+        <v>8.4</v>
+      </c>
+      <c r="D174">
+        <v>5</v>
+      </c>
+      <c r="E174">
+        <v>7.2</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175">
+        <v>8.1</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+      <c r="E175">
+        <v>7.5</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176">
+        <v>8</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+      <c r="E176">
+        <v>8</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177">
+        <v>8.2</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>7.4</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>8</v>
+      </c>
+      <c r="D178">
+        <v>5</v>
+      </c>
+      <c r="E178">
+        <v>8</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179">
+        <v>8.3</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+      <c r="E179">
+        <v>7.3</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180">
+        <v>8.4</v>
+      </c>
+      <c r="D180">
+        <v>5</v>
+      </c>
+      <c r="E180">
+        <v>7.2</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>15</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181">
+        <v>8.1</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+      <c r="E181">
+        <v>7.5</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182">
+        <v>8</v>
+      </c>
+      <c r="D182">
+        <v>5</v>
+      </c>
+      <c r="E182">
+        <v>8</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>17</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183">
+        <v>8.2</v>
+      </c>
+      <c r="D183">
+        <v>5</v>
+      </c>
+      <c r="E183">
+        <v>7.4</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184">
+        <v>8</v>
+      </c>
+      <c r="D184">
+        <v>5</v>
+      </c>
+      <c r="E184">
+        <v>8</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185" t="s">
+        <v>20</v>
+      </c>
+      <c r="C185">
+        <v>8.1</v>
+      </c>
+      <c r="D185">
+        <v>5</v>
+      </c>
+      <c r="E185">
+        <v>10</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>2</v>
+      </c>
+      <c r="B186" t="s">
+        <v>20</v>
+      </c>
+      <c r="C186">
+        <v>8.15</v>
+      </c>
+      <c r="D186">
+        <v>5.1</v>
+      </c>
+      <c r="E186">
+        <v>11</v>
+      </c>
+      <c r="F186">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Tr002</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>2016-11-20</t>
+  </si>
+  <si>
+    <t>2016-11-27</t>
+  </si>
+  <si>
+    <t>2016-11-28</t>
+  </si>
+  <si>
+    <t>2016-11-29</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-12-01</t>
   </si>
 </sst>
 </file>
@@ -419,7 +434,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4125,6 +4140,506 @@
       </c>
       <c r="F186">
         <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>8</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+      <c r="E187">
+        <v>8</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>2</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188">
+        <v>8.3</v>
+      </c>
+      <c r="D188">
+        <v>5</v>
+      </c>
+      <c r="E188">
+        <v>7.3</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189">
+        <v>8.4</v>
+      </c>
+      <c r="D189">
+        <v>5</v>
+      </c>
+      <c r="E189">
+        <v>7.2</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190">
+        <v>8.1</v>
+      </c>
+      <c r="D190">
+        <v>5</v>
+      </c>
+      <c r="E190">
+        <v>7.5</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191">
+        <v>8</v>
+      </c>
+      <c r="D191">
+        <v>5</v>
+      </c>
+      <c r="E191">
+        <v>8</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192">
+        <v>8.2</v>
+      </c>
+      <c r="D192">
+        <v>5</v>
+      </c>
+      <c r="E192">
+        <v>7.4</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>8</v>
+      </c>
+      <c r="D193">
+        <v>5</v>
+      </c>
+      <c r="E193">
+        <v>8</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>8.3</v>
+      </c>
+      <c r="D194">
+        <v>5</v>
+      </c>
+      <c r="E194">
+        <v>7.3</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>14</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195">
+        <v>8.4</v>
+      </c>
+      <c r="D195">
+        <v>5</v>
+      </c>
+      <c r="E195">
+        <v>7.2</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>15</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>8.1</v>
+      </c>
+      <c r="D196">
+        <v>5</v>
+      </c>
+      <c r="E196">
+        <v>7.5</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>16</v>
+      </c>
+      <c r="B197" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197">
+        <v>8</v>
+      </c>
+      <c r="D197">
+        <v>5</v>
+      </c>
+      <c r="E197">
+        <v>8</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198">
+        <v>8.2</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198">
+        <v>7.4</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199">
+        <v>8</v>
+      </c>
+      <c r="D199">
+        <v>5</v>
+      </c>
+      <c r="E199">
+        <v>8</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200">
+        <v>8.1</v>
+      </c>
+      <c r="D200">
+        <v>5</v>
+      </c>
+      <c r="E200">
+        <v>7.5</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201">
+        <v>8.1</v>
+      </c>
+      <c r="D201">
+        <v>5</v>
+      </c>
+      <c r="E201">
+        <v>7.5</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202">
+        <v>8.1</v>
+      </c>
+      <c r="D202">
+        <v>5</v>
+      </c>
+      <c r="E202">
+        <v>7.5</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>15</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203">
+        <v>8.1</v>
+      </c>
+      <c r="D203">
+        <v>5</v>
+      </c>
+      <c r="E203">
+        <v>7.5</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>15</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204">
+        <v>8.1</v>
+      </c>
+      <c r="D204">
+        <v>5</v>
+      </c>
+      <c r="E204">
+        <v>7.5</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>15</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205">
+        <v>8.1</v>
+      </c>
+      <c r="D205">
+        <v>5</v>
+      </c>
+      <c r="E205">
+        <v>7.5</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206">
+        <v>8.1</v>
+      </c>
+      <c r="D206">
+        <v>5</v>
+      </c>
+      <c r="E206">
+        <v>7.5</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>15</v>
+      </c>
+      <c r="B207" t="s">
+        <v>21</v>
+      </c>
+      <c r="C207">
+        <v>8.1</v>
+      </c>
+      <c r="D207">
+        <v>5.15</v>
+      </c>
+      <c r="E207">
+        <v>7.55</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>15</v>
+      </c>
+      <c r="B208" t="s">
+        <v>22</v>
+      </c>
+      <c r="C208">
+        <v>8.05</v>
+      </c>
+      <c r="D208">
+        <v>5.05</v>
+      </c>
+      <c r="E208">
+        <v>8</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>15</v>
+      </c>
+      <c r="B209" t="s">
+        <v>23</v>
+      </c>
+      <c r="C209">
+        <v>8.15</v>
+      </c>
+      <c r="D209">
+        <v>5</v>
+      </c>
+      <c r="E209">
+        <v>7.45</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>15</v>
+      </c>
+      <c r="B210" t="s">
+        <v>24</v>
+      </c>
+      <c r="C210">
+        <v>8.1</v>
+      </c>
+      <c r="D210">
+        <v>5.25</v>
+      </c>
+      <c r="E210">
+        <v>7.45</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>15</v>
+      </c>
+      <c r="B211" t="s">
+        <v>25</v>
+      </c>
+      <c r="C211">
+        <v>8</v>
+      </c>
+      <c r="D211">
+        <v>5.35</v>
+      </c>
+      <c r="E211">
+        <v>8.35</v>
+      </c>
+      <c r="F211">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="528" windowWidth="22716" windowHeight="8940"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Tr002</t>
   </si>
@@ -76,9 +77,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -89,32 +95,31 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -404,14 +409,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="F211" sqref="A101:F211"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -441,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -521,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -561,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -641,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -681,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -761,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -801,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -881,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -921,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -1001,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="C31">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -1041,7 +1049,7 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -1121,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -1161,7 +1169,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -1241,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -1281,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -1361,7 +1369,7 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D49">
         <v>5</v>
@@ -1401,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="C51">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -1481,7 +1489,7 @@
         <v>11</v>
       </c>
       <c r="C55">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -1521,7 +1529,7 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -1601,7 +1609,7 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D61">
         <v>5</v>
@@ -1661,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D64">
         <v>5</v>
@@ -1741,7 +1749,7 @@
         <v>11</v>
       </c>
       <c r="C68">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -1781,7 +1789,7 @@
         <v>3</v>
       </c>
       <c r="C70">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D70">
         <v>5</v>
@@ -1861,7 +1869,7 @@
         <v>11</v>
       </c>
       <c r="C74">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -1921,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="C77">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -2001,7 +2009,7 @@
         <v>11</v>
       </c>
       <c r="C81">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -2041,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="C83">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -2121,7 +2129,7 @@
         <v>11</v>
       </c>
       <c r="C87">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -2181,7 +2189,7 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -2261,7 +2269,7 @@
         <v>11</v>
       </c>
       <c r="C94">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -2301,7 +2309,7 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -2381,7 +2389,7 @@
         <v>11</v>
       </c>
       <c r="C100">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -2393,8 +2401,218 @@
         <v>0</v>
       </c>
     </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>8</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>8.3</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>7.3</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>8.4</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>7.2</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>8.1</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>7.5</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>8</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106">
+        <v>8.2</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>7.4</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>8.4</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>7.2</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>8.1</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>7.5</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109">
+        <v>8</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110">
+        <v>8.2</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>7.4</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -413,7 +413,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A101" sqref="A101"/>
@@ -2598,6 +2598,206 @@
         <v>7.4</v>
       </c>
       <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>8</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>8.3</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>7.3</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>8.4</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>7.2</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>8.1</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>7.5</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>8</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116">
+        <v>8.2</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>7.4</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>8.4</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>7.2</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <v>8.1</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118">
+        <v>7.5</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>8</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>8</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120">
+        <v>8.2</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120">
+        <v>7.4</v>
+      </c>
+      <c r="F120">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -413,7 +413,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A101" sqref="A101"/>
@@ -2798,6 +2798,206 @@
         <v>7.4</v>
       </c>
       <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121">
+        <v>8</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>8.3</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122">
+        <v>7.3</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>8.4</v>
+      </c>
+      <c r="D123">
+        <v>5</v>
+      </c>
+      <c r="E123">
+        <v>7.2</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124">
+        <v>8.1</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124">
+        <v>7.5</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125">
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125">
+        <v>8</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126">
+        <v>8.2</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126">
+        <v>7.4</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>8.4</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>7.2</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128">
+        <v>8.1</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128">
+        <v>7.5</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>8</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>8</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130">
+        <v>8.2</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>7.4</v>
+      </c>
+      <c r="F130">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -413,7 +413,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A101" sqref="A101"/>
@@ -2998,6 +2998,406 @@
         <v>7.4</v>
       </c>
       <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>5</v>
+      </c>
+      <c r="E131">
+        <v>8</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>8.3</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>7.3</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>8.4</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <v>7.2</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134">
+        <v>8.1</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134">
+        <v>7.5</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>8</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136">
+        <v>8.2</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>7.4</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>8.4</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+      <c r="E137">
+        <v>7.2</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>8.1</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <v>7.5</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139">
+        <v>8</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140">
+        <v>8.2</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>7.4</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141">
+        <v>8</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>8.3</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>7.3</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>8.4</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+      <c r="E143">
+        <v>7.2</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144">
+        <v>8.1</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+      <c r="E144">
+        <v>7.5</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145">
+        <v>8</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>8</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146">
+        <v>8.2</v>
+      </c>
+      <c r="D146">
+        <v>5</v>
+      </c>
+      <c r="E146">
+        <v>7.4</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>8.4</v>
+      </c>
+      <c r="D147">
+        <v>5</v>
+      </c>
+      <c r="E147">
+        <v>7.2</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <v>8.1</v>
+      </c>
+      <c r="D148">
+        <v>5</v>
+      </c>
+      <c r="E148">
+        <v>7.5</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149">
+        <v>8</v>
+      </c>
+      <c r="D149">
+        <v>5</v>
+      </c>
+      <c r="E149">
+        <v>8</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150">
+        <v>8.2</v>
+      </c>
+      <c r="D150">
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <v>7.4</v>
+      </c>
+      <c r="F150">
         <v>0</v>
       </c>
     </row>

--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="492" yWindow="492" windowWidth="21756" windowHeight="7884"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="19">
   <si>
     <t>Tr002</t>
   </si>
@@ -77,14 +76,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -95,31 +89,33 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -409,17 +405,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:F130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -428,7 +424,7 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>8</v>
       </c>
       <c r="D2">
@@ -448,8 +444,8 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>8.3</v>
+      <c r="C3" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -468,7 +464,7 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>8.4</v>
       </c>
       <c r="D4">
@@ -488,7 +484,7 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>8.1</v>
       </c>
       <c r="D5">
@@ -508,7 +504,7 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>8</v>
       </c>
       <c r="D6">
@@ -528,8 +524,8 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>8.2</v>
+      <c r="C7" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -548,7 +544,7 @@
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>8</v>
       </c>
       <c r="D8">
@@ -568,8 +564,8 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>8.3</v>
+      <c r="C9" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -588,7 +584,7 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>8.4</v>
       </c>
       <c r="D10">
@@ -608,7 +604,7 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>8.1</v>
       </c>
       <c r="D11">
@@ -628,7 +624,7 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>8</v>
       </c>
       <c r="D12">
@@ -648,8 +644,8 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
-        <v>8.2</v>
+      <c r="C13" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -668,7 +664,7 @@
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>8</v>
       </c>
       <c r="D14">
@@ -688,8 +684,8 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>8.3</v>
+      <c r="C15" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -708,7 +704,7 @@
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>8.4</v>
       </c>
       <c r="D16">
@@ -728,7 +724,7 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>8.1</v>
       </c>
       <c r="D17">
@@ -748,7 +744,7 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>8</v>
       </c>
       <c r="D18">
@@ -768,8 +764,8 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
-        <v>8.2</v>
+      <c r="C19" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -788,7 +784,7 @@
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>8</v>
       </c>
       <c r="D20">
@@ -808,8 +804,8 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21">
-        <v>8.3</v>
+      <c r="C21" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -828,7 +824,7 @@
       <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>8.4</v>
       </c>
       <c r="D22">
@@ -848,7 +844,7 @@
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>8.1</v>
       </c>
       <c r="D23">
@@ -868,7 +864,7 @@
       <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>8</v>
       </c>
       <c r="D24">
@@ -888,8 +884,8 @@
       <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C25">
-        <v>8.2</v>
+      <c r="C25" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -908,7 +904,7 @@
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>8</v>
       </c>
       <c r="D26">
@@ -928,8 +924,8 @@
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27">
-        <v>8.3</v>
+      <c r="C27" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -948,7 +944,7 @@
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>8.4</v>
       </c>
       <c r="D28">
@@ -968,7 +964,7 @@
       <c r="B29" t="s">
         <v>7</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>8.1</v>
       </c>
       <c r="D29">
@@ -988,7 +984,7 @@
       <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>8</v>
       </c>
       <c r="D30">
@@ -1008,8 +1004,8 @@
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31">
-        <v>8.2</v>
+      <c r="C31" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -1028,7 +1024,7 @@
       <c r="B32" t="s">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>8</v>
       </c>
       <c r="D32">
@@ -1048,8 +1044,8 @@
       <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33">
-        <v>8.3</v>
+      <c r="C33" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -1068,7 +1064,7 @@
       <c r="B34" t="s">
         <v>5</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>8.4</v>
       </c>
       <c r="D34">
@@ -1088,7 +1084,7 @@
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>8.1</v>
       </c>
       <c r="D35">
@@ -1108,7 +1104,7 @@
       <c r="B36" t="s">
         <v>9</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>8</v>
       </c>
       <c r="D36">
@@ -1128,8 +1124,8 @@
       <c r="B37" t="s">
         <v>11</v>
       </c>
-      <c r="C37">
-        <v>8.2</v>
+      <c r="C37" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -1148,7 +1144,7 @@
       <c r="B38" t="s">
         <v>1</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>8</v>
       </c>
       <c r="D38">
@@ -1168,8 +1164,8 @@
       <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C39">
-        <v>8.3</v>
+      <c r="C39" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -1188,7 +1184,7 @@
       <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>8.4</v>
       </c>
       <c r="D40">
@@ -1208,7 +1204,7 @@
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>8.1</v>
       </c>
       <c r="D41">
@@ -1228,7 +1224,7 @@
       <c r="B42" t="s">
         <v>9</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>8</v>
       </c>
       <c r="D42">
@@ -1248,8 +1244,8 @@
       <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="C43">
-        <v>8.2</v>
+      <c r="C43" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -1268,7 +1264,7 @@
       <c r="B44" t="s">
         <v>1</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>8</v>
       </c>
       <c r="D44">
@@ -1288,8 +1284,8 @@
       <c r="B45" t="s">
         <v>3</v>
       </c>
-      <c r="C45">
-        <v>8.3</v>
+      <c r="C45" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -1308,7 +1304,7 @@
       <c r="B46" t="s">
         <v>5</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>8.4</v>
       </c>
       <c r="D46">
@@ -1328,7 +1324,7 @@
       <c r="B47" t="s">
         <v>7</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>8.1</v>
       </c>
       <c r="D47">
@@ -1348,7 +1344,7 @@
       <c r="B48" t="s">
         <v>9</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>8</v>
       </c>
       <c r="D48">
@@ -1368,8 +1364,8 @@
       <c r="B49" t="s">
         <v>11</v>
       </c>
-      <c r="C49">
-        <v>8.2</v>
+      <c r="C49" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D49">
         <v>5</v>
@@ -1388,7 +1384,7 @@
       <c r="B50" t="s">
         <v>1</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>8</v>
       </c>
       <c r="D50">
@@ -1408,8 +1404,8 @@
       <c r="B51" t="s">
         <v>3</v>
       </c>
-      <c r="C51">
-        <v>8.3</v>
+      <c r="C51" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D51">
         <v>5</v>
@@ -1428,7 +1424,7 @@
       <c r="B52" t="s">
         <v>5</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>8.4</v>
       </c>
       <c r="D52">
@@ -1448,7 +1444,7 @@
       <c r="B53" t="s">
         <v>7</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>8.1</v>
       </c>
       <c r="D53">
@@ -1468,7 +1464,7 @@
       <c r="B54" t="s">
         <v>9</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>8</v>
       </c>
       <c r="D54">
@@ -1488,8 +1484,8 @@
       <c r="B55" t="s">
         <v>11</v>
       </c>
-      <c r="C55">
-        <v>8.2</v>
+      <c r="C55" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -1508,7 +1504,7 @@
       <c r="B56" t="s">
         <v>1</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>8</v>
       </c>
       <c r="D56">
@@ -1528,8 +1524,8 @@
       <c r="B57" t="s">
         <v>3</v>
       </c>
-      <c r="C57">
-        <v>8.3</v>
+      <c r="C57" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -1548,7 +1544,7 @@
       <c r="B58" t="s">
         <v>5</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>8.4</v>
       </c>
       <c r="D58">
@@ -1568,7 +1564,7 @@
       <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>8.1</v>
       </c>
       <c r="D59">
@@ -1588,7 +1584,7 @@
       <c r="B60" t="s">
         <v>9</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>8</v>
       </c>
       <c r="D60">
@@ -1608,8 +1604,8 @@
       <c r="B61" t="s">
         <v>11</v>
       </c>
-      <c r="C61">
-        <v>8.2</v>
+      <c r="C61" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D61">
         <v>5</v>
@@ -1628,7 +1624,7 @@
       <c r="B62" t="s">
         <v>18</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>8</v>
       </c>
       <c r="D62">
@@ -1648,7 +1644,7 @@
       <c r="B63" t="s">
         <v>1</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>8</v>
       </c>
       <c r="D63">
@@ -1668,8 +1664,8 @@
       <c r="B64" t="s">
         <v>3</v>
       </c>
-      <c r="C64">
-        <v>8.3</v>
+      <c r="C64" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D64">
         <v>5</v>
@@ -1688,7 +1684,7 @@
       <c r="B65" t="s">
         <v>5</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>8.4</v>
       </c>
       <c r="D65">
@@ -1708,7 +1704,7 @@
       <c r="B66" t="s">
         <v>7</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>8.1</v>
       </c>
       <c r="D66">
@@ -1728,7 +1724,7 @@
       <c r="B67" t="s">
         <v>9</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>8</v>
       </c>
       <c r="D67">
@@ -1748,8 +1744,8 @@
       <c r="B68" t="s">
         <v>11</v>
       </c>
-      <c r="C68">
-        <v>8.2</v>
+      <c r="C68" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -1768,7 +1764,7 @@
       <c r="B69" t="s">
         <v>1</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>8</v>
       </c>
       <c r="D69">
@@ -1788,8 +1784,8 @@
       <c r="B70" t="s">
         <v>3</v>
       </c>
-      <c r="C70">
-        <v>8.3</v>
+      <c r="C70" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D70">
         <v>5</v>
@@ -1808,7 +1804,7 @@
       <c r="B71" t="s">
         <v>5</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>8.4</v>
       </c>
       <c r="D71">
@@ -1828,7 +1824,7 @@
       <c r="B72" t="s">
         <v>7</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>8.1</v>
       </c>
       <c r="D72">
@@ -1848,7 +1844,7 @@
       <c r="B73" t="s">
         <v>9</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>8</v>
       </c>
       <c r="D73">
@@ -1868,8 +1864,8 @@
       <c r="B74" t="s">
         <v>11</v>
       </c>
-      <c r="C74">
-        <v>8.2</v>
+      <c r="C74" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -1888,7 +1884,7 @@
       <c r="B75" t="s">
         <v>18</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>8</v>
       </c>
       <c r="D75">
@@ -1908,7 +1904,7 @@
       <c r="B76" t="s">
         <v>1</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>8</v>
       </c>
       <c r="D76">
@@ -1928,8 +1924,8 @@
       <c r="B77" t="s">
         <v>3</v>
       </c>
-      <c r="C77">
-        <v>8.3</v>
+      <c r="C77" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -1948,7 +1944,7 @@
       <c r="B78" t="s">
         <v>5</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>8.4</v>
       </c>
       <c r="D78">
@@ -1968,7 +1964,7 @@
       <c r="B79" t="s">
         <v>7</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>8.1</v>
       </c>
       <c r="D79">
@@ -1988,7 +1984,7 @@
       <c r="B80" t="s">
         <v>9</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>8</v>
       </c>
       <c r="D80">
@@ -2008,8 +2004,8 @@
       <c r="B81" t="s">
         <v>11</v>
       </c>
-      <c r="C81">
-        <v>8.2</v>
+      <c r="C81" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -2028,7 +2024,7 @@
       <c r="B82" t="s">
         <v>1</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>8</v>
       </c>
       <c r="D82">
@@ -2048,8 +2044,8 @@
       <c r="B83" t="s">
         <v>3</v>
       </c>
-      <c r="C83">
-        <v>8.3</v>
+      <c r="C83" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -2068,7 +2064,7 @@
       <c r="B84" t="s">
         <v>5</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>8.4</v>
       </c>
       <c r="D84">
@@ -2088,7 +2084,7 @@
       <c r="B85" t="s">
         <v>7</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>8.1</v>
       </c>
       <c r="D85">
@@ -2108,7 +2104,7 @@
       <c r="B86" t="s">
         <v>9</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>8</v>
       </c>
       <c r="D86">
@@ -2128,8 +2124,8 @@
       <c r="B87" t="s">
         <v>11</v>
       </c>
-      <c r="C87">
-        <v>8.2</v>
+      <c r="C87" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -2148,7 +2144,7 @@
       <c r="B88" t="s">
         <v>18</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>8</v>
       </c>
       <c r="D88">
@@ -2168,7 +2164,7 @@
       <c r="B89" t="s">
         <v>1</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>8</v>
       </c>
       <c r="D89">
@@ -2188,8 +2184,8 @@
       <c r="B90" t="s">
         <v>3</v>
       </c>
-      <c r="C90">
-        <v>8.3</v>
+      <c r="C90" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -2208,7 +2204,7 @@
       <c r="B91" t="s">
         <v>5</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>8.4</v>
       </c>
       <c r="D91">
@@ -2228,7 +2224,7 @@
       <c r="B92" t="s">
         <v>7</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>8.1</v>
       </c>
       <c r="D92">
@@ -2248,7 +2244,7 @@
       <c r="B93" t="s">
         <v>9</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>8</v>
       </c>
       <c r="D93">
@@ -2268,8 +2264,8 @@
       <c r="B94" t="s">
         <v>11</v>
       </c>
-      <c r="C94">
-        <v>8.2</v>
+      <c r="C94" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -2288,7 +2284,7 @@
       <c r="B95" t="s">
         <v>1</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>8</v>
       </c>
       <c r="D95">
@@ -2308,8 +2304,8 @@
       <c r="B96" t="s">
         <v>3</v>
       </c>
-      <c r="C96">
-        <v>8.3</v>
+      <c r="C96" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -2328,7 +2324,7 @@
       <c r="B97" t="s">
         <v>5</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>8.4</v>
       </c>
       <c r="D97">
@@ -2348,7 +2344,7 @@
       <c r="B98" t="s">
         <v>7</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>8.1</v>
       </c>
       <c r="D98">
@@ -2368,7 +2364,7 @@
       <c r="B99" t="s">
         <v>9</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>8</v>
       </c>
       <c r="D99">
@@ -2388,8 +2384,8 @@
       <c r="B100" t="s">
         <v>11</v>
       </c>
-      <c r="C100">
-        <v>8.2</v>
+      <c r="C100" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -2408,7 +2404,7 @@
       <c r="B101" t="s">
         <v>1</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>8</v>
       </c>
       <c r="D101">
@@ -2428,8 +2424,8 @@
       <c r="B102" t="s">
         <v>3</v>
       </c>
-      <c r="C102">
-        <v>8.3</v>
+      <c r="C102" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -2448,7 +2444,7 @@
       <c r="B103" t="s">
         <v>5</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>8.4</v>
       </c>
       <c r="D103">
@@ -2468,7 +2464,7 @@
       <c r="B104" t="s">
         <v>7</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>8.1</v>
       </c>
       <c r="D104">
@@ -2488,7 +2484,7 @@
       <c r="B105" t="s">
         <v>9</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>8</v>
       </c>
       <c r="D105">
@@ -2508,8 +2504,8 @@
       <c r="B106" t="s">
         <v>11</v>
       </c>
-      <c r="C106">
-        <v>8.2</v>
+      <c r="C106" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -2528,7 +2524,7 @@
       <c r="B107" t="s">
         <v>5</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>8.4</v>
       </c>
       <c r="D107">
@@ -2548,7 +2544,7 @@
       <c r="B108" t="s">
         <v>7</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>8.1</v>
       </c>
       <c r="D108">
@@ -2568,7 +2564,7 @@
       <c r="B109" t="s">
         <v>9</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>8</v>
       </c>
       <c r="D109">
@@ -2588,8 +2584,8 @@
       <c r="B110" t="s">
         <v>11</v>
       </c>
-      <c r="C110">
-        <v>8.2</v>
+      <c r="C110" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D110">
         <v>5</v>
@@ -2608,7 +2604,7 @@
       <c r="B111" t="s">
         <v>1</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>8</v>
       </c>
       <c r="D111">
@@ -2628,8 +2624,8 @@
       <c r="B112" t="s">
         <v>3</v>
       </c>
-      <c r="C112">
-        <v>8.3</v>
+      <c r="C112" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D112">
         <v>5</v>
@@ -2648,7 +2644,7 @@
       <c r="B113" t="s">
         <v>5</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>8.4</v>
       </c>
       <c r="D113">
@@ -2668,7 +2664,7 @@
       <c r="B114" t="s">
         <v>7</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>8.1</v>
       </c>
       <c r="D114">
@@ -2688,7 +2684,7 @@
       <c r="B115" t="s">
         <v>9</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>8</v>
       </c>
       <c r="D115">
@@ -2708,8 +2704,8 @@
       <c r="B116" t="s">
         <v>11</v>
       </c>
-      <c r="C116">
-        <v>8.2</v>
+      <c r="C116" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D116">
         <v>5</v>
@@ -2728,7 +2724,7 @@
       <c r="B117" t="s">
         <v>5</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>8.4</v>
       </c>
       <c r="D117">
@@ -2748,7 +2744,7 @@
       <c r="B118" t="s">
         <v>7</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>8.1</v>
       </c>
       <c r="D118">
@@ -2768,7 +2764,7 @@
       <c r="B119" t="s">
         <v>9</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>8</v>
       </c>
       <c r="D119">
@@ -2788,8 +2784,8 @@
       <c r="B120" t="s">
         <v>11</v>
       </c>
-      <c r="C120">
-        <v>8.2</v>
+      <c r="C120" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D120">
         <v>5</v>
@@ -2808,7 +2804,7 @@
       <c r="B121" t="s">
         <v>1</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>8</v>
       </c>
       <c r="D121">
@@ -2828,8 +2824,8 @@
       <c r="B122" t="s">
         <v>3</v>
       </c>
-      <c r="C122">
-        <v>8.3</v>
+      <c r="C122" s="1">
+        <v>8.3000000000000007</v>
       </c>
       <c r="D122">
         <v>5</v>
@@ -2848,7 +2844,7 @@
       <c r="B123" t="s">
         <v>5</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>8.4</v>
       </c>
       <c r="D123">
@@ -2868,7 +2864,7 @@
       <c r="B124" t="s">
         <v>7</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>8.1</v>
       </c>
       <c r="D124">
@@ -2888,7 +2884,7 @@
       <c r="B125" t="s">
         <v>9</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>8</v>
       </c>
       <c r="D125">
@@ -2908,8 +2904,8 @@
       <c r="B126" t="s">
         <v>11</v>
       </c>
-      <c r="C126">
-        <v>8.2</v>
+      <c r="C126" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D126">
         <v>5</v>
@@ -2928,7 +2924,7 @@
       <c r="B127" t="s">
         <v>5</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>8.4</v>
       </c>
       <c r="D127">
@@ -2948,7 +2944,7 @@
       <c r="B128" t="s">
         <v>7</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>8.1</v>
       </c>
       <c r="D128">
@@ -2968,7 +2964,7 @@
       <c r="B129" t="s">
         <v>9</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>8</v>
       </c>
       <c r="D129">
@@ -2988,8 +2984,8 @@
       <c r="B130" t="s">
         <v>11</v>
       </c>
-      <c r="C130">
-        <v>8.2</v>
+      <c r="C130" s="1">
+        <v>8.1999999999999993</v>
       </c>
       <c r="D130">
         <v>5</v>
@@ -3001,18 +2997,1529 @@
         <v>0</v>
       </c>
     </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="1">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>5</v>
+      </c>
+      <c r="E131">
+        <v>8</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>7.3</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <v>7.2</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134">
+        <v>7.5</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="1">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>8</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>7.4</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+      <c r="E137">
+        <v>7.2</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <v>7.5</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="1">
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139">
+        <v>8</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>7.4</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1">
+        <v>8</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141">
+        <v>8</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>7.3</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+      <c r="E143">
+        <v>7.2</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+      <c r="E144">
+        <v>7.5</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="1">
+        <v>8</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>8</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D146">
+        <v>5</v>
+      </c>
+      <c r="E146">
+        <v>7.4</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D147">
+        <v>5</v>
+      </c>
+      <c r="E147">
+        <v>7.2</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D148">
+        <v>5</v>
+      </c>
+      <c r="E148">
+        <v>7.5</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="1">
+        <v>8</v>
+      </c>
+      <c r="D149">
+        <v>5</v>
+      </c>
+      <c r="E149">
+        <v>8</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D150">
+        <v>5</v>
+      </c>
+      <c r="E150">
+        <v>7.4</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1">
+        <v>8</v>
+      </c>
+      <c r="D151">
+        <v>5</v>
+      </c>
+      <c r="E151">
+        <v>8</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>7.3</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D153">
+        <v>5</v>
+      </c>
+      <c r="E153">
+        <v>7.2</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D154">
+        <v>5</v>
+      </c>
+      <c r="E154">
+        <v>7.5</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" s="1">
+        <v>8</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <v>8</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>7.4</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+      <c r="E157">
+        <v>7.2</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D158">
+        <v>5</v>
+      </c>
+      <c r="E158">
+        <v>7.5</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="1">
+        <v>8</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+      <c r="E159">
+        <v>8</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D160">
+        <v>5</v>
+      </c>
+      <c r="E160">
+        <v>7.3</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D161">
+        <v>5</v>
+      </c>
+      <c r="E161">
+        <v>7.2</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D162">
+        <v>5</v>
+      </c>
+      <c r="E162">
+        <v>7.5</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="1">
+        <v>8</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+      <c r="E163">
+        <v>8</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D164">
+        <v>5</v>
+      </c>
+      <c r="E164">
+        <v>7.4</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165">
+        <v>7.2</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D166">
+        <v>5</v>
+      </c>
+      <c r="E166">
+        <v>7.5</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1">
+        <v>8</v>
+      </c>
+      <c r="D167">
+        <v>5</v>
+      </c>
+      <c r="E167">
+        <v>8</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D168">
+        <v>5</v>
+      </c>
+      <c r="E168">
+        <v>7.3</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D169">
+        <v>5</v>
+      </c>
+      <c r="E169">
+        <v>7.2</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+      <c r="E170">
+        <v>7.5</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="1">
+        <v>8</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+      <c r="E171">
+        <v>8</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D172">
+        <v>5</v>
+      </c>
+      <c r="E172">
+        <v>7.4</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+      <c r="E173">
+        <v>7.2</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D174">
+        <v>5</v>
+      </c>
+      <c r="E174">
+        <v>7.5</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="1">
+        <v>8</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+      <c r="E175">
+        <v>8</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+      <c r="E176">
+        <v>7.3</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>7.2</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D178">
+        <v>5</v>
+      </c>
+      <c r="E178">
+        <v>7.5</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" s="1">
+        <v>8</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+      <c r="E179">
+        <v>8</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D180">
+        <v>5</v>
+      </c>
+      <c r="E180">
+        <v>7.4</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+      <c r="E181">
+        <v>7.2</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D182">
+        <v>5</v>
+      </c>
+      <c r="E182">
+        <v>7.5</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="1">
+        <v>8</v>
+      </c>
+      <c r="D183">
+        <v>5</v>
+      </c>
+      <c r="E183">
+        <v>8</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>2</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D184">
+        <v>5</v>
+      </c>
+      <c r="E184">
+        <v>7.3</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>4</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D185">
+        <v>5</v>
+      </c>
+      <c r="E185">
+        <v>7.2</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D186">
+        <v>5</v>
+      </c>
+      <c r="E186">
+        <v>7.5</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="1">
+        <v>8</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+      <c r="E187">
+        <v>8</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D188">
+        <v>5</v>
+      </c>
+      <c r="E188">
+        <v>7.4</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D189">
+        <v>5</v>
+      </c>
+      <c r="E189">
+        <v>7.2</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>15</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D190">
+        <v>5</v>
+      </c>
+      <c r="E190">
+        <v>7.5</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" s="1">
+        <v>8</v>
+      </c>
+      <c r="D191">
+        <v>5</v>
+      </c>
+      <c r="E191">
+        <v>8</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D192">
+        <v>5</v>
+      </c>
+      <c r="E192">
+        <v>7.3</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D193">
+        <v>5</v>
+      </c>
+      <c r="E193">
+        <v>7.2</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D194">
+        <v>5</v>
+      </c>
+      <c r="E194">
+        <v>7.5</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" s="1">
+        <v>8</v>
+      </c>
+      <c r="D195">
+        <v>5</v>
+      </c>
+      <c r="E195">
+        <v>8</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D196">
+        <v>5</v>
+      </c>
+      <c r="E196">
+        <v>7.4</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>14</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D197">
+        <v>5</v>
+      </c>
+      <c r="E197">
+        <v>7.2</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>15</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D198">
+        <v>5</v>
+      </c>
+      <c r="E198">
+        <v>7.5</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="1">
+        <v>8</v>
+      </c>
+      <c r="D199">
+        <v>5</v>
+      </c>
+      <c r="E199">
+        <v>8</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>2</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D200">
+        <v>5</v>
+      </c>
+      <c r="E200">
+        <v>7.3</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D201">
+        <v>5</v>
+      </c>
+      <c r="E201">
+        <v>7.2</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D202">
+        <v>5</v>
+      </c>
+      <c r="E202">
+        <v>7.5</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203" s="1">
+        <v>8</v>
+      </c>
+      <c r="D203">
+        <v>5</v>
+      </c>
+      <c r="E203">
+        <v>8</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D204">
+        <v>5</v>
+      </c>
+      <c r="E204">
+        <v>7.4</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>14</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D205">
+        <v>5</v>
+      </c>
+      <c r="E205">
+        <v>7.2</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D206">
+        <v>5</v>
+      </c>
+      <c r="E206">
+        <v>7.5</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="492" windowWidth="21756" windowHeight="7884"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Tr002</t>
   </si>
@@ -72,13 +73,36 @@
   <si>
     <t>2016-05-24</t>
   </si>
+  <si>
+    <t>2017-01-16</t>
+  </si>
+  <si>
+    <t>Tr014</t>
+  </si>
+  <si>
+    <t>Tr016</t>
+  </si>
+  <si>
+    <t>Tr020</t>
+  </si>
+  <si>
+    <t>Tr021</t>
+  </si>
+  <si>
+    <t>Tr022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -89,33 +113,34 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="2" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -405,16 +430,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F206"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.88671875" customWidth="true" style="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="true" style="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="true" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -427,10 +458,10 @@
       <c r="C2" s="1">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
         <v>8</v>
       </c>
       <c r="F2">
@@ -445,12 +476,12 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
+        <v>8.3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
         <v>7.3</v>
       </c>
       <c r="F3">
@@ -467,10 +498,10 @@
       <c r="C4" s="1">
         <v>8.4</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
         <v>7.2</v>
       </c>
       <c r="F4">
@@ -487,10 +518,10 @@
       <c r="C5" s="1">
         <v>8.1</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
         <v>7.5</v>
       </c>
       <c r="F5">
@@ -507,10 +538,10 @@
       <c r="C6" s="1">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
         <v>8</v>
       </c>
       <c r="F6">
@@ -525,12 +556,12 @@
         <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
+        <v>8.2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
         <v>7.4</v>
       </c>
       <c r="F7">
@@ -547,10 +578,10 @@
       <c r="C8" s="1">
         <v>8</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
         <v>8</v>
       </c>
       <c r="F8">
@@ -565,12 +596,12 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
+        <v>8.3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
         <v>7.3</v>
       </c>
       <c r="F9">
@@ -587,10 +618,10 @@
       <c r="C10" s="1">
         <v>8.4</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
         <v>7.2</v>
       </c>
       <c r="F10">
@@ -607,10 +638,10 @@
       <c r="C11" s="1">
         <v>8.1</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
         <v>7.5</v>
       </c>
       <c r="F11">
@@ -627,10 +658,10 @@
       <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
         <v>8</v>
       </c>
       <c r="F12">
@@ -645,12 +676,12 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
+        <v>8.2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
         <v>7.4</v>
       </c>
       <c r="F13">
@@ -667,10 +698,10 @@
       <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
         <v>8</v>
       </c>
       <c r="F14">
@@ -685,12 +716,12 @@
         <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
+        <v>8.3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
         <v>7.3</v>
       </c>
       <c r="F15">
@@ -707,10 +738,10 @@
       <c r="C16" s="1">
         <v>8.4</v>
       </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
         <v>7.2</v>
       </c>
       <c r="F16">
@@ -727,10 +758,10 @@
       <c r="C17" s="1">
         <v>8.1</v>
       </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
         <v>7.5</v>
       </c>
       <c r="F17">
@@ -747,10 +778,10 @@
       <c r="C18" s="1">
         <v>8</v>
       </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
         <v>8</v>
       </c>
       <c r="F18">
@@ -765,12 +796,12 @@
         <v>11</v>
       </c>
       <c r="C19" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
+        <v>8.2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
         <v>7.4</v>
       </c>
       <c r="F19">
@@ -787,10 +818,10 @@
       <c r="C20" s="1">
         <v>8</v>
       </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
         <v>8</v>
       </c>
       <c r="F20">
@@ -805,12 +836,12 @@
         <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21">
+        <v>8.3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
         <v>7.3</v>
       </c>
       <c r="F21">
@@ -827,10 +858,10 @@
       <c r="C22" s="1">
         <v>8.4</v>
       </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
         <v>7.2</v>
       </c>
       <c r="F22">
@@ -847,10 +878,10 @@
       <c r="C23" s="1">
         <v>8.1</v>
       </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
         <v>7.5</v>
       </c>
       <c r="F23">
@@ -867,10 +898,10 @@
       <c r="C24" s="1">
         <v>8</v>
       </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
         <v>8</v>
       </c>
       <c r="F24">
@@ -885,12 +916,12 @@
         <v>11</v>
       </c>
       <c r="C25" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
+        <v>8.2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
         <v>7.4</v>
       </c>
       <c r="F25">
@@ -907,10 +938,10 @@
       <c r="C26" s="1">
         <v>8</v>
       </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
         <v>8</v>
       </c>
       <c r="F26">
@@ -925,12 +956,12 @@
         <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27">
+        <v>8.3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
         <v>7.3</v>
       </c>
       <c r="F27">
@@ -947,10 +978,10 @@
       <c r="C28" s="1">
         <v>8.4</v>
       </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
         <v>7.2</v>
       </c>
       <c r="F28">
@@ -967,10 +998,10 @@
       <c r="C29" s="1">
         <v>8.1</v>
       </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
         <v>7.5</v>
       </c>
       <c r="F29">
@@ -987,10 +1018,10 @@
       <c r="C30" s="1">
         <v>8</v>
       </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1">
         <v>8</v>
       </c>
       <c r="F30">
@@ -1005,12 +1036,12 @@
         <v>11</v>
       </c>
       <c r="C31" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31">
+        <v>8.2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
         <v>7.4</v>
       </c>
       <c r="F31">
@@ -1027,10 +1058,10 @@
       <c r="C32" s="1">
         <v>8</v>
       </c>
-      <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
         <v>8</v>
       </c>
       <c r="F32">
@@ -1045,12 +1076,12 @@
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33">
+        <v>8.3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1">
         <v>7.3</v>
       </c>
       <c r="F33">
@@ -1067,10 +1098,10 @@
       <c r="C34" s="1">
         <v>8.4</v>
       </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
         <v>7.2</v>
       </c>
       <c r="F34">
@@ -1087,10 +1118,10 @@
       <c r="C35" s="1">
         <v>8.1</v>
       </c>
-      <c r="D35">
-        <v>5</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="1">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1">
         <v>7.5</v>
       </c>
       <c r="F35">
@@ -1107,10 +1138,10 @@
       <c r="C36" s="1">
         <v>8</v>
       </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1">
         <v>8</v>
       </c>
       <c r="F36">
@@ -1125,12 +1156,12 @@
         <v>11</v>
       </c>
       <c r="C37" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37">
+        <v>8.2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1">
         <v>7.4</v>
       </c>
       <c r="F37">
@@ -1147,10 +1178,10 @@
       <c r="C38" s="1">
         <v>8</v>
       </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="1">
+        <v>5</v>
+      </c>
+      <c r="E38" s="1">
         <v>8</v>
       </c>
       <c r="F38">
@@ -1165,12 +1196,12 @@
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D39">
-        <v>5</v>
-      </c>
-      <c r="E39">
+        <v>8.3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1">
         <v>7.3</v>
       </c>
       <c r="F39">
@@ -1187,10 +1218,10 @@
       <c r="C40" s="1">
         <v>8.4</v>
       </c>
-      <c r="D40">
-        <v>5</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1">
         <v>7.2</v>
       </c>
       <c r="F40">
@@ -1207,10 +1238,10 @@
       <c r="C41" s="1">
         <v>8.1</v>
       </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1">
         <v>7.5</v>
       </c>
       <c r="F41">
@@ -1227,10 +1258,10 @@
       <c r="C42" s="1">
         <v>8</v>
       </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-      <c r="E42">
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
         <v>8</v>
       </c>
       <c r="F42">
@@ -1245,12 +1276,12 @@
         <v>11</v>
       </c>
       <c r="C43" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43">
+        <v>8.2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1">
         <v>7.4</v>
       </c>
       <c r="F43">
@@ -1267,10 +1298,10 @@
       <c r="C44" s="1">
         <v>8</v>
       </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="1">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1">
         <v>8</v>
       </c>
       <c r="F44">
@@ -1285,12 +1316,12 @@
         <v>3</v>
       </c>
       <c r="C45" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45">
+        <v>8.3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1">
         <v>7.3</v>
       </c>
       <c r="F45">
@@ -1307,10 +1338,10 @@
       <c r="C46" s="1">
         <v>8.4</v>
       </c>
-      <c r="D46">
-        <v>5</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1">
         <v>7.2</v>
       </c>
       <c r="F46">
@@ -1327,10 +1358,10 @@
       <c r="C47" s="1">
         <v>8.1</v>
       </c>
-      <c r="D47">
-        <v>5</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="1">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1">
         <v>7.5</v>
       </c>
       <c r="F47">
@@ -1347,10 +1378,10 @@
       <c r="C48" s="1">
         <v>8</v>
       </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="1">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1">
         <v>8</v>
       </c>
       <c r="F48">
@@ -1365,12 +1396,12 @@
         <v>11</v>
       </c>
       <c r="C49" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D49">
-        <v>5</v>
-      </c>
-      <c r="E49">
+        <v>8.2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1">
         <v>7.4</v>
       </c>
       <c r="F49">
@@ -1387,10 +1418,10 @@
       <c r="C50" s="1">
         <v>8</v>
       </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1">
         <v>8</v>
       </c>
       <c r="F50">
@@ -1405,12 +1436,12 @@
         <v>3</v>
       </c>
       <c r="C51" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51">
+        <v>8.3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1">
         <v>7.3</v>
       </c>
       <c r="F51">
@@ -1427,10 +1458,10 @@
       <c r="C52" s="1">
         <v>8.4</v>
       </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-      <c r="E52">
+      <c r="D52" s="1">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1">
         <v>7.2</v>
       </c>
       <c r="F52">
@@ -1447,10 +1478,10 @@
       <c r="C53" s="1">
         <v>8.1</v>
       </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="1">
+        <v>5</v>
+      </c>
+      <c r="E53" s="1">
         <v>7.5</v>
       </c>
       <c r="F53">
@@ -1467,10 +1498,10 @@
       <c r="C54" s="1">
         <v>8</v>
       </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="1">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1">
         <v>8</v>
       </c>
       <c r="F54">
@@ -1485,12 +1516,12 @@
         <v>11</v>
       </c>
       <c r="C55" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55">
+        <v>8.2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1">
         <v>7.4</v>
       </c>
       <c r="F55">
@@ -1507,10 +1538,10 @@
       <c r="C56" s="1">
         <v>8</v>
       </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="E56">
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1">
         <v>8</v>
       </c>
       <c r="F56">
@@ -1525,12 +1556,12 @@
         <v>3</v>
       </c>
       <c r="C57" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D57">
-        <v>5</v>
-      </c>
-      <c r="E57">
+        <v>8.3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1">
         <v>7.3</v>
       </c>
       <c r="F57">
@@ -1547,10 +1578,10 @@
       <c r="C58" s="1">
         <v>8.4</v>
       </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-      <c r="E58">
+      <c r="D58" s="1">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1">
         <v>7.2</v>
       </c>
       <c r="F58">
@@ -1567,10 +1598,10 @@
       <c r="C59" s="1">
         <v>8.1</v>
       </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="1">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1">
         <v>7.5</v>
       </c>
       <c r="F59">
@@ -1587,10 +1618,10 @@
       <c r="C60" s="1">
         <v>8</v>
       </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="1">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1">
         <v>8</v>
       </c>
       <c r="F60">
@@ -1605,12 +1636,12 @@
         <v>11</v>
       </c>
       <c r="C61" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D61">
-        <v>5</v>
-      </c>
-      <c r="E61">
+        <v>8.2</v>
+      </c>
+      <c r="D61" s="1">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1">
         <v>7.4</v>
       </c>
       <c r="F61">
@@ -1627,10 +1658,10 @@
       <c r="C62" s="1">
         <v>8</v>
       </c>
-      <c r="D62">
-        <v>5</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="1">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1">
         <v>8</v>
       </c>
       <c r="F62">
@@ -1647,10 +1678,10 @@
       <c r="C63" s="1">
         <v>8</v>
       </c>
-      <c r="D63">
-        <v>5</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="1">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1">
         <v>8</v>
       </c>
       <c r="F63">
@@ -1665,12 +1696,12 @@
         <v>3</v>
       </c>
       <c r="C64" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D64">
-        <v>5</v>
-      </c>
-      <c r="E64">
+        <v>8.3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
         <v>7.3</v>
       </c>
       <c r="F64">
@@ -1687,10 +1718,10 @@
       <c r="C65" s="1">
         <v>8.4</v>
       </c>
-      <c r="D65">
-        <v>5</v>
-      </c>
-      <c r="E65">
+      <c r="D65" s="1">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1">
         <v>7.2</v>
       </c>
       <c r="F65">
@@ -1707,10 +1738,10 @@
       <c r="C66" s="1">
         <v>8.1</v>
       </c>
-      <c r="D66">
-        <v>5</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="1">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1">
         <v>7.5</v>
       </c>
       <c r="F66">
@@ -1727,10 +1758,10 @@
       <c r="C67" s="1">
         <v>8</v>
       </c>
-      <c r="D67">
-        <v>5</v>
-      </c>
-      <c r="E67">
+      <c r="D67" s="1">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1">
         <v>8</v>
       </c>
       <c r="F67">
@@ -1745,12 +1776,12 @@
         <v>11</v>
       </c>
       <c r="C68" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D68">
-        <v>5</v>
-      </c>
-      <c r="E68">
+        <v>8.2</v>
+      </c>
+      <c r="D68" s="1">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1">
         <v>7.4</v>
       </c>
       <c r="F68">
@@ -1767,10 +1798,10 @@
       <c r="C69" s="1">
         <v>8</v>
       </c>
-      <c r="D69">
-        <v>5</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="1">
+        <v>5</v>
+      </c>
+      <c r="E69" s="1">
         <v>8</v>
       </c>
       <c r="F69">
@@ -1785,12 +1816,12 @@
         <v>3</v>
       </c>
       <c r="C70" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D70">
-        <v>5</v>
-      </c>
-      <c r="E70">
+        <v>8.3</v>
+      </c>
+      <c r="D70" s="1">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1">
         <v>7.3</v>
       </c>
       <c r="F70">
@@ -1807,10 +1838,10 @@
       <c r="C71" s="1">
         <v>8.4</v>
       </c>
-      <c r="D71">
-        <v>5</v>
-      </c>
-      <c r="E71">
+      <c r="D71" s="1">
+        <v>5</v>
+      </c>
+      <c r="E71" s="1">
         <v>7.2</v>
       </c>
       <c r="F71">
@@ -1827,10 +1858,10 @@
       <c r="C72" s="1">
         <v>8.1</v>
       </c>
-      <c r="D72">
-        <v>5</v>
-      </c>
-      <c r="E72">
+      <c r="D72" s="1">
+        <v>5</v>
+      </c>
+      <c r="E72" s="1">
         <v>7.5</v>
       </c>
       <c r="F72">
@@ -1847,10 +1878,10 @@
       <c r="C73" s="1">
         <v>8</v>
       </c>
-      <c r="D73">
-        <v>5</v>
-      </c>
-      <c r="E73">
+      <c r="D73" s="1">
+        <v>5</v>
+      </c>
+      <c r="E73" s="1">
         <v>8</v>
       </c>
       <c r="F73">
@@ -1865,12 +1896,12 @@
         <v>11</v>
       </c>
       <c r="C74" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D74">
-        <v>5</v>
-      </c>
-      <c r="E74">
+        <v>8.2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>5</v>
+      </c>
+      <c r="E74" s="1">
         <v>7.4</v>
       </c>
       <c r="F74">
@@ -1887,10 +1918,10 @@
       <c r="C75" s="1">
         <v>8</v>
       </c>
-      <c r="D75">
-        <v>5</v>
-      </c>
-      <c r="E75">
+      <c r="D75" s="1">
+        <v>5</v>
+      </c>
+      <c r="E75" s="1">
         <v>8</v>
       </c>
       <c r="F75">
@@ -1907,10 +1938,10 @@
       <c r="C76" s="1">
         <v>8</v>
       </c>
-      <c r="D76">
-        <v>5</v>
-      </c>
-      <c r="E76">
+      <c r="D76" s="1">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1">
         <v>8</v>
       </c>
       <c r="F76">
@@ -1925,12 +1956,12 @@
         <v>3</v>
       </c>
       <c r="C77" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
-      <c r="E77">
+        <v>8.3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>5</v>
+      </c>
+      <c r="E77" s="1">
         <v>7.3</v>
       </c>
       <c r="F77">
@@ -1947,10 +1978,10 @@
       <c r="C78" s="1">
         <v>8.4</v>
       </c>
-      <c r="D78">
-        <v>5</v>
-      </c>
-      <c r="E78">
+      <c r="D78" s="1">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1">
         <v>7.2</v>
       </c>
       <c r="F78">
@@ -1967,10 +1998,10 @@
       <c r="C79" s="1">
         <v>8.1</v>
       </c>
-      <c r="D79">
-        <v>5</v>
-      </c>
-      <c r="E79">
+      <c r="D79" s="1">
+        <v>5</v>
+      </c>
+      <c r="E79" s="1">
         <v>7.5</v>
       </c>
       <c r="F79">
@@ -1987,10 +2018,10 @@
       <c r="C80" s="1">
         <v>8</v>
       </c>
-      <c r="D80">
-        <v>5</v>
-      </c>
-      <c r="E80">
+      <c r="D80" s="1">
+        <v>5</v>
+      </c>
+      <c r="E80" s="1">
         <v>8</v>
       </c>
       <c r="F80">
@@ -2005,12 +2036,12 @@
         <v>11</v>
       </c>
       <c r="C81" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D81">
-        <v>5</v>
-      </c>
-      <c r="E81">
+        <v>8.2</v>
+      </c>
+      <c r="D81" s="1">
+        <v>5</v>
+      </c>
+      <c r="E81" s="1">
         <v>7.4</v>
       </c>
       <c r="F81">
@@ -2027,10 +2058,10 @@
       <c r="C82" s="1">
         <v>8</v>
       </c>
-      <c r="D82">
-        <v>5</v>
-      </c>
-      <c r="E82">
+      <c r="D82" s="1">
+        <v>5</v>
+      </c>
+      <c r="E82" s="1">
         <v>8</v>
       </c>
       <c r="F82">
@@ -2045,12 +2076,12 @@
         <v>3</v>
       </c>
       <c r="C83" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D83">
-        <v>5</v>
-      </c>
-      <c r="E83">
+        <v>8.3</v>
+      </c>
+      <c r="D83" s="1">
+        <v>5</v>
+      </c>
+      <c r="E83" s="1">
         <v>7.3</v>
       </c>
       <c r="F83">
@@ -2067,10 +2098,10 @@
       <c r="C84" s="1">
         <v>8.4</v>
       </c>
-      <c r="D84">
-        <v>5</v>
-      </c>
-      <c r="E84">
+      <c r="D84" s="1">
+        <v>5</v>
+      </c>
+      <c r="E84" s="1">
         <v>7.2</v>
       </c>
       <c r="F84">
@@ -2087,10 +2118,10 @@
       <c r="C85" s="1">
         <v>8.1</v>
       </c>
-      <c r="D85">
-        <v>5</v>
-      </c>
-      <c r="E85">
+      <c r="D85" s="1">
+        <v>5</v>
+      </c>
+      <c r="E85" s="1">
         <v>7.5</v>
       </c>
       <c r="F85">
@@ -2107,10 +2138,10 @@
       <c r="C86" s="1">
         <v>8</v>
       </c>
-      <c r="D86">
-        <v>5</v>
-      </c>
-      <c r="E86">
+      <c r="D86" s="1">
+        <v>5</v>
+      </c>
+      <c r="E86" s="1">
         <v>8</v>
       </c>
       <c r="F86">
@@ -2125,12 +2156,12 @@
         <v>11</v>
       </c>
       <c r="C87" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D87">
-        <v>5</v>
-      </c>
-      <c r="E87">
+        <v>8.2</v>
+      </c>
+      <c r="D87" s="1">
+        <v>5</v>
+      </c>
+      <c r="E87" s="1">
         <v>7.4</v>
       </c>
       <c r="F87">
@@ -2147,10 +2178,10 @@
       <c r="C88" s="1">
         <v>8</v>
       </c>
-      <c r="D88">
-        <v>5</v>
-      </c>
-      <c r="E88">
+      <c r="D88" s="1">
+        <v>5</v>
+      </c>
+      <c r="E88" s="1">
         <v>8</v>
       </c>
       <c r="F88">
@@ -2167,10 +2198,10 @@
       <c r="C89" s="1">
         <v>8</v>
       </c>
-      <c r="D89">
-        <v>5</v>
-      </c>
-      <c r="E89">
+      <c r="D89" s="1">
+        <v>5</v>
+      </c>
+      <c r="E89" s="1">
         <v>8</v>
       </c>
       <c r="F89">
@@ -2185,12 +2216,12 @@
         <v>3</v>
       </c>
       <c r="C90" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D90">
-        <v>5</v>
-      </c>
-      <c r="E90">
+        <v>8.3</v>
+      </c>
+      <c r="D90" s="1">
+        <v>5</v>
+      </c>
+      <c r="E90" s="1">
         <v>7.3</v>
       </c>
       <c r="F90">
@@ -2207,10 +2238,10 @@
       <c r="C91" s="1">
         <v>8.4</v>
       </c>
-      <c r="D91">
-        <v>5</v>
-      </c>
-      <c r="E91">
+      <c r="D91" s="1">
+        <v>5</v>
+      </c>
+      <c r="E91" s="1">
         <v>7.2</v>
       </c>
       <c r="F91">
@@ -2227,10 +2258,10 @@
       <c r="C92" s="1">
         <v>8.1</v>
       </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92">
+      <c r="D92" s="1">
+        <v>5</v>
+      </c>
+      <c r="E92" s="1">
         <v>7.5</v>
       </c>
       <c r="F92">
@@ -2247,10 +2278,10 @@
       <c r="C93" s="1">
         <v>8</v>
       </c>
-      <c r="D93">
-        <v>5</v>
-      </c>
-      <c r="E93">
+      <c r="D93" s="1">
+        <v>5</v>
+      </c>
+      <c r="E93" s="1">
         <v>8</v>
       </c>
       <c r="F93">
@@ -2265,12 +2296,12 @@
         <v>11</v>
       </c>
       <c r="C94" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D94">
-        <v>5</v>
-      </c>
-      <c r="E94">
+        <v>8.2</v>
+      </c>
+      <c r="D94" s="1">
+        <v>5</v>
+      </c>
+      <c r="E94" s="1">
         <v>7.4</v>
       </c>
       <c r="F94">
@@ -2287,10 +2318,10 @@
       <c r="C95" s="1">
         <v>8</v>
       </c>
-      <c r="D95">
-        <v>5</v>
-      </c>
-      <c r="E95">
+      <c r="D95" s="1">
+        <v>5</v>
+      </c>
+      <c r="E95" s="1">
         <v>8</v>
       </c>
       <c r="F95">
@@ -2305,12 +2336,12 @@
         <v>3</v>
       </c>
       <c r="C96" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D96">
-        <v>5</v>
-      </c>
-      <c r="E96">
+        <v>8.3</v>
+      </c>
+      <c r="D96" s="1">
+        <v>5</v>
+      </c>
+      <c r="E96" s="1">
         <v>7.3</v>
       </c>
       <c r="F96">
@@ -2327,10 +2358,10 @@
       <c r="C97" s="1">
         <v>8.4</v>
       </c>
-      <c r="D97">
-        <v>5</v>
-      </c>
-      <c r="E97">
+      <c r="D97" s="1">
+        <v>5</v>
+      </c>
+      <c r="E97" s="1">
         <v>7.2</v>
       </c>
       <c r="F97">
@@ -2347,10 +2378,10 @@
       <c r="C98" s="1">
         <v>8.1</v>
       </c>
-      <c r="D98">
-        <v>5</v>
-      </c>
-      <c r="E98">
+      <c r="D98" s="1">
+        <v>5</v>
+      </c>
+      <c r="E98" s="1">
         <v>7.5</v>
       </c>
       <c r="F98">
@@ -2367,10 +2398,10 @@
       <c r="C99" s="1">
         <v>8</v>
       </c>
-      <c r="D99">
-        <v>5</v>
-      </c>
-      <c r="E99">
+      <c r="D99" s="1">
+        <v>5</v>
+      </c>
+      <c r="E99" s="1">
         <v>8</v>
       </c>
       <c r="F99">
@@ -2385,12 +2416,12 @@
         <v>11</v>
       </c>
       <c r="C100" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D100">
-        <v>5</v>
-      </c>
-      <c r="E100">
+        <v>8.2</v>
+      </c>
+      <c r="D100" s="1">
+        <v>5</v>
+      </c>
+      <c r="E100" s="1">
         <v>7.4</v>
       </c>
       <c r="F100">
@@ -2407,10 +2438,10 @@
       <c r="C101" s="1">
         <v>8</v>
       </c>
-      <c r="D101">
-        <v>5</v>
-      </c>
-      <c r="E101">
+      <c r="D101" s="1">
+        <v>5</v>
+      </c>
+      <c r="E101" s="1">
         <v>8</v>
       </c>
       <c r="F101">
@@ -2425,12 +2456,12 @@
         <v>3</v>
       </c>
       <c r="C102" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D102">
-        <v>5</v>
-      </c>
-      <c r="E102">
+        <v>8.3</v>
+      </c>
+      <c r="D102" s="1">
+        <v>5</v>
+      </c>
+      <c r="E102" s="1">
         <v>7.3</v>
       </c>
       <c r="F102">
@@ -2447,10 +2478,10 @@
       <c r="C103" s="1">
         <v>8.4</v>
       </c>
-      <c r="D103">
-        <v>5</v>
-      </c>
-      <c r="E103">
+      <c r="D103" s="1">
+        <v>5</v>
+      </c>
+      <c r="E103" s="1">
         <v>7.2</v>
       </c>
       <c r="F103">
@@ -2467,10 +2498,10 @@
       <c r="C104" s="1">
         <v>8.1</v>
       </c>
-      <c r="D104">
-        <v>5</v>
-      </c>
-      <c r="E104">
+      <c r="D104" s="1">
+        <v>5</v>
+      </c>
+      <c r="E104" s="1">
         <v>7.5</v>
       </c>
       <c r="F104">
@@ -2487,10 +2518,10 @@
       <c r="C105" s="1">
         <v>8</v>
       </c>
-      <c r="D105">
-        <v>5</v>
-      </c>
-      <c r="E105">
+      <c r="D105" s="1">
+        <v>5</v>
+      </c>
+      <c r="E105" s="1">
         <v>8</v>
       </c>
       <c r="F105">
@@ -2505,12 +2536,12 @@
         <v>11</v>
       </c>
       <c r="C106" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D106">
-        <v>5</v>
-      </c>
-      <c r="E106">
+        <v>8.2</v>
+      </c>
+      <c r="D106" s="1">
+        <v>5</v>
+      </c>
+      <c r="E106" s="1">
         <v>7.4</v>
       </c>
       <c r="F106">
@@ -2527,10 +2558,10 @@
       <c r="C107" s="1">
         <v>8.4</v>
       </c>
-      <c r="D107">
-        <v>5</v>
-      </c>
-      <c r="E107">
+      <c r="D107" s="1">
+        <v>5</v>
+      </c>
+      <c r="E107" s="1">
         <v>7.2</v>
       </c>
       <c r="F107">
@@ -2547,10 +2578,10 @@
       <c r="C108" s="1">
         <v>8.1</v>
       </c>
-      <c r="D108">
-        <v>5</v>
-      </c>
-      <c r="E108">
+      <c r="D108" s="1">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1">
         <v>7.5</v>
       </c>
       <c r="F108">
@@ -2567,10 +2598,10 @@
       <c r="C109" s="1">
         <v>8</v>
       </c>
-      <c r="D109">
-        <v>5</v>
-      </c>
-      <c r="E109">
+      <c r="D109" s="1">
+        <v>5</v>
+      </c>
+      <c r="E109" s="1">
         <v>8</v>
       </c>
       <c r="F109">
@@ -2585,12 +2616,12 @@
         <v>11</v>
       </c>
       <c r="C110" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D110">
-        <v>5</v>
-      </c>
-      <c r="E110">
+        <v>8.2</v>
+      </c>
+      <c r="D110" s="1">
+        <v>5</v>
+      </c>
+      <c r="E110" s="1">
         <v>7.4</v>
       </c>
       <c r="F110">
@@ -2607,10 +2638,10 @@
       <c r="C111" s="1">
         <v>8</v>
       </c>
-      <c r="D111">
-        <v>5</v>
-      </c>
-      <c r="E111">
+      <c r="D111" s="1">
+        <v>5</v>
+      </c>
+      <c r="E111" s="1">
         <v>8</v>
       </c>
       <c r="F111">
@@ -2625,12 +2656,12 @@
         <v>3</v>
       </c>
       <c r="C112" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D112">
-        <v>5</v>
-      </c>
-      <c r="E112">
+        <v>8.3</v>
+      </c>
+      <c r="D112" s="1">
+        <v>5</v>
+      </c>
+      <c r="E112" s="1">
         <v>7.3</v>
       </c>
       <c r="F112">
@@ -2647,10 +2678,10 @@
       <c r="C113" s="1">
         <v>8.4</v>
       </c>
-      <c r="D113">
-        <v>5</v>
-      </c>
-      <c r="E113">
+      <c r="D113" s="1">
+        <v>5</v>
+      </c>
+      <c r="E113" s="1">
         <v>7.2</v>
       </c>
       <c r="F113">
@@ -2667,10 +2698,10 @@
       <c r="C114" s="1">
         <v>8.1</v>
       </c>
-      <c r="D114">
-        <v>5</v>
-      </c>
-      <c r="E114">
+      <c r="D114" s="1">
+        <v>5</v>
+      </c>
+      <c r="E114" s="1">
         <v>7.5</v>
       </c>
       <c r="F114">
@@ -2687,10 +2718,10 @@
       <c r="C115" s="1">
         <v>8</v>
       </c>
-      <c r="D115">
-        <v>5</v>
-      </c>
-      <c r="E115">
+      <c r="D115" s="1">
+        <v>5</v>
+      </c>
+      <c r="E115" s="1">
         <v>8</v>
       </c>
       <c r="F115">
@@ -2705,12 +2736,12 @@
         <v>11</v>
       </c>
       <c r="C116" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D116">
-        <v>5</v>
-      </c>
-      <c r="E116">
+        <v>8.2</v>
+      </c>
+      <c r="D116" s="1">
+        <v>5</v>
+      </c>
+      <c r="E116" s="1">
         <v>7.4</v>
       </c>
       <c r="F116">
@@ -2727,10 +2758,10 @@
       <c r="C117" s="1">
         <v>8.4</v>
       </c>
-      <c r="D117">
-        <v>5</v>
-      </c>
-      <c r="E117">
+      <c r="D117" s="1">
+        <v>5</v>
+      </c>
+      <c r="E117" s="1">
         <v>7.2</v>
       </c>
       <c r="F117">
@@ -2747,10 +2778,10 @@
       <c r="C118" s="1">
         <v>8.1</v>
       </c>
-      <c r="D118">
-        <v>5</v>
-      </c>
-      <c r="E118">
+      <c r="D118" s="1">
+        <v>5</v>
+      </c>
+      <c r="E118" s="1">
         <v>7.5</v>
       </c>
       <c r="F118">
@@ -2767,10 +2798,10 @@
       <c r="C119" s="1">
         <v>8</v>
       </c>
-      <c r="D119">
-        <v>5</v>
-      </c>
-      <c r="E119">
+      <c r="D119" s="1">
+        <v>5</v>
+      </c>
+      <c r="E119" s="1">
         <v>8</v>
       </c>
       <c r="F119">
@@ -2785,12 +2816,12 @@
         <v>11</v>
       </c>
       <c r="C120" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D120">
-        <v>5</v>
-      </c>
-      <c r="E120">
+        <v>8.2</v>
+      </c>
+      <c r="D120" s="1">
+        <v>5</v>
+      </c>
+      <c r="E120" s="1">
         <v>7.4</v>
       </c>
       <c r="F120">
@@ -2807,10 +2838,10 @@
       <c r="C121" s="1">
         <v>8</v>
       </c>
-      <c r="D121">
-        <v>5</v>
-      </c>
-      <c r="E121">
+      <c r="D121" s="1">
+        <v>5</v>
+      </c>
+      <c r="E121" s="1">
         <v>8</v>
       </c>
       <c r="F121">
@@ -2825,12 +2856,12 @@
         <v>3</v>
       </c>
       <c r="C122" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D122">
-        <v>5</v>
-      </c>
-      <c r="E122">
+        <v>8.3</v>
+      </c>
+      <c r="D122" s="1">
+        <v>5</v>
+      </c>
+      <c r="E122" s="1">
         <v>7.3</v>
       </c>
       <c r="F122">
@@ -2847,10 +2878,10 @@
       <c r="C123" s="1">
         <v>8.4</v>
       </c>
-      <c r="D123">
-        <v>5</v>
-      </c>
-      <c r="E123">
+      <c r="D123" s="1">
+        <v>5</v>
+      </c>
+      <c r="E123" s="1">
         <v>7.2</v>
       </c>
       <c r="F123">
@@ -2867,10 +2898,10 @@
       <c r="C124" s="1">
         <v>8.1</v>
       </c>
-      <c r="D124">
-        <v>5</v>
-      </c>
-      <c r="E124">
+      <c r="D124" s="1">
+        <v>5</v>
+      </c>
+      <c r="E124" s="1">
         <v>7.5</v>
       </c>
       <c r="F124">
@@ -2887,10 +2918,10 @@
       <c r="C125" s="1">
         <v>8</v>
       </c>
-      <c r="D125">
-        <v>5</v>
-      </c>
-      <c r="E125">
+      <c r="D125" s="1">
+        <v>5</v>
+      </c>
+      <c r="E125" s="1">
         <v>8</v>
       </c>
       <c r="F125">
@@ -2905,12 +2936,12 @@
         <v>11</v>
       </c>
       <c r="C126" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D126">
-        <v>5</v>
-      </c>
-      <c r="E126">
+        <v>8.2</v>
+      </c>
+      <c r="D126" s="1">
+        <v>5</v>
+      </c>
+      <c r="E126" s="1">
         <v>7.4</v>
       </c>
       <c r="F126">
@@ -2927,10 +2958,10 @@
       <c r="C127" s="1">
         <v>8.4</v>
       </c>
-      <c r="D127">
-        <v>5</v>
-      </c>
-      <c r="E127">
+      <c r="D127" s="1">
+        <v>5</v>
+      </c>
+      <c r="E127" s="1">
         <v>7.2</v>
       </c>
       <c r="F127">
@@ -2947,10 +2978,10 @@
       <c r="C128" s="1">
         <v>8.1</v>
       </c>
-      <c r="D128">
-        <v>5</v>
-      </c>
-      <c r="E128">
+      <c r="D128" s="1">
+        <v>5</v>
+      </c>
+      <c r="E128" s="1">
         <v>7.5</v>
       </c>
       <c r="F128">
@@ -2967,10 +2998,10 @@
       <c r="C129" s="1">
         <v>8</v>
       </c>
-      <c r="D129">
-        <v>5</v>
-      </c>
-      <c r="E129">
+      <c r="D129" s="1">
+        <v>5</v>
+      </c>
+      <c r="E129" s="1">
         <v>8</v>
       </c>
       <c r="F129">
@@ -2985,12 +3016,12 @@
         <v>11</v>
       </c>
       <c r="C130" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D130">
-        <v>5</v>
-      </c>
-      <c r="E130">
+        <v>8.2</v>
+      </c>
+      <c r="D130" s="1">
+        <v>5</v>
+      </c>
+      <c r="E130" s="1">
         <v>7.4</v>
       </c>
       <c r="F130">
@@ -3007,10 +3038,10 @@
       <c r="C131" s="1">
         <v>8</v>
       </c>
-      <c r="D131">
-        <v>5</v>
-      </c>
-      <c r="E131">
+      <c r="D131" s="1">
+        <v>5</v>
+      </c>
+      <c r="E131" s="1">
         <v>8</v>
       </c>
       <c r="F131">
@@ -3025,12 +3056,12 @@
         <v>3</v>
       </c>
       <c r="C132" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D132">
-        <v>5</v>
-      </c>
-      <c r="E132">
+        <v>8.3</v>
+      </c>
+      <c r="D132" s="1">
+        <v>5</v>
+      </c>
+      <c r="E132" s="1">
         <v>7.3</v>
       </c>
       <c r="F132">
@@ -3047,10 +3078,10 @@
       <c r="C133" s="1">
         <v>8.4</v>
       </c>
-      <c r="D133">
-        <v>5</v>
-      </c>
-      <c r="E133">
+      <c r="D133" s="1">
+        <v>5</v>
+      </c>
+      <c r="E133" s="1">
         <v>7.2</v>
       </c>
       <c r="F133">
@@ -3067,10 +3098,10 @@
       <c r="C134" s="1">
         <v>8.1</v>
       </c>
-      <c r="D134">
-        <v>5</v>
-      </c>
-      <c r="E134">
+      <c r="D134" s="1">
+        <v>5</v>
+      </c>
+      <c r="E134" s="1">
         <v>7.5</v>
       </c>
       <c r="F134">
@@ -3087,10 +3118,10 @@
       <c r="C135" s="1">
         <v>8</v>
       </c>
-      <c r="D135">
-        <v>5</v>
-      </c>
-      <c r="E135">
+      <c r="D135" s="1">
+        <v>5</v>
+      </c>
+      <c r="E135" s="1">
         <v>8</v>
       </c>
       <c r="F135">
@@ -3105,12 +3136,12 @@
         <v>11</v>
       </c>
       <c r="C136" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D136">
-        <v>5</v>
-      </c>
-      <c r="E136">
+        <v>8.2</v>
+      </c>
+      <c r="D136" s="1">
+        <v>5</v>
+      </c>
+      <c r="E136" s="1">
         <v>7.4</v>
       </c>
       <c r="F136">
@@ -3127,10 +3158,10 @@
       <c r="C137" s="1">
         <v>8.4</v>
       </c>
-      <c r="D137">
-        <v>5</v>
-      </c>
-      <c r="E137">
+      <c r="D137" s="1">
+        <v>5</v>
+      </c>
+      <c r="E137" s="1">
         <v>7.2</v>
       </c>
       <c r="F137">
@@ -3147,10 +3178,10 @@
       <c r="C138" s="1">
         <v>8.1</v>
       </c>
-      <c r="D138">
-        <v>5</v>
-      </c>
-      <c r="E138">
+      <c r="D138" s="1">
+        <v>5</v>
+      </c>
+      <c r="E138" s="1">
         <v>7.5</v>
       </c>
       <c r="F138">
@@ -3167,10 +3198,10 @@
       <c r="C139" s="1">
         <v>8</v>
       </c>
-      <c r="D139">
-        <v>5</v>
-      </c>
-      <c r="E139">
+      <c r="D139" s="1">
+        <v>5</v>
+      </c>
+      <c r="E139" s="1">
         <v>8</v>
       </c>
       <c r="F139">
@@ -3185,12 +3216,12 @@
         <v>11</v>
       </c>
       <c r="C140" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D140">
-        <v>5</v>
-      </c>
-      <c r="E140">
+        <v>8.2</v>
+      </c>
+      <c r="D140" s="1">
+        <v>5</v>
+      </c>
+      <c r="E140" s="1">
         <v>7.4</v>
       </c>
       <c r="F140">
@@ -3207,10 +3238,10 @@
       <c r="C141" s="1">
         <v>8</v>
       </c>
-      <c r="D141">
-        <v>5</v>
-      </c>
-      <c r="E141">
+      <c r="D141" s="1">
+        <v>5</v>
+      </c>
+      <c r="E141" s="1">
         <v>8</v>
       </c>
       <c r="F141">
@@ -3225,12 +3256,12 @@
         <v>3</v>
       </c>
       <c r="C142" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D142">
-        <v>5</v>
-      </c>
-      <c r="E142">
+        <v>8.3</v>
+      </c>
+      <c r="D142" s="1">
+        <v>5</v>
+      </c>
+      <c r="E142" s="1">
         <v>7.3</v>
       </c>
       <c r="F142">
@@ -3247,10 +3278,10 @@
       <c r="C143" s="1">
         <v>8.4</v>
       </c>
-      <c r="D143">
-        <v>5</v>
-      </c>
-      <c r="E143">
+      <c r="D143" s="1">
+        <v>5</v>
+      </c>
+      <c r="E143" s="1">
         <v>7.2</v>
       </c>
       <c r="F143">
@@ -3267,10 +3298,10 @@
       <c r="C144" s="1">
         <v>8.1</v>
       </c>
-      <c r="D144">
-        <v>5</v>
-      </c>
-      <c r="E144">
+      <c r="D144" s="1">
+        <v>5</v>
+      </c>
+      <c r="E144" s="1">
         <v>7.5</v>
       </c>
       <c r="F144">
@@ -3287,10 +3318,10 @@
       <c r="C145" s="1">
         <v>8</v>
       </c>
-      <c r="D145">
-        <v>5</v>
-      </c>
-      <c r="E145">
+      <c r="D145" s="1">
+        <v>5</v>
+      </c>
+      <c r="E145" s="1">
         <v>8</v>
       </c>
       <c r="F145">
@@ -3305,12 +3336,12 @@
         <v>11</v>
       </c>
       <c r="C146" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D146">
-        <v>5</v>
-      </c>
-      <c r="E146">
+        <v>8.2</v>
+      </c>
+      <c r="D146" s="1">
+        <v>5</v>
+      </c>
+      <c r="E146" s="1">
         <v>7.4</v>
       </c>
       <c r="F146">
@@ -3327,10 +3358,10 @@
       <c r="C147" s="1">
         <v>8.4</v>
       </c>
-      <c r="D147">
-        <v>5</v>
-      </c>
-      <c r="E147">
+      <c r="D147" s="1">
+        <v>5</v>
+      </c>
+      <c r="E147" s="1">
         <v>7.2</v>
       </c>
       <c r="F147">
@@ -3347,10 +3378,10 @@
       <c r="C148" s="1">
         <v>8.1</v>
       </c>
-      <c r="D148">
-        <v>5</v>
-      </c>
-      <c r="E148">
+      <c r="D148" s="1">
+        <v>5</v>
+      </c>
+      <c r="E148" s="1">
         <v>7.5</v>
       </c>
       <c r="F148">
@@ -3367,10 +3398,10 @@
       <c r="C149" s="1">
         <v>8</v>
       </c>
-      <c r="D149">
-        <v>5</v>
-      </c>
-      <c r="E149">
+      <c r="D149" s="1">
+        <v>5</v>
+      </c>
+      <c r="E149" s="1">
         <v>8</v>
       </c>
       <c r="F149">
@@ -3385,12 +3416,12 @@
         <v>11</v>
       </c>
       <c r="C150" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D150">
-        <v>5</v>
-      </c>
-      <c r="E150">
+        <v>8.2</v>
+      </c>
+      <c r="D150" s="1">
+        <v>5</v>
+      </c>
+      <c r="E150" s="1">
         <v>7.4</v>
       </c>
       <c r="F150">
@@ -3407,10 +3438,10 @@
       <c r="C151" s="1">
         <v>8</v>
       </c>
-      <c r="D151">
-        <v>5</v>
-      </c>
-      <c r="E151">
+      <c r="D151" s="1">
+        <v>5</v>
+      </c>
+      <c r="E151" s="1">
         <v>8</v>
       </c>
       <c r="F151">
@@ -3425,12 +3456,12 @@
         <v>3</v>
       </c>
       <c r="C152" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D152">
-        <v>5</v>
-      </c>
-      <c r="E152">
+        <v>8.3</v>
+      </c>
+      <c r="D152" s="1">
+        <v>5</v>
+      </c>
+      <c r="E152" s="1">
         <v>7.3</v>
       </c>
       <c r="F152">
@@ -3447,10 +3478,10 @@
       <c r="C153" s="1">
         <v>8.4</v>
       </c>
-      <c r="D153">
-        <v>5</v>
-      </c>
-      <c r="E153">
+      <c r="D153" s="1">
+        <v>5</v>
+      </c>
+      <c r="E153" s="1">
         <v>7.2</v>
       </c>
       <c r="F153">
@@ -3467,10 +3498,10 @@
       <c r="C154" s="1">
         <v>8.1</v>
       </c>
-      <c r="D154">
-        <v>5</v>
-      </c>
-      <c r="E154">
+      <c r="D154" s="1">
+        <v>5</v>
+      </c>
+      <c r="E154" s="1">
         <v>7.5</v>
       </c>
       <c r="F154">
@@ -3487,10 +3518,10 @@
       <c r="C155" s="1">
         <v>8</v>
       </c>
-      <c r="D155">
-        <v>5</v>
-      </c>
-      <c r="E155">
+      <c r="D155" s="1">
+        <v>5</v>
+      </c>
+      <c r="E155" s="1">
         <v>8</v>
       </c>
       <c r="F155">
@@ -3505,12 +3536,12 @@
         <v>11</v>
       </c>
       <c r="C156" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D156">
-        <v>5</v>
-      </c>
-      <c r="E156">
+        <v>8.2</v>
+      </c>
+      <c r="D156" s="1">
+        <v>5</v>
+      </c>
+      <c r="E156" s="1">
         <v>7.4</v>
       </c>
       <c r="F156">
@@ -3527,10 +3558,10 @@
       <c r="C157" s="1">
         <v>8.4</v>
       </c>
-      <c r="D157">
-        <v>5</v>
-      </c>
-      <c r="E157">
+      <c r="D157" s="1">
+        <v>5</v>
+      </c>
+      <c r="E157" s="1">
         <v>7.2</v>
       </c>
       <c r="F157">
@@ -3547,10 +3578,10 @@
       <c r="C158" s="1">
         <v>8.1</v>
       </c>
-      <c r="D158">
-        <v>5</v>
-      </c>
-      <c r="E158">
+      <c r="D158" s="1">
+        <v>5</v>
+      </c>
+      <c r="E158" s="1">
         <v>7.5</v>
       </c>
       <c r="F158">
@@ -3567,10 +3598,10 @@
       <c r="C159" s="1">
         <v>8</v>
       </c>
-      <c r="D159">
-        <v>5</v>
-      </c>
-      <c r="E159">
+      <c r="D159" s="1">
+        <v>5</v>
+      </c>
+      <c r="E159" s="1">
         <v>8</v>
       </c>
       <c r="F159">
@@ -3585,12 +3616,12 @@
         <v>3</v>
       </c>
       <c r="C160" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D160">
-        <v>5</v>
-      </c>
-      <c r="E160">
+        <v>8.3</v>
+      </c>
+      <c r="D160" s="1">
+        <v>5</v>
+      </c>
+      <c r="E160" s="1">
         <v>7.3</v>
       </c>
       <c r="F160">
@@ -3607,10 +3638,10 @@
       <c r="C161" s="1">
         <v>8.4</v>
       </c>
-      <c r="D161">
-        <v>5</v>
-      </c>
-      <c r="E161">
+      <c r="D161" s="1">
+        <v>5</v>
+      </c>
+      <c r="E161" s="1">
         <v>7.2</v>
       </c>
       <c r="F161">
@@ -3627,10 +3658,10 @@
       <c r="C162" s="1">
         <v>8.1</v>
       </c>
-      <c r="D162">
-        <v>5</v>
-      </c>
-      <c r="E162">
+      <c r="D162" s="1">
+        <v>5</v>
+      </c>
+      <c r="E162" s="1">
         <v>7.5</v>
       </c>
       <c r="F162">
@@ -3647,10 +3678,10 @@
       <c r="C163" s="1">
         <v>8</v>
       </c>
-      <c r="D163">
-        <v>5</v>
-      </c>
-      <c r="E163">
+      <c r="D163" s="1">
+        <v>5</v>
+      </c>
+      <c r="E163" s="1">
         <v>8</v>
       </c>
       <c r="F163">
@@ -3665,12 +3696,12 @@
         <v>11</v>
       </c>
       <c r="C164" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D164">
-        <v>5</v>
-      </c>
-      <c r="E164">
+        <v>8.2</v>
+      </c>
+      <c r="D164" s="1">
+        <v>5</v>
+      </c>
+      <c r="E164" s="1">
         <v>7.4</v>
       </c>
       <c r="F164">
@@ -3687,10 +3718,10 @@
       <c r="C165" s="1">
         <v>8.4</v>
       </c>
-      <c r="D165">
-        <v>5</v>
-      </c>
-      <c r="E165">
+      <c r="D165" s="1">
+        <v>5</v>
+      </c>
+      <c r="E165" s="1">
         <v>7.2</v>
       </c>
       <c r="F165">
@@ -3707,10 +3738,10 @@
       <c r="C166" s="1">
         <v>8.1</v>
       </c>
-      <c r="D166">
-        <v>5</v>
-      </c>
-      <c r="E166">
+      <c r="D166" s="1">
+        <v>5</v>
+      </c>
+      <c r="E166" s="1">
         <v>7.5</v>
       </c>
       <c r="F166">
@@ -3727,10 +3758,10 @@
       <c r="C167" s="1">
         <v>8</v>
       </c>
-      <c r="D167">
-        <v>5</v>
-      </c>
-      <c r="E167">
+      <c r="D167" s="1">
+        <v>5</v>
+      </c>
+      <c r="E167" s="1">
         <v>8</v>
       </c>
       <c r="F167">
@@ -3745,12 +3776,12 @@
         <v>3</v>
       </c>
       <c r="C168" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D168">
-        <v>5</v>
-      </c>
-      <c r="E168">
+        <v>8.3</v>
+      </c>
+      <c r="D168" s="1">
+        <v>5</v>
+      </c>
+      <c r="E168" s="1">
         <v>7.3</v>
       </c>
       <c r="F168">
@@ -3767,10 +3798,10 @@
       <c r="C169" s="1">
         <v>8.4</v>
       </c>
-      <c r="D169">
-        <v>5</v>
-      </c>
-      <c r="E169">
+      <c r="D169" s="1">
+        <v>5</v>
+      </c>
+      <c r="E169" s="1">
         <v>7.2</v>
       </c>
       <c r="F169">
@@ -3787,10 +3818,10 @@
       <c r="C170" s="1">
         <v>8.1</v>
       </c>
-      <c r="D170">
-        <v>5</v>
-      </c>
-      <c r="E170">
+      <c r="D170" s="1">
+        <v>5</v>
+      </c>
+      <c r="E170" s="1">
         <v>7.5</v>
       </c>
       <c r="F170">
@@ -3807,10 +3838,10 @@
       <c r="C171" s="1">
         <v>8</v>
       </c>
-      <c r="D171">
-        <v>5</v>
-      </c>
-      <c r="E171">
+      <c r="D171" s="1">
+        <v>5</v>
+      </c>
+      <c r="E171" s="1">
         <v>8</v>
       </c>
       <c r="F171">
@@ -3825,12 +3856,12 @@
         <v>11</v>
       </c>
       <c r="C172" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D172">
-        <v>5</v>
-      </c>
-      <c r="E172">
+        <v>8.2</v>
+      </c>
+      <c r="D172" s="1">
+        <v>5</v>
+      </c>
+      <c r="E172" s="1">
         <v>7.4</v>
       </c>
       <c r="F172">
@@ -3847,10 +3878,10 @@
       <c r="C173" s="1">
         <v>8.4</v>
       </c>
-      <c r="D173">
-        <v>5</v>
-      </c>
-      <c r="E173">
+      <c r="D173" s="1">
+        <v>5</v>
+      </c>
+      <c r="E173" s="1">
         <v>7.2</v>
       </c>
       <c r="F173">
@@ -3867,10 +3898,10 @@
       <c r="C174" s="1">
         <v>8.1</v>
       </c>
-      <c r="D174">
-        <v>5</v>
-      </c>
-      <c r="E174">
+      <c r="D174" s="1">
+        <v>5</v>
+      </c>
+      <c r="E174" s="1">
         <v>7.5</v>
       </c>
       <c r="F174">
@@ -3887,10 +3918,10 @@
       <c r="C175" s="1">
         <v>8</v>
       </c>
-      <c r="D175">
-        <v>5</v>
-      </c>
-      <c r="E175">
+      <c r="D175" s="1">
+        <v>5</v>
+      </c>
+      <c r="E175" s="1">
         <v>8</v>
       </c>
       <c r="F175">
@@ -3905,12 +3936,12 @@
         <v>3</v>
       </c>
       <c r="C176" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D176">
-        <v>5</v>
-      </c>
-      <c r="E176">
+        <v>8.3</v>
+      </c>
+      <c r="D176" s="1">
+        <v>5</v>
+      </c>
+      <c r="E176" s="1">
         <v>7.3</v>
       </c>
       <c r="F176">
@@ -3927,10 +3958,10 @@
       <c r="C177" s="1">
         <v>8.4</v>
       </c>
-      <c r="D177">
-        <v>5</v>
-      </c>
-      <c r="E177">
+      <c r="D177" s="1">
+        <v>5</v>
+      </c>
+      <c r="E177" s="1">
         <v>7.2</v>
       </c>
       <c r="F177">
@@ -3947,10 +3978,10 @@
       <c r="C178" s="1">
         <v>8.1</v>
       </c>
-      <c r="D178">
-        <v>5</v>
-      </c>
-      <c r="E178">
+      <c r="D178" s="1">
+        <v>5</v>
+      </c>
+      <c r="E178" s="1">
         <v>7.5</v>
       </c>
       <c r="F178">
@@ -3967,10 +3998,10 @@
       <c r="C179" s="1">
         <v>8</v>
       </c>
-      <c r="D179">
-        <v>5</v>
-      </c>
-      <c r="E179">
+      <c r="D179" s="1">
+        <v>5</v>
+      </c>
+      <c r="E179" s="1">
         <v>8</v>
       </c>
       <c r="F179">
@@ -3985,12 +4016,12 @@
         <v>11</v>
       </c>
       <c r="C180" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D180">
-        <v>5</v>
-      </c>
-      <c r="E180">
+        <v>8.2</v>
+      </c>
+      <c r="D180" s="1">
+        <v>5</v>
+      </c>
+      <c r="E180" s="1">
         <v>7.4</v>
       </c>
       <c r="F180">
@@ -4007,10 +4038,10 @@
       <c r="C181" s="1">
         <v>8.4</v>
       </c>
-      <c r="D181">
-        <v>5</v>
-      </c>
-      <c r="E181">
+      <c r="D181" s="1">
+        <v>5</v>
+      </c>
+      <c r="E181" s="1">
         <v>7.2</v>
       </c>
       <c r="F181">
@@ -4027,10 +4058,10 @@
       <c r="C182" s="1">
         <v>8.1</v>
       </c>
-      <c r="D182">
-        <v>5</v>
-      </c>
-      <c r="E182">
+      <c r="D182" s="1">
+        <v>5</v>
+      </c>
+      <c r="E182" s="1">
         <v>7.5</v>
       </c>
       <c r="F182">
@@ -4047,10 +4078,10 @@
       <c r="C183" s="1">
         <v>8</v>
       </c>
-      <c r="D183">
-        <v>5</v>
-      </c>
-      <c r="E183">
+      <c r="D183" s="1">
+        <v>5</v>
+      </c>
+      <c r="E183" s="1">
         <v>8</v>
       </c>
       <c r="F183">
@@ -4065,12 +4096,12 @@
         <v>3</v>
       </c>
       <c r="C184" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D184">
-        <v>5</v>
-      </c>
-      <c r="E184">
+        <v>8.3</v>
+      </c>
+      <c r="D184" s="1">
+        <v>5</v>
+      </c>
+      <c r="E184" s="1">
         <v>7.3</v>
       </c>
       <c r="F184">
@@ -4087,10 +4118,10 @@
       <c r="C185" s="1">
         <v>8.4</v>
       </c>
-      <c r="D185">
-        <v>5</v>
-      </c>
-      <c r="E185">
+      <c r="D185" s="1">
+        <v>5</v>
+      </c>
+      <c r="E185" s="1">
         <v>7.2</v>
       </c>
       <c r="F185">
@@ -4107,10 +4138,10 @@
       <c r="C186" s="1">
         <v>8.1</v>
       </c>
-      <c r="D186">
-        <v>5</v>
-      </c>
-      <c r="E186">
+      <c r="D186" s="1">
+        <v>5</v>
+      </c>
+      <c r="E186" s="1">
         <v>7.5</v>
       </c>
       <c r="F186">
@@ -4127,10 +4158,10 @@
       <c r="C187" s="1">
         <v>8</v>
       </c>
-      <c r="D187">
-        <v>5</v>
-      </c>
-      <c r="E187">
+      <c r="D187" s="1">
+        <v>5</v>
+      </c>
+      <c r="E187" s="1">
         <v>8</v>
       </c>
       <c r="F187">
@@ -4145,12 +4176,12 @@
         <v>11</v>
       </c>
       <c r="C188" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D188">
-        <v>5</v>
-      </c>
-      <c r="E188">
+        <v>8.2</v>
+      </c>
+      <c r="D188" s="1">
+        <v>5</v>
+      </c>
+      <c r="E188" s="1">
         <v>7.4</v>
       </c>
       <c r="F188">
@@ -4167,10 +4198,10 @@
       <c r="C189" s="1">
         <v>8.4</v>
       </c>
-      <c r="D189">
-        <v>5</v>
-      </c>
-      <c r="E189">
+      <c r="D189" s="1">
+        <v>5</v>
+      </c>
+      <c r="E189" s="1">
         <v>7.2</v>
       </c>
       <c r="F189">
@@ -4187,10 +4218,10 @@
       <c r="C190" s="1">
         <v>8.1</v>
       </c>
-      <c r="D190">
-        <v>5</v>
-      </c>
-      <c r="E190">
+      <c r="D190" s="1">
+        <v>5</v>
+      </c>
+      <c r="E190" s="1">
         <v>7.5</v>
       </c>
       <c r="F190">
@@ -4207,10 +4238,10 @@
       <c r="C191" s="1">
         <v>8</v>
       </c>
-      <c r="D191">
-        <v>5</v>
-      </c>
-      <c r="E191">
+      <c r="D191" s="1">
+        <v>5</v>
+      </c>
+      <c r="E191" s="1">
         <v>8</v>
       </c>
       <c r="F191">
@@ -4225,12 +4256,12 @@
         <v>3</v>
       </c>
       <c r="C192" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D192">
-        <v>5</v>
-      </c>
-      <c r="E192">
+        <v>8.3</v>
+      </c>
+      <c r="D192" s="1">
+        <v>5</v>
+      </c>
+      <c r="E192" s="1">
         <v>7.3</v>
       </c>
       <c r="F192">
@@ -4247,10 +4278,10 @@
       <c r="C193" s="1">
         <v>8.4</v>
       </c>
-      <c r="D193">
-        <v>5</v>
-      </c>
-      <c r="E193">
+      <c r="D193" s="1">
+        <v>5</v>
+      </c>
+      <c r="E193" s="1">
         <v>7.2</v>
       </c>
       <c r="F193">
@@ -4267,10 +4298,10 @@
       <c r="C194" s="1">
         <v>8.1</v>
       </c>
-      <c r="D194">
-        <v>5</v>
-      </c>
-      <c r="E194">
+      <c r="D194" s="1">
+        <v>5</v>
+      </c>
+      <c r="E194" s="1">
         <v>7.5</v>
       </c>
       <c r="F194">
@@ -4287,10 +4318,10 @@
       <c r="C195" s="1">
         <v>8</v>
       </c>
-      <c r="D195">
-        <v>5</v>
-      </c>
-      <c r="E195">
+      <c r="D195" s="1">
+        <v>5</v>
+      </c>
+      <c r="E195" s="1">
         <v>8</v>
       </c>
       <c r="F195">
@@ -4305,12 +4336,12 @@
         <v>11</v>
       </c>
       <c r="C196" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D196">
-        <v>5</v>
-      </c>
-      <c r="E196">
+        <v>8.2</v>
+      </c>
+      <c r="D196" s="1">
+        <v>5</v>
+      </c>
+      <c r="E196" s="1">
         <v>7.4</v>
       </c>
       <c r="F196">
@@ -4327,10 +4358,10 @@
       <c r="C197" s="1">
         <v>8.4</v>
       </c>
-      <c r="D197">
-        <v>5</v>
-      </c>
-      <c r="E197">
+      <c r="D197" s="1">
+        <v>5</v>
+      </c>
+      <c r="E197" s="1">
         <v>7.2</v>
       </c>
       <c r="F197">
@@ -4347,10 +4378,10 @@
       <c r="C198" s="1">
         <v>8.1</v>
       </c>
-      <c r="D198">
-        <v>5</v>
-      </c>
-      <c r="E198">
+      <c r="D198" s="1">
+        <v>5</v>
+      </c>
+      <c r="E198" s="1">
         <v>7.5</v>
       </c>
       <c r="F198">
@@ -4367,10 +4398,10 @@
       <c r="C199" s="1">
         <v>8</v>
       </c>
-      <c r="D199">
-        <v>5</v>
-      </c>
-      <c r="E199">
+      <c r="D199" s="1">
+        <v>5</v>
+      </c>
+      <c r="E199" s="1">
         <v>8</v>
       </c>
       <c r="F199">
@@ -4385,12 +4416,12 @@
         <v>3</v>
       </c>
       <c r="C200" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D200">
-        <v>5</v>
-      </c>
-      <c r="E200">
+        <v>8.3</v>
+      </c>
+      <c r="D200" s="1">
+        <v>5</v>
+      </c>
+      <c r="E200" s="1">
         <v>7.3</v>
       </c>
       <c r="F200">
@@ -4407,10 +4438,10 @@
       <c r="C201" s="1">
         <v>8.4</v>
       </c>
-      <c r="D201">
-        <v>5</v>
-      </c>
-      <c r="E201">
+      <c r="D201" s="1">
+        <v>5</v>
+      </c>
+      <c r="E201" s="1">
         <v>7.2</v>
       </c>
       <c r="F201">
@@ -4427,10 +4458,10 @@
       <c r="C202" s="1">
         <v>8.1</v>
       </c>
-      <c r="D202">
-        <v>5</v>
-      </c>
-      <c r="E202">
+      <c r="D202" s="1">
+        <v>5</v>
+      </c>
+      <c r="E202" s="1">
         <v>7.5</v>
       </c>
       <c r="F202">
@@ -4447,10 +4478,10 @@
       <c r="C203" s="1">
         <v>8</v>
       </c>
-      <c r="D203">
-        <v>5</v>
-      </c>
-      <c r="E203">
+      <c r="D203" s="1">
+        <v>5</v>
+      </c>
+      <c r="E203" s="1">
         <v>8</v>
       </c>
       <c r="F203">
@@ -4465,12 +4496,12 @@
         <v>11</v>
       </c>
       <c r="C204" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D204">
-        <v>5</v>
-      </c>
-      <c r="E204">
+        <v>8.2</v>
+      </c>
+      <c r="D204" s="1">
+        <v>5</v>
+      </c>
+      <c r="E204" s="1">
         <v>7.4</v>
       </c>
       <c r="F204">
@@ -4487,10 +4518,10 @@
       <c r="C205" s="1">
         <v>8.4</v>
       </c>
-      <c r="D205">
-        <v>5</v>
-      </c>
-      <c r="E205">
+      <c r="D205" s="1">
+        <v>5</v>
+      </c>
+      <c r="E205" s="1">
         <v>7.2</v>
       </c>
       <c r="F205">
@@ -4507,19 +4538,788 @@
       <c r="C206" s="1">
         <v>8.1</v>
       </c>
-      <c r="D206">
-        <v>5</v>
-      </c>
-      <c r="E206">
+      <c r="D206" s="1">
+        <v>5</v>
+      </c>
+      <c r="E206" s="1">
         <v>7.5</v>
       </c>
       <c r="F206">
         <v>0</v>
       </c>
     </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="1">
+        <v>8</v>
+      </c>
+      <c r="D207" s="1">
+        <v>5</v>
+      </c>
+      <c r="E207" s="1">
+        <v>8</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" s="1">
+        <v>8.3</v>
+      </c>
+      <c r="D208" s="1">
+        <v>5</v>
+      </c>
+      <c r="E208" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D209" s="1">
+        <v>5</v>
+      </c>
+      <c r="E209" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D210" s="1">
+        <v>5</v>
+      </c>
+      <c r="E210" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" s="1">
+        <v>8</v>
+      </c>
+      <c r="D211" s="1">
+        <v>5</v>
+      </c>
+      <c r="E211" s="1">
+        <v>8</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D212" s="1">
+        <v>5</v>
+      </c>
+      <c r="E212" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>14</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D213" s="1">
+        <v>5</v>
+      </c>
+      <c r="E213" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>15</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D214" s="1">
+        <v>5</v>
+      </c>
+      <c r="E214" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>19</v>
+      </c>
+      <c r="C215" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="D215" s="1">
+        <v>5</v>
+      </c>
+      <c r="E215" s="1">
+        <v>9</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>2</v>
+      </c>
+      <c r="B216" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216" s="1">
+        <v>8.31</v>
+      </c>
+      <c r="D216" s="1">
+        <v>5.16</v>
+      </c>
+      <c r="E216" s="1">
+        <v>8.29</v>
+      </c>
+      <c r="F216">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B217" t="s">
+        <v>19</v>
+      </c>
+      <c r="C217" s="1">
+        <v>8.44</v>
+      </c>
+      <c r="D217" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="E217" s="1">
+        <v>8.42</v>
+      </c>
+      <c r="F217">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>19</v>
+      </c>
+      <c r="C218" s="1">
+        <v>8.15</v>
+      </c>
+      <c r="D218" s="1">
+        <v>5.02</v>
+      </c>
+      <c r="E218" s="1">
+        <v>8.45</v>
+      </c>
+      <c r="F218">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>8</v>
+      </c>
+      <c r="B219" t="s">
+        <v>19</v>
+      </c>
+      <c r="C219" s="1">
+        <v>8.22</v>
+      </c>
+      <c r="D219" s="1">
+        <v>5.11</v>
+      </c>
+      <c r="E219" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="F219">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" t="s">
+        <v>19</v>
+      </c>
+      <c r="C220" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D220" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="E220" s="1">
+        <v>9</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221" t="s">
+        <v>19</v>
+      </c>
+      <c r="C221" s="1">
+        <v>7.42</v>
+      </c>
+      <c r="D221" s="1">
+        <v>5.44</v>
+      </c>
+      <c r="E221" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>15</v>
+      </c>
+      <c r="B222" t="s">
+        <v>19</v>
+      </c>
+      <c r="C222" s="1">
+        <v>7.54</v>
+      </c>
+      <c r="D222" s="1">
+        <v>5</v>
+      </c>
+      <c r="E222" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>16</v>
+      </c>
+      <c r="B223" t="s">
+        <v>19</v>
+      </c>
+      <c r="C223" s="1">
+        <v>8.08</v>
+      </c>
+      <c r="D223" s="1">
+        <v>5.46</v>
+      </c>
+      <c r="E223" s="1">
+        <v>9.08</v>
+      </c>
+      <c r="F223">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>17</v>
+      </c>
+      <c r="B224" t="s">
+        <v>19</v>
+      </c>
+      <c r="C224" s="1">
+        <v>8.14</v>
+      </c>
+      <c r="D224" s="1">
+        <v>5.32</v>
+      </c>
+      <c r="E224" s="1">
+        <v>8.38</v>
+      </c>
+      <c r="F224">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>20</v>
+      </c>
+      <c r="B225" t="s">
+        <v>19</v>
+      </c>
+      <c r="C225" s="1">
+        <v>8.01</v>
+      </c>
+      <c r="D225" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="E225" s="1">
+        <v>8</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>21</v>
+      </c>
+      <c r="B226" t="s">
+        <v>19</v>
+      </c>
+      <c r="C226" s="1">
+        <v>8.42</v>
+      </c>
+      <c r="D226" s="1">
+        <v>5.08</v>
+      </c>
+      <c r="E226" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="F226">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227" t="s">
+        <v>19</v>
+      </c>
+      <c r="C227" s="1">
+        <v>8.05</v>
+      </c>
+      <c r="D227" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="E227" s="1">
+        <v>9</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>23</v>
+      </c>
+      <c r="B228" t="s">
+        <v>19</v>
+      </c>
+      <c r="C228" s="1">
+        <v>7.56</v>
+      </c>
+      <c r="D228" s="1">
+        <v>5.24</v>
+      </c>
+      <c r="E228" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>24</v>
+      </c>
+      <c r="B229" t="s">
+        <v>19</v>
+      </c>
+      <c r="C229" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="D229" s="1">
+        <v>5</v>
+      </c>
+      <c r="E229" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F229">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>19</v>
+      </c>
+      <c r="C230" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="D230" s="1">
+        <v>5</v>
+      </c>
+      <c r="E230" s="1">
+        <v>9</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>2</v>
+      </c>
+      <c r="B231" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" s="1">
+        <v>8.31</v>
+      </c>
+      <c r="D231" s="1">
+        <v>5.16</v>
+      </c>
+      <c r="E231" s="1">
+        <v>8.29</v>
+      </c>
+      <c r="F231">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232" s="1">
+        <v>8.44</v>
+      </c>
+      <c r="D232" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="E232" s="1">
+        <v>8.42</v>
+      </c>
+      <c r="F232">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" t="s">
+        <v>19</v>
+      </c>
+      <c r="C233" s="1">
+        <v>8.15</v>
+      </c>
+      <c r="D233" s="1">
+        <v>5.02</v>
+      </c>
+      <c r="E233" s="1">
+        <v>8.45</v>
+      </c>
+      <c r="F233">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" t="s">
+        <v>19</v>
+      </c>
+      <c r="C234" s="1">
+        <v>8.22</v>
+      </c>
+      <c r="D234" s="1">
+        <v>5.11</v>
+      </c>
+      <c r="E234" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="F234">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" t="s">
+        <v>19</v>
+      </c>
+      <c r="C235" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D235" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="E235" s="1">
+        <v>9</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>14</v>
+      </c>
+      <c r="B236" t="s">
+        <v>19</v>
+      </c>
+      <c r="C236" s="1">
+        <v>7.42</v>
+      </c>
+      <c r="D236" s="1">
+        <v>5.44</v>
+      </c>
+      <c r="E236" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>15</v>
+      </c>
+      <c r="B237" t="s">
+        <v>19</v>
+      </c>
+      <c r="C237" s="1">
+        <v>7.54</v>
+      </c>
+      <c r="D237" s="1">
+        <v>5</v>
+      </c>
+      <c r="E237" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>16</v>
+      </c>
+      <c r="B238" t="s">
+        <v>19</v>
+      </c>
+      <c r="C238" s="1">
+        <v>8.08</v>
+      </c>
+      <c r="D238" s="1">
+        <v>5.46</v>
+      </c>
+      <c r="E238" s="1">
+        <v>9.08</v>
+      </c>
+      <c r="F238">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>17</v>
+      </c>
+      <c r="B239" t="s">
+        <v>19</v>
+      </c>
+      <c r="C239" s="1">
+        <v>8.14</v>
+      </c>
+      <c r="D239" s="1">
+        <v>5.32</v>
+      </c>
+      <c r="E239" s="1">
+        <v>8.38</v>
+      </c>
+      <c r="F239">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>20</v>
+      </c>
+      <c r="B240" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240" s="1">
+        <v>8.01</v>
+      </c>
+      <c r="D240" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="E240" s="1">
+        <v>8</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>21</v>
+      </c>
+      <c r="B241" t="s">
+        <v>19</v>
+      </c>
+      <c r="C241" s="1">
+        <v>8.42</v>
+      </c>
+      <c r="D241" s="1">
+        <v>5.08</v>
+      </c>
+      <c r="E241" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="F241">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>22</v>
+      </c>
+      <c r="B242" t="s">
+        <v>19</v>
+      </c>
+      <c r="C242" s="1">
+        <v>8.05</v>
+      </c>
+      <c r="D242" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="E242" s="1">
+        <v>9</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>23</v>
+      </c>
+      <c r="B243" t="s">
+        <v>19</v>
+      </c>
+      <c r="C243" s="1">
+        <v>7.56</v>
+      </c>
+      <c r="D243" s="1">
+        <v>5.24</v>
+      </c>
+      <c r="E243" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>24</v>
+      </c>
+      <c r="B244" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="D244" s="1">
+        <v>5</v>
+      </c>
+      <c r="E244" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F244">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lms\Team-IGNIS\view\site\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="26">
   <si>
     <t>Tr002</t>
   </si>
@@ -91,18 +95,16 @@
   <si>
     <t>Tr022</t>
   </si>
+  <si>
+    <t>Tr015</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -113,34 +115,41 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="2" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -430,25 +439,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:F244"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A215" sqref="A215"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.88671875" customWidth="true" style="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="true" style="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="true" style="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -468,7 +473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -476,7 +481,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
@@ -488,7 +493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -508,9 +513,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -528,7 +533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -548,15 +553,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -568,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -588,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -596,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
@@ -608,9 +613,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -628,9 +633,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -648,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -668,15 +673,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
@@ -688,9 +693,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -708,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -716,7 +721,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
@@ -728,9 +733,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -748,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -768,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -788,15 +793,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
@@ -808,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -828,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -836,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
@@ -848,9 +853,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -868,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -888,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -908,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -916,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D25" s="1">
         <v>5</v>
@@ -928,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -948,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -956,7 +961,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D27" s="1">
         <v>5</v>
@@ -968,9 +973,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -988,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1008,9 +1013,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -1028,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1036,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D31" s="1">
         <v>5</v>
@@ -1048,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1068,15 +1073,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D33" s="1">
         <v>5</v>
@@ -1088,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1108,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1128,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1148,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1156,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D37" s="1">
         <v>5</v>
@@ -1168,9 +1173,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -1188,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1196,7 +1201,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D39" s="1">
         <v>5</v>
@@ -1208,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1228,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1248,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1268,15 +1273,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D43" s="1">
         <v>5</v>
@@ -1288,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1308,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1316,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
@@ -1328,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -1348,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -1368,9 +1373,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -1388,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1396,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="C49" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D49" s="1">
         <v>5</v>
@@ -1408,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -1436,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D51" s="1">
         <v>5</v>
@@ -1448,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1468,9 +1473,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1488,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1508,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="C55" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D55" s="1">
         <v>5</v>
@@ -1528,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -1548,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -1556,7 +1561,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D57" s="1">
         <v>5</v>
@@ -1568,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -1588,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -1608,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -1628,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -1636,7 +1641,7 @@
         <v>11</v>
       </c>
       <c r="C61" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D61" s="1">
         <v>5</v>
@@ -1648,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -1688,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -1696,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D64" s="1">
         <v>5</v>
@@ -1708,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -1728,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1748,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -1768,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -1776,7 +1781,7 @@
         <v>11</v>
       </c>
       <c r="C68" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D68" s="1">
         <v>5</v>
@@ -1788,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -1808,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -1816,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D70" s="1">
         <v>5</v>
@@ -1828,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -1848,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -1868,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -1888,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -1896,7 +1901,7 @@
         <v>11</v>
       </c>
       <c r="C74" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D74" s="1">
         <v>5</v>
@@ -1908,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -1928,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -1948,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -1956,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D77" s="1">
         <v>5</v>
@@ -1968,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -1988,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -2008,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2028,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -2036,7 +2041,7 @@
         <v>11</v>
       </c>
       <c r="C81" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D81" s="1">
         <v>5</v>
@@ -2048,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -2068,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -2076,7 +2081,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D83" s="1">
         <v>5</v>
@@ -2088,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -2108,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -2128,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -2148,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -2156,7 +2161,7 @@
         <v>11</v>
       </c>
       <c r="C87" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D87" s="1">
         <v>5</v>
@@ -2168,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -2188,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -2208,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -2216,7 +2221,7 @@
         <v>3</v>
       </c>
       <c r="C90" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D90" s="1">
         <v>5</v>
@@ -2228,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2248,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -2268,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2288,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -2296,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="C94" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D94" s="1">
         <v>5</v>
@@ -2308,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -2328,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -2336,7 +2341,7 @@
         <v>3</v>
       </c>
       <c r="C96" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D96" s="1">
         <v>5</v>
@@ -2348,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -2368,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -2388,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -2408,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -2416,7 +2421,7 @@
         <v>11</v>
       </c>
       <c r="C100" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D100" s="1">
         <v>5</v>
@@ -2428,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -2456,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="C102" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D102" s="1">
         <v>5</v>
@@ -2468,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -2488,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -2508,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -2528,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -2536,7 +2541,7 @@
         <v>11</v>
       </c>
       <c r="C106" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D106" s="1">
         <v>5</v>
@@ -2548,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -2568,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -2588,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -2608,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -2616,7 +2621,7 @@
         <v>11</v>
       </c>
       <c r="C110" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D110" s="1">
         <v>5</v>
@@ -2628,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -2648,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -2656,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="C112" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D112" s="1">
         <v>5</v>
@@ -2668,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -2688,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -2708,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -2728,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -2736,7 +2741,7 @@
         <v>11</v>
       </c>
       <c r="C116" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D116" s="1">
         <v>5</v>
@@ -2748,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -2768,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -2788,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -2808,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -2816,7 +2821,7 @@
         <v>11</v>
       </c>
       <c r="C120" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D120" s="1">
         <v>5</v>
@@ -2828,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -2848,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -2856,7 +2861,7 @@
         <v>3</v>
       </c>
       <c r="C122" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D122" s="1">
         <v>5</v>
@@ -2868,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -2888,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -2908,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -2928,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -2936,7 +2941,7 @@
         <v>11</v>
       </c>
       <c r="C126" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D126" s="1">
         <v>5</v>
@@ -2948,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -2968,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -2988,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -3008,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -3016,7 +3021,7 @@
         <v>11</v>
       </c>
       <c r="C130" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D130" s="1">
         <v>5</v>
@@ -3028,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -3048,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -3056,7 +3061,7 @@
         <v>3</v>
       </c>
       <c r="C132" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D132" s="1">
         <v>5</v>
@@ -3068,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -3088,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -3108,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -3128,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -3136,7 +3141,7 @@
         <v>11</v>
       </c>
       <c r="C136" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D136" s="1">
         <v>5</v>
@@ -3148,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -3168,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -3188,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>16</v>
       </c>
@@ -3208,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -3216,7 +3221,7 @@
         <v>11</v>
       </c>
       <c r="C140" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D140" s="1">
         <v>5</v>
@@ -3228,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -3248,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -3256,7 +3261,7 @@
         <v>3</v>
       </c>
       <c r="C142" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D142" s="1">
         <v>5</v>
@@ -3268,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -3288,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -3308,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -3328,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -3336,7 +3341,7 @@
         <v>11</v>
       </c>
       <c r="C146" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D146" s="1">
         <v>5</v>
@@ -3348,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -3368,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -3388,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>16</v>
       </c>
@@ -3408,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -3416,7 +3421,7 @@
         <v>11</v>
       </c>
       <c r="C150" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D150" s="1">
         <v>5</v>
@@ -3428,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -3448,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -3456,7 +3461,7 @@
         <v>3</v>
       </c>
       <c r="C152" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D152" s="1">
         <v>5</v>
@@ -3468,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -3488,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -3508,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -3528,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -3536,7 +3541,7 @@
         <v>11</v>
       </c>
       <c r="C156" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D156" s="1">
         <v>5</v>
@@ -3548,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -3568,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -3588,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -3608,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2</v>
       </c>
@@ -3616,7 +3621,7 @@
         <v>3</v>
       </c>
       <c r="C160" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D160" s="1">
         <v>5</v>
@@ -3628,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -3648,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -3688,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -3696,7 +3701,7 @@
         <v>11</v>
       </c>
       <c r="C164" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D164" s="1">
         <v>5</v>
@@ -3708,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -3728,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -3748,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -3768,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -3776,7 +3781,7 @@
         <v>3</v>
       </c>
       <c r="C168" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D168" s="1">
         <v>5</v>
@@ -3788,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -3808,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -3828,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -3848,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -3856,7 +3861,7 @@
         <v>11</v>
       </c>
       <c r="C172" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D172" s="1">
         <v>5</v>
@@ -3868,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -3888,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>15</v>
       </c>
@@ -3908,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -3928,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -3936,7 +3941,7 @@
         <v>3</v>
       </c>
       <c r="C176" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D176" s="1">
         <v>5</v>
@@ -3948,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -3968,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -3988,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -4008,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>10</v>
       </c>
@@ -4016,7 +4021,7 @@
         <v>11</v>
       </c>
       <c r="C180" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D180" s="1">
         <v>5</v>
@@ -4028,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -4048,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -4068,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -4088,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -4096,7 +4101,7 @@
         <v>3</v>
       </c>
       <c r="C184" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D184" s="1">
         <v>5</v>
@@ -4108,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -4128,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -4148,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -4168,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>10</v>
       </c>
@@ -4176,7 +4181,7 @@
         <v>11</v>
       </c>
       <c r="C188" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D188" s="1">
         <v>5</v>
@@ -4188,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -4208,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>15</v>
       </c>
@@ -4228,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -4248,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -4256,7 +4261,7 @@
         <v>3</v>
       </c>
       <c r="C192" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D192" s="1">
         <v>5</v>
@@ -4268,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -4288,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>6</v>
       </c>
@@ -4308,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -4328,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -4336,7 +4341,7 @@
         <v>11</v>
       </c>
       <c r="C196" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D196" s="1">
         <v>5</v>
@@ -4348,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -4368,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -4388,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -4408,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>2</v>
       </c>
@@ -4416,7 +4421,7 @@
         <v>3</v>
       </c>
       <c r="C200" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D200" s="1">
         <v>5</v>
@@ -4428,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -4448,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -4468,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -4488,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>10</v>
       </c>
@@ -4496,7 +4501,7 @@
         <v>11</v>
       </c>
       <c r="C204" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D204" s="1">
         <v>5</v>
@@ -4508,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -4528,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -4548,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -4568,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>2</v>
       </c>
@@ -4576,7 +4581,7 @@
         <v>3</v>
       </c>
       <c r="C208" s="1">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D208" s="1">
         <v>5</v>
@@ -4588,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -4608,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -4628,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -4648,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -4656,7 +4661,7 @@
         <v>11</v>
       </c>
       <c r="C212" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D212" s="1">
         <v>5</v>
@@ -4668,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>14</v>
       </c>
@@ -4688,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -4708,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -4728,7 +4733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>2</v>
       </c>
@@ -4742,13 +4747,13 @@
         <v>5.16</v>
       </c>
       <c r="E216" s="1">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="F216">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -4768,7 +4773,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -4779,16 +4784,16 @@
         <v>8.15</v>
       </c>
       <c r="D218" s="1">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="E218" s="1">
-        <v>8.45</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="F218">
         <v>0.45</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -4796,19 +4801,19 @@
         <v>19</v>
       </c>
       <c r="C219" s="1">
-        <v>8.22</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="D219" s="1">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="E219" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F219">
         <v>0.2</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>10</v>
       </c>
@@ -4816,7 +4821,7 @@
         <v>19</v>
       </c>
       <c r="C220" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D220" s="1">
         <v>5.14</v>
@@ -4828,7 +4833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -4848,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>15</v>
       </c>
@@ -4868,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>16</v>
       </c>
@@ -4888,7 +4893,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -4902,13 +4907,13 @@
         <v>5.32</v>
       </c>
       <c r="E224" s="1">
-        <v>8.38</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="F224">
         <v>0.38</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>20</v>
       </c>
@@ -4928,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>21</v>
       </c>
@@ -4942,13 +4947,13 @@
         <v>5.08</v>
       </c>
       <c r="E226" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F226">
         <v>0.2</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>22</v>
       </c>
@@ -4956,7 +4961,7 @@
         <v>19</v>
       </c>
       <c r="C227" s="1">
-        <v>8.05</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="D227" s="1">
         <v>5.3</v>
@@ -4968,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>23</v>
       </c>
@@ -4988,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>24</v>
       </c>
@@ -5008,7 +5013,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -5028,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -5042,13 +5047,13 @@
         <v>5.16</v>
       </c>
       <c r="E231" s="1">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="F231">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -5068,7 +5073,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -5079,16 +5084,16 @@
         <v>8.15</v>
       </c>
       <c r="D233" s="1">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="E233" s="1">
-        <v>8.45</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="F233">
         <v>0.45</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -5096,19 +5101,19 @@
         <v>19</v>
       </c>
       <c r="C234" s="1">
-        <v>8.22</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="D234" s="1">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="E234" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F234">
         <v>0.2</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>10</v>
       </c>
@@ -5116,7 +5121,7 @@
         <v>19</v>
       </c>
       <c r="C235" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D235" s="1">
         <v>5.14</v>
@@ -5128,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>14</v>
       </c>
@@ -5148,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -5168,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>16</v>
       </c>
@@ -5188,7 +5193,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -5202,13 +5207,13 @@
         <v>5.32</v>
       </c>
       <c r="E239" s="1">
-        <v>8.38</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="F239">
         <v>0.38</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>20</v>
       </c>
@@ -5228,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -5242,13 +5247,13 @@
         <v>5.08</v>
       </c>
       <c r="E241" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F241">
         <v>0.2</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>22</v>
       </c>
@@ -5256,7 +5261,7 @@
         <v>19</v>
       </c>
       <c r="C242" s="1">
-        <v>8.05</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="D242" s="1">
         <v>5.3</v>
@@ -5268,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>23</v>
       </c>
@@ -5288,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>24</v>
       </c>
@@ -5309,17 +5314,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/view/site/new.xlsx
+++ b/view/site/new.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lms\Team-IGNIS\view\site\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Tr002</t>
   </si>
@@ -39,7 +35,7 @@
     <t>2016-05-18</t>
   </si>
   <si>
-    <t>Tr005</t>
+    <t>Tr015</t>
   </si>
   <si>
     <t>2016-05-19</t>
@@ -51,9 +47,6 @@
     <t>2016-05-20</t>
   </si>
   <si>
-    <t>Tr007</t>
-  </si>
-  <si>
     <t>2016-05-21</t>
   </si>
   <si>
@@ -63,16 +56,22 @@
     <t>Tr009</t>
   </si>
   <si>
-    <t>Tr010</t>
+    <t>Tr012</t>
+  </si>
+  <si>
+    <t>Tr005</t>
   </si>
   <si>
     <t>Tr011</t>
   </si>
   <si>
-    <t>Tr012</t>
+    <t>Tr013</t>
   </si>
   <si>
-    <t>Tr013</t>
+    <t>Tr007</t>
+  </si>
+  <si>
+    <t>Tr010</t>
   </si>
   <si>
     <t>2016-05-24</t>
@@ -95,16 +94,18 @@
   <si>
     <t>Tr022</t>
   </si>
-  <si>
-    <t>Tr015</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -115,41 +116,34 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="2" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -439,21 +433,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F244"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.85546875" customWidth="true" style="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="true" style="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="true" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -473,7 +471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -481,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
@@ -493,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -513,9 +511,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -533,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -553,15 +551,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -573,9 +571,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -593,15 +591,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
@@ -613,9 +611,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -633,9 +631,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -653,9 +651,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -673,15 +671,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D13" s="1">
         <v>5</v>
@@ -693,9 +691,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -713,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -721,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
@@ -733,9 +731,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -753,9 +751,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -773,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -793,15 +791,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
@@ -813,9 +811,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -833,15 +831,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
@@ -853,9 +851,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -873,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -893,9 +891,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -913,15 +911,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D25" s="1">
         <v>5</v>
@@ -933,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -953,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -961,7 +959,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D27" s="1">
         <v>5</v>
@@ -973,9 +971,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -993,9 +991,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1013,9 +1011,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -1033,15 +1031,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
       <c r="C31" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D31" s="1">
         <v>5</v>
@@ -1053,9 +1051,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -1073,15 +1071,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D33" s="1">
         <v>5</v>
@@ -1093,9 +1091,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -1113,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1133,9 +1131,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -1153,15 +1151,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D37" s="1">
         <v>5</v>
@@ -1173,9 +1171,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -1193,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1201,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D39" s="1">
         <v>5</v>
@@ -1213,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1233,9 +1231,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1253,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1273,15 +1271,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D43" s="1">
         <v>5</v>
@@ -1293,9 +1291,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -1313,15 +1311,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
@@ -1333,9 +1331,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -1353,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -1373,9 +1371,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -1393,15 +1391,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D49" s="1">
         <v>5</v>
@@ -1413,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -1441,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D51" s="1">
         <v>5</v>
@@ -1453,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1473,9 +1471,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1493,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1513,15 +1511,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
         <v>10</v>
       </c>
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
       <c r="C55" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D55" s="1">
         <v>5</v>
@@ -1533,9 +1531,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -1553,15 +1551,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D57" s="1">
         <v>5</v>
@@ -1573,9 +1571,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -1593,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -1613,9 +1611,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
@@ -1633,15 +1631,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D61" s="1">
         <v>5</v>
@@ -1653,12 +1651,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C62" s="1">
         <v>8</v>
@@ -1673,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -1701,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D64" s="1">
         <v>5</v>
@@ -1713,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -1733,9 +1731,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -1753,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -1773,15 +1771,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
         <v>10</v>
       </c>
-      <c r="B68" t="s">
-        <v>11</v>
-      </c>
       <c r="C68" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D68" s="1">
         <v>5</v>
@@ -1793,9 +1791,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -1813,15 +1811,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D70" s="1">
         <v>5</v>
@@ -1833,9 +1831,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -1853,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -1873,9 +1871,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
         <v>9</v>
@@ -1893,15 +1891,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D74" s="1">
         <v>5</v>
@@ -1913,12 +1911,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C75" s="1">
         <v>8</v>
@@ -1933,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -1953,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -1961,7 +1959,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D77" s="1">
         <v>5</v>
@@ -1973,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -1993,9 +1991,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2013,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2033,15 +2031,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
         <v>10</v>
       </c>
-      <c r="B81" t="s">
-        <v>11</v>
-      </c>
       <c r="C81" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D81" s="1">
         <v>5</v>
@@ -2053,9 +2051,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
@@ -2073,15 +2071,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
       </c>
       <c r="C83" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D83" s="1">
         <v>5</v>
@@ -2093,9 +2091,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -2113,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -2133,9 +2131,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
@@ -2153,15 +2151,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D87" s="1">
         <v>5</v>
@@ -2173,12 +2171,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C88" s="1">
         <v>8</v>
@@ -2193,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -2213,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -2221,7 +2219,7 @@
         <v>3</v>
       </c>
       <c r="C90" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D90" s="1">
         <v>5</v>
@@ -2233,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2253,9 +2251,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -2273,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2293,15 +2291,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" t="s">
         <v>10</v>
       </c>
-      <c r="B94" t="s">
-        <v>11</v>
-      </c>
       <c r="C94" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D94" s="1">
         <v>5</v>
@@ -2313,9 +2311,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
         <v>1</v>
@@ -2333,15 +2331,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
       </c>
       <c r="C96" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D96" s="1">
         <v>5</v>
@@ -2353,9 +2351,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -2373,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -2393,9 +2391,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
@@ -2413,15 +2411,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C100" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D100" s="1">
         <v>5</v>
@@ -2433,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -2453,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -2461,7 +2459,7 @@
         <v>3</v>
       </c>
       <c r="C102" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D102" s="1">
         <v>5</v>
@@ -2473,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -2493,9 +2491,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -2513,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -2533,15 +2531,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" t="s">
         <v>10</v>
       </c>
-      <c r="B106" t="s">
-        <v>11</v>
-      </c>
       <c r="C106" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D106" s="1">
         <v>5</v>
@@ -2553,9 +2551,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -2573,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -2593,9 +2591,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B109" t="s">
         <v>9</v>
@@ -2613,15 +2611,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C110" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D110" s="1">
         <v>5</v>
@@ -2633,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -2653,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -2661,7 +2659,7 @@
         <v>3</v>
       </c>
       <c r="C112" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D112" s="1">
         <v>5</v>
@@ -2673,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -2693,9 +2691,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -2713,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -2733,15 +2731,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" t="s">
         <v>10</v>
       </c>
-      <c r="B116" t="s">
-        <v>11</v>
-      </c>
       <c r="C116" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D116" s="1">
         <v>5</v>
@@ -2753,9 +2751,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -2773,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -2793,9 +2791,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B119" t="s">
         <v>9</v>
@@ -2813,15 +2811,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C120" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D120" s="1">
         <v>5</v>
@@ -2833,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -2853,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -2861,7 +2859,7 @@
         <v>3</v>
       </c>
       <c r="C122" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D122" s="1">
         <v>5</v>
@@ -2873,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -2893,9 +2891,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -2913,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -2933,15 +2931,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" t="s">
         <v>10</v>
       </c>
-      <c r="B126" t="s">
-        <v>11</v>
-      </c>
       <c r="C126" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D126" s="1">
         <v>5</v>
@@ -2953,9 +2951,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -2973,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -2993,9 +2991,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B129" t="s">
         <v>9</v>
@@ -3013,15 +3011,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C130" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D130" s="1">
         <v>5</v>
@@ -3033,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -3053,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>2</v>
       </c>
@@ -3061,7 +3059,7 @@
         <v>3</v>
       </c>
       <c r="C132" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D132" s="1">
         <v>5</v>
@@ -3073,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -3093,9 +3091,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -3113,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -3133,15 +3131,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
+        <v>17</v>
+      </c>
+      <c r="B136" t="s">
         <v>10</v>
       </c>
-      <c r="B136" t="s">
-        <v>11</v>
-      </c>
       <c r="C136" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D136" s="1">
         <v>5</v>
@@ -3153,9 +3151,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -3173,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -3193,9 +3191,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B139" t="s">
         <v>9</v>
@@ -3213,15 +3211,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C140" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D140" s="1">
         <v>5</v>
@@ -3233,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -3253,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>2</v>
       </c>
@@ -3261,7 +3259,7 @@
         <v>3</v>
       </c>
       <c r="C142" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D142" s="1">
         <v>5</v>
@@ -3273,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -3293,9 +3291,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -3313,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -3333,15 +3331,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" t="s">
         <v>10</v>
       </c>
-      <c r="B146" t="s">
-        <v>11</v>
-      </c>
       <c r="C146" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D146" s="1">
         <v>5</v>
@@ -3353,9 +3351,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -3373,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -3393,9 +3391,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B149" t="s">
         <v>9</v>
@@ -3413,15 +3411,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C150" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D150" s="1">
         <v>5</v>
@@ -3433,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -3453,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -3461,7 +3459,7 @@
         <v>3</v>
       </c>
       <c r="C152" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D152" s="1">
         <v>5</v>
@@ -3473,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -3493,9 +3491,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
@@ -3513,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -3533,15 +3531,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
+        <v>17</v>
+      </c>
+      <c r="B156" t="s">
         <v>10</v>
       </c>
-      <c r="B156" t="s">
-        <v>11</v>
-      </c>
       <c r="C156" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D156" s="1">
         <v>5</v>
@@ -3553,9 +3551,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -3573,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -3593,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>0</v>
       </c>
@@ -3613,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>2</v>
       </c>
@@ -3621,7 +3619,7 @@
         <v>3</v>
       </c>
       <c r="C160" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D160" s="1">
         <v>5</v>
@@ -3633,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -3653,9 +3651,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
@@ -3673,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -3693,15 +3691,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164" t="s">
         <v>10</v>
       </c>
-      <c r="B164" t="s">
-        <v>11</v>
-      </c>
       <c r="C164" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D164" s="1">
         <v>5</v>
@@ -3713,9 +3711,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -3733,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -3753,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>0</v>
       </c>
@@ -3773,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>2</v>
       </c>
@@ -3781,7 +3779,7 @@
         <v>3</v>
       </c>
       <c r="C168" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D168" s="1">
         <v>5</v>
@@ -3793,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -3813,9 +3811,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -3833,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -3853,15 +3851,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
+        <v>17</v>
+      </c>
+      <c r="B172" t="s">
         <v>10</v>
       </c>
-      <c r="B172" t="s">
-        <v>11</v>
-      </c>
       <c r="C172" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D172" s="1">
         <v>5</v>
@@ -3873,9 +3871,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -3893,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>15</v>
       </c>
@@ -3913,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>0</v>
       </c>
@@ -3933,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>2</v>
       </c>
@@ -3941,7 +3939,7 @@
         <v>3</v>
       </c>
       <c r="C176" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D176" s="1">
         <v>5</v>
@@ -3953,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -3973,9 +3971,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -3993,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -4013,15 +4011,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" t="s">
         <v>10</v>
       </c>
-      <c r="B180" t="s">
-        <v>11</v>
-      </c>
       <c r="C180" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D180" s="1">
         <v>5</v>
@@ -4033,9 +4031,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -4053,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -4073,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>0</v>
       </c>
@@ -4093,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>2</v>
       </c>
@@ -4101,7 +4099,7 @@
         <v>3</v>
       </c>
       <c r="C184" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D184" s="1">
         <v>5</v>
@@ -4113,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -4133,9 +4131,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B186" t="s">
         <v>7</v>
@@ -4153,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -4173,15 +4171,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
+        <v>17</v>
+      </c>
+      <c r="B188" t="s">
         <v>10</v>
       </c>
-      <c r="B188" t="s">
-        <v>11</v>
-      </c>
       <c r="C188" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D188" s="1">
         <v>5</v>
@@ -4193,9 +4191,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -4213,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>15</v>
       </c>
@@ -4233,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -4253,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>2</v>
       </c>
@@ -4261,7 +4259,7 @@
         <v>3</v>
       </c>
       <c r="C192" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D192" s="1">
         <v>5</v>
@@ -4273,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -4293,9 +4291,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -4313,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -4333,15 +4331,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196" t="s">
         <v>10</v>
       </c>
-      <c r="B196" t="s">
-        <v>11</v>
-      </c>
       <c r="C196" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D196" s="1">
         <v>5</v>
@@ -4353,9 +4351,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -4373,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -4393,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -4413,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>2</v>
       </c>
@@ -4421,7 +4419,7 @@
         <v>3</v>
       </c>
       <c r="C200" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D200" s="1">
         <v>5</v>
@@ -4433,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -4453,9 +4451,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -4473,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -4493,15 +4491,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
+        <v>17</v>
+      </c>
+      <c r="B204" t="s">
         <v>10</v>
       </c>
-      <c r="B204" t="s">
-        <v>11</v>
-      </c>
       <c r="C204" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D204" s="1">
         <v>5</v>
@@ -4513,9 +4511,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -4533,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -4553,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -4573,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
         <v>2</v>
       </c>
@@ -4581,7 +4579,7 @@
         <v>3</v>
       </c>
       <c r="C208" s="1">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D208" s="1">
         <v>5</v>
@@ -4593,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -4613,9 +4611,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -4633,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -4653,15 +4651,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6">
       <c r="A212" t="s">
+        <v>17</v>
+      </c>
+      <c r="B212" t="s">
         <v>10</v>
       </c>
-      <c r="B212" t="s">
-        <v>11</v>
-      </c>
       <c r="C212" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D212" s="1">
         <v>5</v>
@@ -4673,9 +4671,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -4693,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -4713,12 +4711,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
         <v>0</v>
       </c>
       <c r="B215" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C215" s="1">
         <v>8.02</v>
@@ -4733,12 +4731,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
         <v>2</v>
       </c>
       <c r="B216" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C216" s="1">
         <v>8.31</v>
@@ -4747,18 +4745,18 @@
         <v>5.16</v>
       </c>
       <c r="E216" s="1">
-        <v>8.2899999999999991</v>
+        <v>8.29</v>
       </c>
       <c r="F216">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" t="s">
         <v>4</v>
       </c>
       <c r="B217" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C217" s="1">
         <v>8.44</v>
@@ -4773,55 +4771,55 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B218" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C218" s="1">
         <v>8.15</v>
       </c>
       <c r="D218" s="1">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="E218" s="1">
-        <v>8.4499999999999993</v>
+        <v>8.45</v>
       </c>
       <c r="F218">
         <v>0.45</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6">
       <c r="A219" t="s">
         <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C219" s="1">
-        <v>8.2200000000000006</v>
+        <v>8.22</v>
       </c>
       <c r="D219" s="1">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="E219" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="F219">
         <v>0.2</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B220" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C220" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D220" s="1">
         <v>5.14</v>
@@ -4833,12 +4831,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B221" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C221" s="1">
         <v>7.42</v>
@@ -4853,12 +4851,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6">
       <c r="A222" t="s">
         <v>15</v>
       </c>
       <c r="B222" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C222" s="1">
         <v>7.54</v>
@@ -4873,12 +4871,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B223" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C223" s="1">
         <v>8.08</v>
@@ -4893,12 +4891,12 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B224" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C224" s="1">
         <v>8.14</v>
@@ -4907,18 +4905,18 @@
         <v>5.32</v>
       </c>
       <c r="E224" s="1">
-        <v>8.3800000000000008</v>
+        <v>8.38</v>
       </c>
       <c r="F224">
         <v>0.38</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6">
       <c r="A225" t="s">
+        <v>21</v>
+      </c>
+      <c r="B225" t="s">
         <v>20</v>
-      </c>
-      <c r="B225" t="s">
-        <v>19</v>
       </c>
       <c r="C225" s="1">
         <v>8.01</v>
@@ -4933,12 +4931,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B226" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C226" s="1">
         <v>8.42</v>
@@ -4947,21 +4945,21 @@
         <v>5.08</v>
       </c>
       <c r="E226" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="F226">
         <v>0.2</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B227" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C227" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.05</v>
       </c>
       <c r="D227" s="1">
         <v>5.3</v>
@@ -4973,12 +4971,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B228" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C228" s="1">
         <v>7.56</v>
@@ -4993,12 +4991,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B229" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C229" s="1">
         <v>8.02</v>
@@ -5013,12 +5011,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6">
       <c r="A230" t="s">
         <v>0</v>
       </c>
       <c r="B230" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C230" s="1">
         <v>8.02</v>
@@ -5033,12 +5031,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6">
       <c r="A231" t="s">
         <v>2</v>
       </c>
       <c r="B231" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C231" s="1">
         <v>8.31</v>
@@ -5047,18 +5045,18 @@
         <v>5.16</v>
       </c>
       <c r="E231" s="1">
-        <v>8.2899999999999991</v>
+        <v>8.29</v>
       </c>
       <c r="F231">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" t="s">
         <v>4</v>
       </c>
       <c r="B232" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C232" s="1">
         <v>8.44</v>
@@ -5073,55 +5071,55 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B233" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C233" s="1">
         <v>8.15</v>
       </c>
       <c r="D233" s="1">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="E233" s="1">
-        <v>8.4499999999999993</v>
+        <v>8.45</v>
       </c>
       <c r="F233">
         <v>0.45</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6">
       <c r="A234" t="s">
         <v>8</v>
       </c>
       <c r="B234" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C234" s="1">
-        <v>8.2200000000000006</v>
+        <v>8.22</v>
       </c>
       <c r="D234" s="1">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="E234" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="F234">
         <v>0.2</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B235" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C235" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D235" s="1">
         <v>5.14</v>
@@ -5133,12 +5131,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B236" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C236" s="1">
         <v>7.42</v>
@@ -5153,12 +5151,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6">
       <c r="A237" t="s">
         <v>15</v>
       </c>
       <c r="B237" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C237" s="1">
         <v>7.54</v>
@@ -5173,12 +5171,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B238" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C238" s="1">
         <v>8.08</v>
@@ -5193,12 +5191,12 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B239" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C239" s="1">
         <v>8.14</v>
@@ -5207,18 +5205,18 @@
         <v>5.32</v>
       </c>
       <c r="E239" s="1">
-        <v>8.3800000000000008</v>
+        <v>8.38</v>
       </c>
       <c r="F239">
         <v>0.38</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6">
       <c r="A240" t="s">
+        <v>21</v>
+      </c>
+      <c r="B240" t="s">
         <v>20</v>
-      </c>
-      <c r="B240" t="s">
-        <v>19</v>
       </c>
       <c r="C240" s="1">
         <v>8.01</v>
@@ -5233,12 +5231,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B241" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C241" s="1">
         <v>8.42</v>
@@ -5247,21 +5245,21 @@
         <v>5.08</v>
       </c>
       <c r="E241" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="F241">
         <v>0.2</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B242" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C242" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.05</v>
       </c>
       <c r="D242" s="1">
         <v>5.3</v>
@@ -5273,12 +5271,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B243" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C243" s="1">
         <v>7.56</v>
@@ -5293,12 +5291,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B244" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C244" s="1">
         <v>8.02</v>
@@ -5313,9 +5311,298 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>0</v>
+      </c>
+      <c r="B245" t="s">
+        <v>20</v>
+      </c>
+      <c r="C245" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="D245" s="1">
+        <v>5</v>
+      </c>
+      <c r="E245" s="1">
+        <v>9</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246" t="s">
+        <v>20</v>
+      </c>
+      <c r="C246" s="1">
+        <v>8.31</v>
+      </c>
+      <c r="D246" s="1">
+        <v>5.16</v>
+      </c>
+      <c r="E246" s="1">
+        <v>8.29</v>
+      </c>
+      <c r="F246">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247" t="s">
+        <v>20</v>
+      </c>
+      <c r="C247" s="1">
+        <v>8.44</v>
+      </c>
+      <c r="D247" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="E247" s="1">
+        <v>8.42</v>
+      </c>
+      <c r="F247">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>14</v>
+      </c>
+      <c r="B248" t="s">
+        <v>20</v>
+      </c>
+      <c r="C248" s="1">
+        <v>8.15</v>
+      </c>
+      <c r="D248" s="1">
+        <v>5.02</v>
+      </c>
+      <c r="E248" s="1">
+        <v>8.45</v>
+      </c>
+      <c r="F248">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>8</v>
+      </c>
+      <c r="B249" t="s">
+        <v>20</v>
+      </c>
+      <c r="C249" s="1">
+        <v>8.22</v>
+      </c>
+      <c r="D249" s="1">
+        <v>5.11</v>
+      </c>
+      <c r="E249" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="F249">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>17</v>
+      </c>
+      <c r="B250" t="s">
+        <v>20</v>
+      </c>
+      <c r="C250" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="D250" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="E250" s="1">
+        <v>9</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>18</v>
+      </c>
+      <c r="B251" t="s">
+        <v>20</v>
+      </c>
+      <c r="C251" s="1">
+        <v>7.42</v>
+      </c>
+      <c r="D251" s="1">
+        <v>5.44</v>
+      </c>
+      <c r="E251" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>15</v>
+      </c>
+      <c r="B252" t="s">
+        <v>20</v>
+      </c>
+      <c r="C252" s="1">
+        <v>7.54</v>
+      </c>
+      <c r="D252" s="1">
+        <v>5</v>
+      </c>
+      <c r="E252" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>13</v>
+      </c>
+      <c r="B253" t="s">
+        <v>20</v>
+      </c>
+      <c r="C253" s="1">
+        <v>8.08</v>
+      </c>
+      <c r="D253" s="1">
+        <v>5.46</v>
+      </c>
+      <c r="E253" s="1">
+        <v>9.08</v>
+      </c>
+      <c r="F253">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>16</v>
+      </c>
+      <c r="B254" t="s">
+        <v>20</v>
+      </c>
+      <c r="C254" s="1">
+        <v>8.14</v>
+      </c>
+      <c r="D254" s="1">
+        <v>5.32</v>
+      </c>
+      <c r="E254" s="1">
+        <v>8.38</v>
+      </c>
+      <c r="F254">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>21</v>
+      </c>
+      <c r="B255" t="s">
+        <v>20</v>
+      </c>
+      <c r="C255" s="1">
+        <v>8.01</v>
+      </c>
+      <c r="D255" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="E255" s="1">
+        <v>8</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
+        <v>22</v>
+      </c>
+      <c r="B256" t="s">
+        <v>20</v>
+      </c>
+      <c r="C256" s="1">
+        <v>8.42</v>
+      </c>
+      <c r="D256" s="1">
+        <v>5.08</v>
+      </c>
+      <c r="E256" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="F256">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>24</v>
+      </c>
+      <c r="B257" t="s">
+        <v>20</v>
+      </c>
+      <c r="C257" s="1">
+        <v>7.56</v>
+      </c>
+      <c r="D257" s="1">
+        <v>5.24</v>
+      </c>
+      <c r="E257" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
+        <v>25</v>
+      </c>
+      <c r="B258" t="s">
+        <v>20</v>
+      </c>
+      <c r="C258" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="D258" s="1">
+        <v>5</v>
+      </c>
+      <c r="E258" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F258">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>